--- a/output/fit_clients/fit_round_66.xlsx
+++ b/output/fit_clients/fit_round_66.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,24 +441,24 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>splitLayer</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>dataSize</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>frequency</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>computation</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>transPower</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>updateTime</t>
-        </is>
-      </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
           <t>isSelected</t>
@@ -466,37 +466,7 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
           <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>sigma</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_mu</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_U</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>g</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_omega</t>
         </is>
       </c>
     </row>
@@ -510,40 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>537</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>3774986777.133273</v>
+        <v>502</v>
       </c>
       <c r="E2" t="n">
-        <v>0.002328856375017683</v>
+        <v>6878048375.215151</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3726138694102082</v>
+        <v>0.003792169979698134</v>
       </c>
       <c r="G2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5059254371431372</v>
-      </c>
-      <c r="I2" t="n">
-        <v>14</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.6770319946579617</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.5059254371431372</v>
-      </c>
-      <c r="L2" t="n">
-        <v>3.012812373771839</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.9477137120712986</v>
-      </c>
-      <c r="N2" t="n">
-        <v>-3.012812373771839</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3">
@@ -556,40 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>506</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>6614434859.423958</v>
+        <v>542</v>
       </c>
       <c r="E3" t="n">
-        <v>0.001601023866104471</v>
+        <v>4599977697.486697</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2003816453210076</v>
+        <v>0.003799954528570878</v>
       </c>
       <c r="G3" t="b">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1576475125433262</v>
-      </c>
-      <c r="I3" t="n">
-        <v>17</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.8944810179591189</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.1576475125433262</v>
-      </c>
-      <c r="L3" t="n">
-        <v>2.432610338129131</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1.060484178682226</v>
-      </c>
-      <c r="N3" t="n">
-        <v>-2.432610338129131</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4">
@@ -602,40 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>517</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>7057299520.002787</v>
+        <v>534</v>
       </c>
       <c r="E4" t="n">
-        <v>0.00475458632877329</v>
+        <v>5285390037.9075</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1918899185391901</v>
+        <v>0.003120888533882643</v>
       </c>
       <c r="G4" t="b">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1404760395772202</v>
-      </c>
-      <c r="I4" t="n">
-        <v>9</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.3781448278568041</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.1404760395772202</v>
-      </c>
-      <c r="L4" t="n">
-        <v>3.267113380991847</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0.678726669406754</v>
-      </c>
-      <c r="N4" t="n">
-        <v>-3.267113380991847</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5">
@@ -648,40 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>457</v>
+        <v>6</v>
       </c>
       <c r="D5" t="n">
-        <v>4388248950.685743</v>
+        <v>494</v>
       </c>
       <c r="E5" t="n">
-        <v>0.004468194274220615</v>
+        <v>4421366125.481043</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2727879032052039</v>
+        <v>0.00322704209899057</v>
       </c>
       <c r="G5" t="b">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.304063210054648</v>
-      </c>
-      <c r="I5" t="n">
-        <v>17</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.8484873196842306</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.304063210054648</v>
-      </c>
-      <c r="L5" t="n">
-        <v>2.579026035640453</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0.9625941341820332</v>
-      </c>
-      <c r="N5" t="n">
-        <v>-2.579026035640453</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -694,40 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>503</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>5158759218.929073</v>
+        <v>469</v>
       </c>
       <c r="E6" t="n">
-        <v>0.002674626227876958</v>
+        <v>6589761242.297634</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2554011757644149</v>
+        <v>0.002787129946005989</v>
       </c>
       <c r="G6" t="b">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2689047872874635</v>
-      </c>
-      <c r="I6" t="n">
-        <v>19</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.6770319946579617</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.2689047872874636</v>
-      </c>
-      <c r="L6" t="n">
-        <v>2.42080418797068</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0.8672407328829139</v>
-      </c>
-      <c r="N6" t="n">
-        <v>-2.42080418797068</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7">
@@ -740,40 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>512</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
-        <v>6782530685.600801</v>
+        <v>539</v>
       </c>
       <c r="E7" t="n">
-        <v>0.004046256931989904</v>
+        <v>8048076952.271662</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1977326372952785</v>
+        <v>0.0009250121561559149</v>
       </c>
       <c r="G7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1522908435324719</v>
-      </c>
-      <c r="I7" t="n">
-        <v>15</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.6770319946579617</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0.1522908435324719</v>
-      </c>
-      <c r="L7" t="n">
-        <v>2.574173714118288</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0.9117678629115473</v>
-      </c>
-      <c r="N7" t="n">
-        <v>-2.574173714118288</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8">
@@ -786,40 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>507</v>
+        <v>6</v>
       </c>
       <c r="D8" t="n">
-        <v>7911290988.484811</v>
+        <v>513</v>
       </c>
       <c r="E8" t="n">
-        <v>0.001124098464773324</v>
+        <v>7184890849.514049</v>
       </c>
       <c r="F8" t="n">
-        <v>0.167865236145782</v>
+        <v>0.003042034434680603</v>
       </c>
       <c r="G8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0.09189473275502938</v>
-      </c>
-      <c r="I8" t="n">
-        <v>8</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.6770319946579617</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.09189473275502937</v>
-      </c>
-      <c r="L8" t="n">
-        <v>3.408194432393071</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0.9628309384763584</v>
-      </c>
-      <c r="N8" t="n">
-        <v>-3.408194432393071</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9">
@@ -832,40 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>467</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
-        <v>8275485145.129385</v>
+        <v>569</v>
       </c>
       <c r="E9" t="n">
-        <v>0.001160298933765199</v>
+        <v>4803419068.456602</v>
       </c>
       <c r="F9" t="n">
-        <v>0.147816727182449</v>
+        <v>0.003849415368279216</v>
       </c>
       <c r="G9" t="b">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.05135381115923064</v>
-      </c>
-      <c r="I9" t="n">
-        <v>9</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.6770319946579617</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0.05135381115923065</v>
-      </c>
-      <c r="L9" t="n">
-        <v>3.177991152573858</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0.9105983167361456</v>
-      </c>
-      <c r="N9" t="n">
-        <v>-3.177991152573858</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10">
@@ -878,40 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>532</v>
+        <v>6</v>
       </c>
       <c r="D10" t="n">
-        <v>7013801834.255452</v>
+        <v>529</v>
       </c>
       <c r="E10" t="n">
-        <v>0.002857293985944274</v>
+        <v>3459347887.486702</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1986819007623029</v>
+        <v>0.004171333520414418</v>
       </c>
       <c r="G10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1542103885650115</v>
-      </c>
-      <c r="I10" t="n">
-        <v>14</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0.2081339720941074</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0.1542103885650115</v>
-      </c>
-      <c r="L10" t="n">
-        <v>2.661097325193714</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0.3550000998855525</v>
-      </c>
-      <c r="N10" t="n">
-        <v>-2.661097325193714</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -924,40 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>413</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
-        <v>5818186551.41062</v>
+        <v>582</v>
       </c>
       <c r="E11" t="n">
-        <v>0.002615823055307827</v>
+        <v>3250679954.338488</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1859356107682239</v>
+        <v>0.001068284512565826</v>
       </c>
       <c r="G11" t="b">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1284355868462225</v>
-      </c>
-      <c r="I11" t="n">
-        <v>16</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0.6770319946579617</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0.1284355868462226</v>
-      </c>
-      <c r="L11" t="n">
-        <v>2.473413592907193</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0.7819719749559318</v>
-      </c>
-      <c r="N11" t="n">
-        <v>-2.473413592907193</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -970,40 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>555</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
-        <v>5619512611.38813</v>
+        <v>537</v>
       </c>
       <c r="E12" t="n">
-        <v>0.00268072866557397</v>
+        <v>7821856910.132966</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2586988499774703</v>
+        <v>0.002184515920302629</v>
       </c>
       <c r="G12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.2755731511026717</v>
-      </c>
-      <c r="I12" t="n">
-        <v>9</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0.6770319946579617</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0.2755731511026717</v>
-      </c>
-      <c r="L12" t="n">
-        <v>3.402210492517299</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1.005552101448457</v>
-      </c>
-      <c r="N12" t="n">
-        <v>-3.402210492517299</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13">
@@ -1016,40 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>623</v>
+        <v>1</v>
       </c>
       <c r="D13" t="n">
-        <v>8265963767.339729</v>
+        <v>480</v>
       </c>
       <c r="E13" t="n">
-        <v>0.002623951272544145</v>
+        <v>5580499199.12114</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1974216214747812</v>
+        <v>0.004517743622980494</v>
       </c>
       <c r="G13" t="b">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1516619255407699</v>
-      </c>
-      <c r="I13" t="n">
-        <v>16</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0.6770319946579617</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0.1516619255407699</v>
-      </c>
-      <c r="L13" t="n">
-        <v>2.49663993160174</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.02257950972283</v>
-      </c>
-      <c r="N13" t="n">
-        <v>-2.49663993160174</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14">
@@ -1062,40 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>472</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
-        <v>5928203131.174623</v>
+        <v>486</v>
       </c>
       <c r="E14" t="n">
-        <v>0.001542642043342661</v>
+        <v>5837338215.014142</v>
       </c>
       <c r="F14" t="n">
-        <v>0.2085542706015587</v>
+        <v>0.002785544065822891</v>
       </c>
       <c r="G14" t="b">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1741737171272498</v>
-      </c>
-      <c r="I14" t="n">
-        <v>11</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0.6770319946579617</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0.1741737171272497</v>
-      </c>
-      <c r="L14" t="n">
-        <v>3.002323603578155</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0.8995688355825264</v>
-      </c>
-      <c r="N14" t="n">
-        <v>-3.002323603578155</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15">
@@ -1108,40 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>554</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
-        <v>4243790845.786891</v>
+        <v>538</v>
       </c>
       <c r="E15" t="n">
-        <v>0.004965350667070036</v>
+        <v>6325841084.658133</v>
       </c>
       <c r="F15" t="n">
-        <v>0.3419447641819225</v>
+        <v>0.003932132749025888</v>
       </c>
       <c r="G15" t="b">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0.4439081672929345</v>
-      </c>
-      <c r="I15" t="n">
-        <v>10</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0.6770319946579617</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0.4439081672929345</v>
-      </c>
-      <c r="L15" t="n">
-        <v>3.410096792154053</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0.9969533331172359</v>
-      </c>
-      <c r="N15" t="n">
-        <v>-3.410096792154053</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16">
@@ -1154,40 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>488</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
-        <v>5171080259.722651</v>
+        <v>569</v>
       </c>
       <c r="E16" t="n">
-        <v>0.00167100299863924</v>
+        <v>5667330975.309068</v>
       </c>
       <c r="F16" t="n">
-        <v>0.2471944459954213</v>
+        <v>0.004885144591484433</v>
       </c>
       <c r="G16" t="b">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0.2523096186027912</v>
-      </c>
-      <c r="I16" t="n">
-        <v>11</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0.6770319946579617</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0.2523096186027912</v>
-      </c>
-      <c r="L16" t="n">
-        <v>3.080459505053696</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0.9177718303306774</v>
-      </c>
-      <c r="N16" t="n">
-        <v>-3.080459505053696</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17">
@@ -1200,40 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>508</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
-        <v>7685931331.203353</v>
+        <v>462</v>
       </c>
       <c r="E17" t="n">
-        <v>0.004381541380359111</v>
+        <v>4887548633.330561</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1731280260855083</v>
+        <v>0.002968077818911633</v>
       </c>
       <c r="G17" t="b">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0.1025368385950107</v>
-      </c>
-      <c r="I17" t="n">
-        <v>11</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0.6770319946579617</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0.1025368385950106</v>
-      </c>
-      <c r="L17" t="n">
-        <v>2.930686725045915</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0.940030018560602</v>
-      </c>
-      <c r="N17" t="n">
-        <v>-2.930686725045915</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18">
@@ -1246,40 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>497</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
-        <v>6872541171.616985</v>
+        <v>536</v>
       </c>
       <c r="E18" t="n">
-        <v>0.00116419486842914</v>
+        <v>5187175222.192178</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1894258320890788</v>
+        <v>0.001304507650652482</v>
       </c>
       <c r="G18" t="b">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0.1354933081550515</v>
-      </c>
-      <c r="I18" t="n">
-        <v>10</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0.6770319946579617</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0.1354933081550515</v>
-      </c>
-      <c r="L18" t="n">
-        <v>3.10168193301617</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0.9359832980138977</v>
-      </c>
-      <c r="N18" t="n">
-        <v>-3.10168193301617</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19">
@@ -1292,40 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>502</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
-        <v>6085072935.90115</v>
+        <v>512</v>
       </c>
       <c r="E19" t="n">
-        <v>0.001217401097988846</v>
+        <v>4275327541.515474</v>
       </c>
       <c r="F19" t="n">
-        <v>0.216091704052068</v>
+        <v>0.00159158954828375</v>
       </c>
       <c r="G19" t="b">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0.189415473963607</v>
-      </c>
-      <c r="I19" t="n">
-        <v>14</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0.9443149825933692</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0.189415473963607</v>
-      </c>
-      <c r="L19" t="n">
-        <v>2.696302410592309</v>
-      </c>
-      <c r="M19" t="n">
-        <v>1.111553975798543</v>
-      </c>
-      <c r="N19" t="n">
-        <v>-2.696302410592309</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1338,40 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>406</v>
+        <v>6</v>
       </c>
       <c r="D20" t="n">
-        <v>5842947484.476484</v>
+        <v>508</v>
       </c>
       <c r="E20" t="n">
-        <v>0.002702245428946161</v>
+        <v>6162160671.460048</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1820095667170428</v>
+        <v>0.001262175366537388</v>
       </c>
       <c r="G20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20" t="n">
-        <v>0.1204965703162807</v>
-      </c>
-      <c r="I20" t="n">
-        <v>8</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0.6770319946579617</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0.1204965703162808</v>
-      </c>
-      <c r="L20" t="n">
-        <v>3.436796269954322</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0.8474782207775716</v>
-      </c>
-      <c r="N20" t="n">
-        <v>-3.436796269954322</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21">
@@ -1384,40 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>464</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
-        <v>4118902707.420316</v>
+        <v>440</v>
       </c>
       <c r="E21" t="n">
-        <v>0.003495120266565044</v>
+        <v>5379892935.873698</v>
       </c>
       <c r="F21" t="n">
-        <v>0.2950778511496349</v>
+        <v>0.005075881899202822</v>
       </c>
       <c r="G21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0.349136638390008</v>
-      </c>
-      <c r="I21" t="n">
-        <v>14</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0.6770319946579617</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0.349136638390008</v>
-      </c>
-      <c r="L21" t="n">
-        <v>2.85602357501871</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0.864424099153967</v>
-      </c>
-      <c r="N21" t="n">
-        <v>-2.85602357501871</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22">
@@ -1430,40 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>421</v>
+        <v>6</v>
       </c>
       <c r="D22" t="n">
-        <v>4170796226.284842</v>
+        <v>441</v>
       </c>
       <c r="E22" t="n">
-        <v>0.001920615895399191</v>
+        <v>4525578982.200827</v>
       </c>
       <c r="F22" t="n">
-        <v>0.2644011191556803</v>
+        <v>0.00360011602372855</v>
       </c>
       <c r="G22" t="b">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0.2871039461405845</v>
-      </c>
-      <c r="I22" t="n">
-        <v>17</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0.6932009870806636</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0.2871039461405845</v>
-      </c>
-      <c r="L22" t="n">
-        <v>2.56206677172639</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0.79602593465812</v>
-      </c>
-      <c r="N22" t="n">
-        <v>-2.56206677172639</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23">
@@ -1476,40 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>489</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
-        <v>7073710656.462761</v>
+        <v>439</v>
       </c>
       <c r="E23" t="n">
-        <v>0.002005186979892943</v>
+        <v>6686455660.73892</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1810763504766408</v>
+        <v>0.001854261430067747</v>
       </c>
       <c r="G23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23" t="n">
-        <v>0.1186094750463404</v>
-      </c>
-      <c r="I23" t="n">
-        <v>18</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0.6770319946579617</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0.1186094750463404</v>
-      </c>
-      <c r="L23" t="n">
-        <v>2.329475941471701</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0.8592508898163805</v>
-      </c>
-      <c r="N23" t="n">
-        <v>-2.329475941471701</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24">
@@ -1522,40 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>561</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
-        <v>5525064420.028789</v>
+        <v>513</v>
       </c>
       <c r="E24" t="n">
-        <v>0.004629431951755945</v>
+        <v>7955566169.334362</v>
       </c>
       <c r="F24" t="n">
-        <v>0.2659657296796448</v>
+        <v>0.003790043892230851</v>
       </c>
       <c r="G24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0.2902678099818315</v>
-      </c>
-      <c r="I24" t="n">
-        <v>10</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0.6770319946579617</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0.2902678099818315</v>
-      </c>
-      <c r="L24" t="n">
-        <v>3.25645643484295</v>
-      </c>
-      <c r="M24" t="n">
-        <v>1.004185692265056</v>
-      </c>
-      <c r="N24" t="n">
-        <v>-3.25645643484295</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25">
@@ -1568,40 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>502</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
-        <v>5413259802.605798</v>
+        <v>473</v>
       </c>
       <c r="E25" t="n">
-        <v>0.001173784140480929</v>
+        <v>6997540913.437617</v>
       </c>
       <c r="F25" t="n">
-        <v>0.2429097859605826</v>
+        <v>0.004049338032997267</v>
       </c>
       <c r="G25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25" t="n">
-        <v>0.2436454298167454</v>
-      </c>
-      <c r="I25" t="n">
-        <v>10</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0.6770319946579617</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0.2436454298167455</v>
-      </c>
-      <c r="L25" t="n">
-        <v>3.209834054677864</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0.9414895432093782</v>
-      </c>
-      <c r="N25" t="n">
-        <v>-3.209834054677864</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26">
@@ -1614,40 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>440</v>
+        <v>6</v>
       </c>
       <c r="D26" t="n">
-        <v>8878378545.372093</v>
+        <v>462</v>
       </c>
       <c r="E26" t="n">
-        <v>0.003343816849561506</v>
+        <v>4706121011.87369</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1298132980149584</v>
+        <v>0.001122206000737593</v>
       </c>
       <c r="G26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0.01494833024942155</v>
-      </c>
-      <c r="I26" t="n">
-        <v>16</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0.6770319946579617</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0.01494833024942155</v>
-      </c>
-      <c r="L26" t="n">
-        <v>2.359926336310392</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0.8168870356415801</v>
-      </c>
-      <c r="N26" t="n">
-        <v>-2.359926336310392</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1660,40 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>520</v>
+        <v>6</v>
       </c>
       <c r="D27" t="n">
-        <v>6054631295.600825</v>
+        <v>517</v>
       </c>
       <c r="E27" t="n">
-        <v>0.004693124232801393</v>
+        <v>7412662627.577437</v>
       </c>
       <c r="F27" t="n">
-        <v>0.2249654410813855</v>
+        <v>0.003822556224521908</v>
       </c>
       <c r="G27" t="b">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0.2073594256971372</v>
-      </c>
-      <c r="I27" t="n">
-        <v>13</v>
-      </c>
-      <c r="J27" t="n">
-        <v>0.6770319946579617</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0.2073594256971372</v>
-      </c>
-      <c r="L27" t="n">
-        <v>2.808878945908871</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0.9371041497293296</v>
-      </c>
-      <c r="N27" t="n">
-        <v>-2.808878945908871</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28">
@@ -1706,40 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>488</v>
+        <v>6</v>
       </c>
       <c r="D28" t="n">
-        <v>5647876142.162022</v>
+        <v>507</v>
       </c>
       <c r="E28" t="n">
-        <v>0.003842736873459637</v>
+        <v>5717650081.603906</v>
       </c>
       <c r="F28" t="n">
-        <v>0.2263261955158029</v>
+        <v>0.00394587626071923</v>
       </c>
       <c r="G28" t="b">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0.21011106368367</v>
-      </c>
-      <c r="I28" t="n">
-        <v>12</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0.21011106368367</v>
-      </c>
-      <c r="L28" t="n">
-        <v>2.917858429769776</v>
-      </c>
-      <c r="M28" t="n">
-        <v>1.143883101906477</v>
-      </c>
-      <c r="N28" t="n">
-        <v>-2.917858429769776</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29">
@@ -1752,40 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>550</v>
+        <v>1</v>
       </c>
       <c r="D29" t="n">
-        <v>5434252017.002002</v>
+        <v>504</v>
       </c>
       <c r="E29" t="n">
-        <v>0.003512169427094836</v>
+        <v>8120631930.723306</v>
       </c>
       <c r="F29" t="n">
-        <v>0.2651081502095653</v>
+        <v>0.001108858012505366</v>
       </c>
       <c r="G29" t="b">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0.2885336629626071</v>
-      </c>
-      <c r="I29" t="n">
-        <v>11</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0.6770319946579617</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0.2885336629626071</v>
-      </c>
-      <c r="L29" t="n">
-        <v>3.116683549413512</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0.9851366263685188</v>
-      </c>
-      <c r="N29" t="n">
-        <v>-3.116683549413512</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30">
@@ -1798,40 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>483</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
-        <v>8499320839.705422</v>
+        <v>564</v>
       </c>
       <c r="E30" t="n">
-        <v>0.003553472151139161</v>
+        <v>6260033547.8021</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1488548783909479</v>
+        <v>0.002951756404416743</v>
       </c>
       <c r="G30" t="b">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0.05345309978090874</v>
-      </c>
-      <c r="I30" t="n">
-        <v>14</v>
-      </c>
-      <c r="J30" t="n">
-        <v>0.6770319946579617</v>
-      </c>
-      <c r="K30" t="n">
-        <v>0.05345309978090874</v>
-      </c>
-      <c r="L30" t="n">
-        <v>2.56034003640961</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0.8868555470212414</v>
-      </c>
-      <c r="N30" t="n">
-        <v>-2.56034003640961</v>
+        <v>22</v>
       </c>
     </row>
     <row r="31">
@@ -1844,40 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>555</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
-        <v>5830989036.590513</v>
+        <v>457</v>
       </c>
       <c r="E31" t="n">
-        <v>0.003502687500036464</v>
+        <v>4866776066.379777</v>
       </c>
       <c r="F31" t="n">
-        <v>0.2493164437246209</v>
+        <v>0.002773148019521081</v>
       </c>
       <c r="G31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0.2566005982324126</v>
-      </c>
-      <c r="I31" t="n">
-        <v>15</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0.6770319946579617</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0.2566005982324126</v>
-      </c>
-      <c r="L31" t="n">
-        <v>2.678483468818229</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0.9592840756618015</v>
-      </c>
-      <c r="N31" t="n">
-        <v>-2.678483468818229</v>
+        <v>13</v>
       </c>
     </row>
     <row r="32">
@@ -1890,40 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>516</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
-        <v>3806884341.105919</v>
+        <v>574</v>
       </c>
       <c r="E32" t="n">
-        <v>0.002488747404637244</v>
+        <v>4164302100.803566</v>
       </c>
       <c r="F32" t="n">
-        <v>0.3550423703199115</v>
+        <v>0.001353082786343679</v>
       </c>
       <c r="G32" t="b">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0.4703933799590733</v>
-      </c>
-      <c r="I32" t="n">
-        <v>14</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0.5997216068808543</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0.4703933799590733</v>
-      </c>
-      <c r="L32" t="n">
-        <v>2.977280316587775</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0.8561057703784563</v>
-      </c>
-      <c r="N32" t="n">
-        <v>-2.977280316587775</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1936,40 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>426</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
-        <v>4298435356.710087</v>
+        <v>470</v>
       </c>
       <c r="E33" t="n">
-        <v>0.004380269177921706</v>
+        <v>5441842387.656273</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2595968177718627</v>
+        <v>0.002863779354213577</v>
       </c>
       <c r="G33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0.2773889690278148</v>
-      </c>
-      <c r="I33" t="n">
-        <v>10</v>
-      </c>
-      <c r="J33" t="n">
-        <v>0.6770319946579617</v>
-      </c>
-      <c r="K33" t="n">
-        <v>0.2773889690278148</v>
-      </c>
-      <c r="L33" t="n">
-        <v>3.243577593888933</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0.8539716667640749</v>
-      </c>
-      <c r="N33" t="n">
-        <v>-3.243577593888933</v>
+        <v>14</v>
       </c>
     </row>
     <row r="34">
@@ -1982,40 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>368</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
-        <v>3372579813.752537</v>
+        <v>560</v>
       </c>
       <c r="E34" t="n">
-        <v>0.002693531213190146</v>
+        <v>7570956203.167001</v>
       </c>
       <c r="F34" t="n">
-        <v>0.2858154805022885</v>
+        <v>0.004111084250206929</v>
       </c>
       <c r="G34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H34" t="n">
-        <v>0.3304068144967667</v>
-      </c>
-      <c r="I34" t="n">
-        <v>13</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0.6770319946579617</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0.3304068144967668</v>
-      </c>
-      <c r="L34" t="n">
-        <v>2.9319263347085</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0.7509289465497696</v>
-      </c>
-      <c r="N34" t="n">
-        <v>-2.9319263347085</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35">
@@ -2028,40 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>509</v>
+        <v>6</v>
       </c>
       <c r="D35" t="n">
-        <v>6346940715.691374</v>
+        <v>514</v>
       </c>
       <c r="E35" t="n">
-        <v>0.002968528451979102</v>
+        <v>6720227322.004133</v>
       </c>
       <c r="F35" t="n">
-        <v>0.2100649068146789</v>
+        <v>0.002414212358960208</v>
       </c>
       <c r="G35" t="b">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0.1772284372756603</v>
-      </c>
-      <c r="I35" t="n">
-        <v>13</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0.6770319946579617</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0.1772284372756602</v>
-      </c>
-      <c r="L35" t="n">
-        <v>2.778747957487393</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0.9248897072918163</v>
-      </c>
-      <c r="N35" t="n">
-        <v>-2.778747957487393</v>
+        <v>17</v>
       </c>
     </row>
     <row r="36">
@@ -2074,40 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>589</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
-        <v>7298371993.110824</v>
+        <v>538</v>
       </c>
       <c r="E36" t="n">
-        <v>0.001780031013941675</v>
+        <v>5422593947.542667</v>
       </c>
       <c r="F36" t="n">
-        <v>0.211392446350545</v>
+        <v>0.003509336715746276</v>
       </c>
       <c r="G36" t="b">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0.1799129100380637</v>
-      </c>
-      <c r="I36" t="n">
-        <v>11</v>
-      </c>
-      <c r="J36" t="n">
-        <v>0.6770319946579617</v>
-      </c>
-      <c r="K36" t="n">
-        <v>0.1799129100380637</v>
-      </c>
-      <c r="L36" t="n">
-        <v>3.008062796488969</v>
-      </c>
-      <c r="M36" t="n">
-        <v>1.025245928518357</v>
-      </c>
-      <c r="N36" t="n">
-        <v>-3.008062796488969</v>
+        <v>19</v>
       </c>
     </row>
     <row r="37">
@@ -2120,40 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>600</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
-        <v>5259872171.049418</v>
+        <v>573</v>
       </c>
       <c r="E37" t="n">
-        <v>0.002908427406405509</v>
+        <v>5403810008.0713</v>
       </c>
       <c r="F37" t="n">
-        <v>0.2987969952293417</v>
+        <v>0.005468781320517973</v>
       </c>
       <c r="G37" t="b">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0.356657273905329</v>
-      </c>
-      <c r="I37" t="n">
-        <v>15</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0.4699559667303269</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0.3566572739053289</v>
-      </c>
-      <c r="L37" t="n">
-        <v>2.778540144491145</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0.7961387276889152</v>
-      </c>
-      <c r="N37" t="n">
-        <v>-2.778540144491145</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38">
@@ -2166,40 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>494</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
-        <v>7496605945.036965</v>
+        <v>461</v>
       </c>
       <c r="E38" t="n">
-        <v>0.00143927720525069</v>
+        <v>3103459449.681622</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1726086004102513</v>
+        <v>0.003282957589184296</v>
       </c>
       <c r="G38" t="b">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0.101486486391066</v>
-      </c>
-      <c r="I38" t="n">
-        <v>14</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0.6770319946579617</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0.101486486391066</v>
-      </c>
-      <c r="L38" t="n">
-        <v>2.608373423019768</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0.8995865595193901</v>
-      </c>
-      <c r="N38" t="n">
-        <v>-2.608373423019768</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -2212,40 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>444</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
-        <v>3760683806.714372</v>
+        <v>470</v>
       </c>
       <c r="E39" t="n">
-        <v>0.001576353555582976</v>
+        <v>6447876526.924397</v>
       </c>
       <c r="F39" t="n">
-        <v>0.3092547046692808</v>
+        <v>0.002613177575312697</v>
       </c>
       <c r="G39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H39" t="n">
-        <v>0.3778042419542554</v>
-      </c>
-      <c r="I39" t="n">
-        <v>12</v>
-      </c>
-      <c r="J39" t="n">
-        <v>0.9407142914146964</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0.3778042419542555</v>
-      </c>
-      <c r="L39" t="n">
-        <v>3.085551608040361</v>
-      </c>
-      <c r="M39" t="n">
-        <v>1.045806845523165</v>
-      </c>
-      <c r="N39" t="n">
-        <v>-3.085551608040361</v>
+        <v>9</v>
       </c>
     </row>
     <row r="40">
@@ -2258,40 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>563</v>
+        <v>1</v>
       </c>
       <c r="D40" t="n">
-        <v>4800759015.486515</v>
+        <v>523</v>
       </c>
       <c r="E40" t="n">
-        <v>0.003643763940889476</v>
+        <v>5512782186.634</v>
       </c>
       <c r="F40" t="n">
-        <v>0.3071840442819124</v>
+        <v>0.004014882443388411</v>
       </c>
       <c r="G40" t="b">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0.3736170736930465</v>
-      </c>
-      <c r="I40" t="n">
-        <v>13</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0.6770319946579617</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0.3736170736930466</v>
-      </c>
-      <c r="L40" t="n">
-        <v>2.97513659390478</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0.9833969134687971</v>
-      </c>
-      <c r="N40" t="n">
-        <v>-2.97513659390478</v>
+        <v>19</v>
       </c>
     </row>
     <row r="41">
@@ -2304,40 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>496</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
-        <v>5814360010.920331</v>
+        <v>540</v>
       </c>
       <c r="E41" t="n">
-        <v>0.003441932960349784</v>
+        <v>4713095429.660407</v>
       </c>
       <c r="F41" t="n">
-        <v>0.2234497756519814</v>
+        <v>0.001190427442258709</v>
       </c>
       <c r="G41" t="b">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0.204294535761865</v>
-      </c>
-      <c r="I41" t="n">
-        <v>11</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0.6770319946579617</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0.204294535761865</v>
-      </c>
-      <c r="L41" t="n">
-        <v>3.03244442221277</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0.9267392588247956</v>
-      </c>
-      <c r="N41" t="n">
-        <v>-3.03244442221277</v>
+        <v>19</v>
       </c>
     </row>
     <row r="42">
@@ -2350,40 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>559</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
-        <v>9009455758.474722</v>
+        <v>514</v>
       </c>
       <c r="E42" t="n">
-        <v>0.004120430989197746</v>
+        <v>6005223301.861489</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1625224707522058</v>
+        <v>0.005362588995453497</v>
       </c>
       <c r="G42" t="b">
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0.08109090523240091</v>
-      </c>
-      <c r="I42" t="n">
-        <v>14</v>
-      </c>
-      <c r="J42" t="n">
-        <v>0.6770319946579617</v>
-      </c>
-      <c r="K42" t="n">
-        <v>0.08109090523240091</v>
-      </c>
-      <c r="L42" t="n">
-        <v>2.587977841861103</v>
-      </c>
-      <c r="M42" t="n">
-        <v>0.9714153146925041</v>
-      </c>
-      <c r="N42" t="n">
-        <v>-2.587977841861103</v>
+        <v>17</v>
       </c>
     </row>
     <row r="43">
@@ -2396,40 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>503</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
-        <v>4839685259.079359</v>
+        <v>493</v>
       </c>
       <c r="E43" t="n">
-        <v>0.001751323143399764</v>
+        <v>4301279801.805043</v>
       </c>
       <c r="F43" t="n">
-        <v>0.2722394328284552</v>
+        <v>0.003203475549690936</v>
       </c>
       <c r="G43" t="b">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0.30295412535503</v>
-      </c>
-      <c r="I43" t="n">
-        <v>13</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0.6770319946579617</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0.30295412535503</v>
-      </c>
-      <c r="L43" t="n">
-        <v>2.904473645566763</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0.9181587987273141</v>
-      </c>
-      <c r="N43" t="n">
-        <v>-2.904473645566763</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44">
@@ -2442,40 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>535</v>
+        <v>6</v>
       </c>
       <c r="D44" t="n">
-        <v>5142818208.229213</v>
+        <v>523</v>
       </c>
       <c r="E44" t="n">
-        <v>0.002977863165484078</v>
+        <v>7335023000.997422</v>
       </c>
       <c r="F44" t="n">
-        <v>0.2724913837626246</v>
+        <v>0.002333345064655996</v>
       </c>
       <c r="G44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H44" t="n">
-        <v>0.3034636057900505</v>
-      </c>
-      <c r="I44" t="n">
-        <v>15</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0.6770319946579617</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0.3034636057900505</v>
-      </c>
-      <c r="L44" t="n">
-        <v>2.725346476375867</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0.9374831382866535</v>
-      </c>
-      <c r="N44" t="n">
-        <v>-2.725346476375867</v>
+        <v>17</v>
       </c>
     </row>
     <row r="45">
@@ -2488,40 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>534</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
-        <v>3963283408.268007</v>
+        <v>520</v>
       </c>
       <c r="E45" t="n">
-        <v>0.001192640398095167</v>
+        <v>4182487425.50067</v>
       </c>
       <c r="F45" t="n">
-        <v>0.3529281446494559</v>
+        <v>0.001187876084511585</v>
       </c>
       <c r="G45" t="b">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0.4661181165318266</v>
-      </c>
-      <c r="I45" t="n">
-        <v>13</v>
-      </c>
-      <c r="J45" t="n">
-        <v>0.4156230031063648</v>
-      </c>
-      <c r="K45" t="n">
-        <v>0.4661181165318266</v>
-      </c>
-      <c r="L45" t="n">
-        <v>3.06763763674356</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0.6934072218353722</v>
-      </c>
-      <c r="N45" t="n">
-        <v>-3.06763763674356</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46">
@@ -2534,40 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>428</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
-        <v>4971721447.376981</v>
+        <v>406</v>
       </c>
       <c r="E46" t="n">
-        <v>0.003654645328717432</v>
+        <v>7810337482.140786</v>
       </c>
       <c r="F46" t="n">
-        <v>0.225495119118445</v>
+        <v>0.004812858606053268</v>
       </c>
       <c r="G46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H46" t="n">
-        <v>0.2084305096271551</v>
-      </c>
-      <c r="I46" t="n">
-        <v>12</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0.6770319946579617</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0.2084305096271551</v>
-      </c>
-      <c r="L46" t="n">
-        <v>2.916177875713261</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0.8385104099875171</v>
-      </c>
-      <c r="N46" t="n">
-        <v>-2.916177875713261</v>
+        <v>10</v>
       </c>
     </row>
     <row r="47">
@@ -2580,40 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>484</v>
+        <v>6</v>
       </c>
       <c r="D47" t="n">
-        <v>7366426632.272665</v>
+        <v>368</v>
       </c>
       <c r="E47" t="n">
-        <v>0.004305234389428485</v>
+        <v>8625500357.058739</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1721030865149426</v>
+        <v>0.002251222846839538</v>
       </c>
       <c r="G47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>0.1004642657744218</v>
-      </c>
-      <c r="I47" t="n">
-        <v>13</v>
-      </c>
-      <c r="J47" t="n">
-        <v>0.6770319946579617</v>
-      </c>
-      <c r="K47" t="n">
-        <v>0.1004642657744218</v>
-      </c>
-      <c r="L47" t="n">
-        <v>2.701983785986155</v>
-      </c>
-      <c r="M47" t="n">
-        <v>0.8965109266462883</v>
-      </c>
-      <c r="N47" t="n">
-        <v>-2.701983785986155</v>
+        <v>9</v>
       </c>
     </row>
     <row r="48">
@@ -2626,40 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>506</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
-        <v>5596692203.920995</v>
+        <v>431</v>
       </c>
       <c r="E48" t="n">
-        <v>0.001896823417889677</v>
+        <v>7018601337.185944</v>
       </c>
       <c r="F48" t="n">
-        <v>0.2368204810461844</v>
+        <v>0.002425942698640841</v>
       </c>
       <c r="G48" t="b">
         <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>0.2313319937622725</v>
-      </c>
-      <c r="I48" t="n">
-        <v>9</v>
-      </c>
-      <c r="J48" t="n">
-        <v>0.6770319946579617</v>
-      </c>
-      <c r="K48" t="n">
-        <v>0.2313319937622725</v>
-      </c>
-      <c r="L48" t="n">
-        <v>3.357969335176899</v>
-      </c>
-      <c r="M48" t="n">
-        <v>0.9538471239005881</v>
-      </c>
-      <c r="N48" t="n">
-        <v>-3.357969335176899</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49">
@@ -2672,40 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>479</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
-        <v>4506669022.531095</v>
+        <v>581</v>
       </c>
       <c r="E49" t="n">
-        <v>0.001668197721890523</v>
+        <v>5863193508.772984</v>
       </c>
       <c r="F49" t="n">
-        <v>0.2784069128944654</v>
+        <v>0.004250228424313488</v>
       </c>
       <c r="G49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H49" t="n">
-        <v>0.3154256426263176</v>
-      </c>
-      <c r="I49" t="n">
-        <v>16</v>
-      </c>
-      <c r="J49" t="n">
-        <v>0.6770319946579617</v>
-      </c>
-      <c r="K49" t="n">
-        <v>0.3154256426263177</v>
-      </c>
-      <c r="L49" t="n">
-        <v>2.660403648687288</v>
-      </c>
-      <c r="M49" t="n">
-        <v>0.8648349381991977</v>
-      </c>
-      <c r="N49" t="n">
-        <v>-2.660403648687288</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -2718,40 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>559</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
-        <v>5877760196.501237</v>
+        <v>528</v>
       </c>
       <c r="E50" t="n">
-        <v>0.004838338444516511</v>
+        <v>7766095225.45991</v>
       </c>
       <c r="F50" t="n">
-        <v>0.2491151324736921</v>
+        <v>0.003523828923669924</v>
       </c>
       <c r="G50" t="b">
         <v>0</v>
       </c>
       <c r="H50" t="n">
-        <v>0.2561935184014295</v>
-      </c>
-      <c r="I50" t="n">
-        <v>5</v>
-      </c>
-      <c r="J50" t="n">
-        <v>0.6770319946579617</v>
-      </c>
-      <c r="K50" t="n">
-        <v>0.2561935184014295</v>
-      </c>
-      <c r="L50" t="n">
-        <v>4.451017700236823</v>
-      </c>
-      <c r="M50" t="n">
-        <v>1.039235945289987</v>
-      </c>
-      <c r="N50" t="n">
-        <v>-4.451017700236823</v>
+        <v>18</v>
       </c>
     </row>
     <row r="51">
@@ -2764,40 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>547</v>
+        <v>6</v>
       </c>
       <c r="D51" t="n">
-        <v>5810593363.515237</v>
+        <v>394</v>
       </c>
       <c r="E51" t="n">
-        <v>0.004467493220802955</v>
+        <v>5087266503.687217</v>
       </c>
       <c r="F51" t="n">
-        <v>0.2465852005746268</v>
+        <v>0.004012348607187951</v>
       </c>
       <c r="G51" t="b">
         <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>0.2510776381656324</v>
-      </c>
-      <c r="I51" t="n">
-        <v>16</v>
-      </c>
-      <c r="J51" t="n">
-        <v>0.6770319946579617</v>
-      </c>
-      <c r="K51" t="n">
-        <v>0.2510776381656324</v>
-      </c>
-      <c r="L51" t="n">
-        <v>2.596055644226603</v>
-      </c>
-      <c r="M51" t="n">
-        <v>0.9426207622199885</v>
-      </c>
-      <c r="N51" t="n">
-        <v>-2.596055644226603</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -2810,40 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>444</v>
+        <v>1</v>
       </c>
       <c r="D52" t="n">
-        <v>6470012241.540823</v>
+        <v>497</v>
       </c>
       <c r="E52" t="n">
-        <v>0.004773646221288592</v>
+        <v>8362953396.235264</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1797537804539039</v>
+        <v>0.001644043710366667</v>
       </c>
       <c r="G52" t="b">
         <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>0.1159350513425731</v>
-      </c>
-      <c r="I52" t="n">
-        <v>12</v>
-      </c>
-      <c r="J52" t="n">
-        <v>0.8013323054221846</v>
-      </c>
-      <c r="K52" t="n">
-        <v>0.115935051342573</v>
-      </c>
-      <c r="L52" t="n">
-        <v>2.823682417428679</v>
-      </c>
-      <c r="M52" t="n">
-        <v>0.9511685482440527</v>
-      </c>
-      <c r="N52" t="n">
-        <v>-2.823682417428679</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53">
@@ -2856,40 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>504</v>
+        <v>6</v>
       </c>
       <c r="D53" t="n">
-        <v>5986802561.862445</v>
+        <v>443</v>
       </c>
       <c r="E53" t="n">
-        <v>0.002647591793902008</v>
+        <v>5224595845.967029</v>
       </c>
       <c r="F53" t="n">
-        <v>0.2205137961972986</v>
+        <v>0.002602262084077705</v>
       </c>
       <c r="G53" t="b">
         <v>0</v>
       </c>
       <c r="H53" t="n">
-        <v>0.198357569920821</v>
-      </c>
-      <c r="I53" t="n">
-        <v>11</v>
-      </c>
-      <c r="J53" t="n">
-        <v>0.6770319946579617</v>
-      </c>
-      <c r="K53" t="n">
-        <v>0.1983575699208209</v>
-      </c>
-      <c r="L53" t="n">
-        <v>3.026507456371726</v>
-      </c>
-      <c r="M53" t="n">
-        <v>0.9356207432211735</v>
-      </c>
-      <c r="N53" t="n">
-        <v>-3.026507456371726</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54">
@@ -2902,40 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>456</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
-        <v>6883632404.78794</v>
+        <v>591</v>
       </c>
       <c r="E54" t="n">
-        <v>0.001273042417447379</v>
+        <v>5189245716.154469</v>
       </c>
       <c r="F54" t="n">
-        <v>0.173519120394808</v>
+        <v>0.00556625046385197</v>
       </c>
       <c r="G54" t="b">
         <v>0</v>
       </c>
       <c r="H54" t="n">
-        <v>0.1033276866206108</v>
-      </c>
-      <c r="I54" t="n">
-        <v>15</v>
-      </c>
-      <c r="J54" t="n">
-        <v>0.6770319946579617</v>
-      </c>
-      <c r="K54" t="n">
-        <v>0.1033276866206108</v>
-      </c>
-      <c r="L54" t="n">
-        <v>2.525210557206427</v>
-      </c>
-      <c r="M54" t="n">
-        <v>0.8458941935892588</v>
-      </c>
-      <c r="N54" t="n">
-        <v>-2.525210557206427</v>
+        <v>18</v>
       </c>
     </row>
     <row r="55">
@@ -2948,40 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>501</v>
+        <v>6</v>
       </c>
       <c r="D55" t="n">
-        <v>6289150161.433359</v>
+        <v>568</v>
       </c>
       <c r="E55" t="n">
-        <v>0.002644703070806149</v>
+        <v>5930548315.766026</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2086632305343001</v>
+        <v>0.003800146913001487</v>
       </c>
       <c r="G55" t="b">
         <v>0</v>
       </c>
       <c r="H55" t="n">
-        <v>0.1743940495269526</v>
-      </c>
-      <c r="I55" t="n">
-        <v>15</v>
-      </c>
-      <c r="J55" t="n">
-        <v>0.6770319946579617</v>
-      </c>
-      <c r="K55" t="n">
-        <v>0.1743940495269526</v>
-      </c>
-      <c r="L55" t="n">
-        <v>2.596276920112769</v>
-      </c>
-      <c r="M55" t="n">
-        <v>0.8992093299408663</v>
-      </c>
-      <c r="N55" t="n">
-        <v>-2.596276920112769</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56">
@@ -2994,40 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>493</v>
+        <v>6</v>
       </c>
       <c r="D56" t="n">
-        <v>5596839608.75808</v>
+        <v>467</v>
       </c>
       <c r="E56" t="n">
-        <v>0.003304461626571624</v>
+        <v>4042687212.279992</v>
       </c>
       <c r="F56" t="n">
-        <v>0.230730083452677</v>
+        <v>0.002380435384233069</v>
       </c>
       <c r="G56" t="b">
         <v>0</v>
       </c>
       <c r="H56" t="n">
-        <v>0.2190163481560479</v>
-      </c>
-      <c r="I56" t="n">
         <v>11</v>
-      </c>
-      <c r="J56" t="n">
-        <v>0.6770319946579617</v>
-      </c>
-      <c r="K56" t="n">
-        <v>0.2190163481560479</v>
-      </c>
-      <c r="L56" t="n">
-        <v>3.047166234606953</v>
-      </c>
-      <c r="M56" t="n">
-        <v>0.9233866786780892</v>
-      </c>
-      <c r="N56" t="n">
-        <v>-3.047166234606953</v>
       </c>
     </row>
     <row r="57">
@@ -3040,40 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>426</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
-        <v>5810276155.501841</v>
+        <v>475</v>
       </c>
       <c r="E57" t="n">
-        <v>0.002658115859908592</v>
+        <v>7349028968.080123</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1920494155761211</v>
+        <v>0.003049529044479901</v>
       </c>
       <c r="G57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H57" t="n">
-        <v>0.1407985651516062</v>
-      </c>
-      <c r="I57" t="n">
-        <v>14</v>
-      </c>
-      <c r="J57" t="n">
-        <v>0.6770319946579617</v>
-      </c>
-      <c r="K57" t="n">
-        <v>0.1407985651516062</v>
-      </c>
-      <c r="L57" t="n">
-        <v>2.647685501780308</v>
-      </c>
-      <c r="M57" t="n">
-        <v>0.8177172781773364</v>
-      </c>
-      <c r="N57" t="n">
-        <v>-2.647685501780308</v>
+        <v>15</v>
       </c>
     </row>
     <row r="58">
@@ -3086,40 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>440</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
-        <v>8242525952.269956</v>
+        <v>484</v>
       </c>
       <c r="E58" t="n">
-        <v>0.001281571908175489</v>
+        <v>5651198557.158518</v>
       </c>
       <c r="F58" t="n">
-        <v>0.139827476027855</v>
+        <v>0.001992780521304891</v>
       </c>
       <c r="G58" t="b">
         <v>0</v>
       </c>
       <c r="H58" t="n">
-        <v>0.035198415001845</v>
-      </c>
-      <c r="I58" t="n">
-        <v>16</v>
-      </c>
-      <c r="J58" t="n">
-        <v>0.6770319946579617</v>
-      </c>
-      <c r="K58" t="n">
-        <v>0.035198415001845</v>
-      </c>
-      <c r="L58" t="n">
-        <v>2.380176421062815</v>
-      </c>
-      <c r="M58" t="n">
-        <v>0.8168870356415801</v>
-      </c>
-      <c r="N58" t="n">
-        <v>-2.380176421062815</v>
+        <v>15</v>
       </c>
     </row>
     <row r="59">
@@ -3132,40 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>480</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
-        <v>6466275997.81827</v>
+        <v>352</v>
       </c>
       <c r="E59" t="n">
-        <v>0.001864157960898031</v>
+        <v>5930350677.598604</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1944406951426474</v>
+        <v>0.004104434338868782</v>
       </c>
       <c r="G59" t="b">
         <v>0</v>
       </c>
       <c r="H59" t="n">
-        <v>0.1456340707544159</v>
-      </c>
-      <c r="I59" t="n">
-        <v>13</v>
-      </c>
-      <c r="J59" t="n">
-        <v>0.8682791488102257</v>
-      </c>
-      <c r="K59" t="n">
-        <v>0.1456340707544159</v>
-      </c>
-      <c r="L59" t="n">
-        <v>2.747153590966149</v>
-      </c>
-      <c r="M59" t="n">
-        <v>1.03720891414994</v>
-      </c>
-      <c r="N59" t="n">
-        <v>-2.747153590966149</v>
+        <v>8</v>
       </c>
     </row>
     <row r="60">
@@ -3178,40 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>435</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
-        <v>7458213348.712278</v>
+        <v>424</v>
       </c>
       <c r="E60" t="n">
-        <v>0.003912790763270439</v>
+        <v>4288993731.720654</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1527758186478713</v>
+        <v>0.002942262871476173</v>
       </c>
       <c r="G60" t="b">
         <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>0.06138179571677433</v>
-      </c>
-      <c r="I60" t="n">
-        <v>14</v>
-      </c>
-      <c r="J60" t="n">
-        <v>0.8532259215792747</v>
-      </c>
-      <c r="K60" t="n">
-        <v>0.06138179571677434</v>
-      </c>
-      <c r="L60" t="n">
-        <v>2.568268732345476</v>
-      </c>
-      <c r="M60" t="n">
-        <v>0.9598600172415495</v>
-      </c>
-      <c r="N60" t="n">
-        <v>-2.568268732345476</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
@@ -3224,40 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>549</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
-        <v>2637048990.363001</v>
+        <v>488</v>
       </c>
       <c r="E61" t="n">
-        <v>0.001031373666018985</v>
+        <v>7166940084.557271</v>
       </c>
       <c r="F61" t="n">
-        <v>0.5453236232073364</v>
+        <v>0.004132964077322352</v>
       </c>
       <c r="G61" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H61" t="n">
-        <v>0.8551689943734926</v>
-      </c>
-      <c r="I61" t="n">
-        <v>18</v>
-      </c>
-      <c r="J61" t="n">
-        <v>0.6770319946579617</v>
-      </c>
-      <c r="K61" t="n">
-        <v>0.8551689943734927</v>
-      </c>
-      <c r="L61" t="n">
-        <v>3.066035460798854</v>
-      </c>
-      <c r="M61" t="n">
-        <v>0.9286366358214683</v>
-      </c>
-      <c r="N61" t="n">
-        <v>-3.066035460798854</v>
+        <v>14</v>
       </c>
     </row>
     <row r="62">
@@ -3270,40 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>465</v>
+        <v>1</v>
       </c>
       <c r="D62" t="n">
-        <v>2433472544.51927</v>
+        <v>441</v>
       </c>
       <c r="E62" t="n">
-        <v>0.00356047916079438</v>
+        <v>5613065852.552058</v>
       </c>
       <c r="F62" t="n">
-        <v>0.5005260292511818</v>
+        <v>0.003356442821498268</v>
       </c>
       <c r="G62" t="b">
         <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>0.7645819214106879</v>
-      </c>
-      <c r="I62" t="n">
-        <v>14</v>
-      </c>
-      <c r="J62" t="n">
-        <v>0.6770319946579617</v>
-      </c>
-      <c r="K62" t="n">
-        <v>0.7645819214106879</v>
-      </c>
-      <c r="L62" t="n">
-        <v>3.27146885803939</v>
-      </c>
-      <c r="M62" t="n">
-        <v>0.8656191936183448</v>
-      </c>
-      <c r="N62" t="n">
-        <v>-3.27146885803939</v>
+        <v>11</v>
       </c>
     </row>
     <row r="63">
@@ -3316,40 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>513</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
-        <v>6912856639.093707</v>
+        <v>490</v>
       </c>
       <c r="E63" t="n">
-        <v>0.003768429386582036</v>
+        <v>7261360167.306829</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1943837606006203</v>
+        <v>0.00461223401292433</v>
       </c>
       <c r="G63" t="b">
         <v>0</v>
       </c>
       <c r="H63" t="n">
-        <v>0.145518941055313</v>
-      </c>
-      <c r="I63" t="n">
-        <v>17</v>
-      </c>
-      <c r="J63" t="n">
-        <v>0</v>
-      </c>
-      <c r="K63" t="n">
-        <v>0.145518941055313</v>
-      </c>
-      <c r="L63" t="n">
-        <v>2.420481766641118</v>
-      </c>
-      <c r="M63" t="n">
-        <v>-0.5075192189225523</v>
-      </c>
-      <c r="N63" t="n">
-        <v>-2.420481766641118</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64">
@@ -3362,40 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>471</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
-        <v>6391668090.078709</v>
+        <v>545</v>
       </c>
       <c r="E64" t="n">
-        <v>0.002179511539909362</v>
+        <v>3665284376.626983</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1930220206388732</v>
+        <v>0.004273493049223256</v>
       </c>
       <c r="G64" t="b">
         <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>0.1427653101930867</v>
-      </c>
-      <c r="I64" t="n">
-        <v>12</v>
-      </c>
-      <c r="J64" t="n">
-        <v>0.9315487544532822</v>
-      </c>
-      <c r="K64" t="n">
-        <v>0.1427653101930867</v>
-      </c>
-      <c r="L64" t="n">
-        <v>2.850512676279192</v>
-      </c>
-      <c r="M64" t="n">
-        <v>1.076148009125738</v>
-      </c>
-      <c r="N64" t="n">
-        <v>-2.850512676279192</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -3408,40 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>588</v>
+        <v>6</v>
       </c>
       <c r="D65" t="n">
-        <v>3533388679.974515</v>
+        <v>507</v>
       </c>
       <c r="E65" t="n">
-        <v>0.003973875328748099</v>
+        <v>4796335118.69971</v>
       </c>
       <c r="F65" t="n">
-        <v>0.4358992059744497</v>
+        <v>0.005348708430336111</v>
       </c>
       <c r="G65" t="b">
         <v>0</v>
       </c>
       <c r="H65" t="n">
-        <v>0.633897341313517</v>
-      </c>
-      <c r="I65" t="n">
-        <v>15</v>
-      </c>
-      <c r="J65" t="n">
-        <v>0.3485994593390534</v>
-      </c>
-      <c r="K65" t="n">
-        <v>0.633897341313517</v>
-      </c>
-      <c r="L65" t="n">
-        <v>3.055780211899334</v>
-      </c>
-      <c r="M65" t="n">
-        <v>0.6314253990306058</v>
-      </c>
-      <c r="N65" t="n">
-        <v>-3.055780211899334</v>
+        <v>17</v>
       </c>
     </row>
     <row r="66">
@@ -3454,40 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>491</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
-        <v>5567110560.494678</v>
+        <v>472</v>
       </c>
       <c r="E66" t="n">
-        <v>0.001036876469909744</v>
+        <v>4218959808.10945</v>
       </c>
       <c r="F66" t="n">
-        <v>0.2310211870277135</v>
+        <v>0.003178427354517727</v>
       </c>
       <c r="G66" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H66" t="n">
-        <v>0.2196050007702346</v>
-      </c>
-      <c r="I66" t="n">
-        <v>10</v>
-      </c>
-      <c r="J66" t="n">
-        <v>0.6770319946579617</v>
-      </c>
-      <c r="K66" t="n">
-        <v>0.2196050007702345</v>
-      </c>
-      <c r="L66" t="n">
-        <v>3.185793625631353</v>
-      </c>
-      <c r="M66" t="n">
-        <v>0.9293327408345278</v>
-      </c>
-      <c r="N66" t="n">
-        <v>-3.185793625631353</v>
+        <v>13</v>
       </c>
     </row>
     <row r="67">
@@ -3500,40 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>456</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
-        <v>4654366646.283361</v>
+        <v>411</v>
       </c>
       <c r="E67" t="n">
-        <v>0.002839696911497791</v>
+        <v>5246588294.351128</v>
       </c>
       <c r="F67" t="n">
-        <v>0.2566282226506144</v>
+        <v>0.004777347154875352</v>
       </c>
       <c r="G67" t="b">
         <v>0</v>
       </c>
       <c r="H67" t="n">
-        <v>0.2713860496944966</v>
-      </c>
-      <c r="I67" t="n">
-        <v>9</v>
-      </c>
-      <c r="J67" t="n">
-        <v>0.6770319946579617</v>
-      </c>
-      <c r="K67" t="n">
-        <v>0.2713860496944966</v>
-      </c>
-      <c r="L67" t="n">
-        <v>3.398023391109124</v>
-      </c>
-      <c r="M67" t="n">
-        <v>0.8980234282339817</v>
-      </c>
-      <c r="N67" t="n">
-        <v>-3.398023391109124</v>
+        <v>11</v>
       </c>
     </row>
     <row r="68">
@@ -3546,40 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>366</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
-        <v>6513821875.080105</v>
+        <v>462</v>
       </c>
       <c r="E68" t="n">
-        <v>0.003140511718216091</v>
+        <v>8876307229.877253</v>
       </c>
       <c r="F68" t="n">
-        <v>0.147178838842321</v>
+        <v>0.002300077281962704</v>
       </c>
       <c r="G68" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H68" t="n">
-        <v>0.05006391068676649</v>
-      </c>
-      <c r="I68" t="n">
-        <v>16</v>
-      </c>
-      <c r="J68" t="n">
-        <v>0.6770319946579617</v>
-      </c>
-      <c r="K68" t="n">
-        <v>0.05006391068676649</v>
-      </c>
-      <c r="L68" t="n">
-        <v>2.395041916747737</v>
-      </c>
-      <c r="M68" t="n">
-        <v>0.7171503377864009</v>
-      </c>
-      <c r="N68" t="n">
-        <v>-2.395041916747737</v>
+        <v>14</v>
       </c>
     </row>
     <row r="69">
@@ -3592,40 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>536</v>
+        <v>1</v>
       </c>
       <c r="D69" t="n">
-        <v>5636052620.792421</v>
+        <v>517</v>
       </c>
       <c r="E69" t="n">
-        <v>0.004981285858341339</v>
+        <v>5603168362.034526</v>
       </c>
       <c r="F69" t="n">
-        <v>0.2491092852505342</v>
+        <v>0.0009387401460904796</v>
       </c>
       <c r="G69" t="b">
         <v>0</v>
       </c>
       <c r="H69" t="n">
-        <v>0.2561816944889364</v>
-      </c>
-      <c r="I69" t="n">
-        <v>7</v>
-      </c>
-      <c r="J69" t="n">
-        <v>0.6770319946579617</v>
-      </c>
-      <c r="K69" t="n">
-        <v>0.2561816944889364</v>
-      </c>
-      <c r="L69" t="n">
-        <v>3.801455199605188</v>
-      </c>
-      <c r="M69" t="n">
-        <v>1.001076580959839</v>
-      </c>
-      <c r="N69" t="n">
-        <v>-3.801455199605188</v>
+        <v>15</v>
       </c>
     </row>
     <row r="70">
@@ -3638,40 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>463</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
-        <v>1965775214.208023</v>
+        <v>490</v>
       </c>
       <c r="E70" t="n">
-        <v>0.003238681339025371</v>
+        <v>6233131135.409759</v>
       </c>
       <c r="F70" t="n">
-        <v>0.6169462109575978</v>
+        <v>0.002920111025483316</v>
       </c>
       <c r="G70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>9</v>
-      </c>
-      <c r="J70" t="n">
-        <v>0.6770319946579617</v>
-      </c>
-      <c r="K70" t="n">
-        <v>1</v>
-      </c>
-      <c r="L70" t="n">
-        <v>4.126637341414627</v>
-      </c>
-      <c r="M70" t="n">
-        <v>0.9060458232304793</v>
-      </c>
-      <c r="N70" t="n">
-        <v>-4.126637341414627</v>
+        <v>17</v>
       </c>
     </row>
     <row r="71">
@@ -3684,40 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>392</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
-        <v>5407619371.805444</v>
+        <v>474</v>
       </c>
       <c r="E71" t="n">
-        <v>0.004938921305132829</v>
+        <v>4879753428.096587</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1898803908709983</v>
+        <v>0.002706633017385645</v>
       </c>
       <c r="G71" t="b">
         <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>0.1364124903232707</v>
-      </c>
-      <c r="I71" t="n">
-        <v>10</v>
-      </c>
-      <c r="J71" t="n">
-        <v>0.8135198789051362</v>
-      </c>
-      <c r="K71" t="n">
-        <v>0.1364124903232707</v>
-      </c>
-      <c r="L71" t="n">
-        <v>3.10260111518439</v>
-      </c>
-      <c r="M71" t="n">
-        <v>0.9068418625953499</v>
-      </c>
-      <c r="N71" t="n">
-        <v>-3.10260111518439</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -3730,40 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>630</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
-        <v>7800886068.803999</v>
+        <v>460</v>
       </c>
       <c r="E72" t="n">
-        <v>0.001261785409125543</v>
+        <v>5368488597.461104</v>
       </c>
       <c r="F72" t="n">
-        <v>0.2115420845074596</v>
+        <v>0.001589177904020709</v>
       </c>
       <c r="G72" t="b">
         <v>0</v>
       </c>
       <c r="H72" t="n">
-        <v>0.1802154995622179</v>
-      </c>
-      <c r="I72" t="n">
-        <v>15</v>
-      </c>
-      <c r="J72" t="n">
-        <v>0.6006802255643972</v>
-      </c>
-      <c r="K72" t="n">
-        <v>0.1802154995622179</v>
-      </c>
-      <c r="L72" t="n">
-        <v>2.602098370148034</v>
-      </c>
-      <c r="M72" t="n">
-        <v>0.9635338227335741</v>
-      </c>
-      <c r="N72" t="n">
-        <v>-2.602098370148034</v>
+        <v>14</v>
       </c>
     </row>
     <row r="73">
@@ -3776,40 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>523</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
-        <v>6719917299.934001</v>
+        <v>480</v>
       </c>
       <c r="E73" t="n">
-        <v>0.001731362858148437</v>
+        <v>5208705321.6623</v>
       </c>
       <c r="F73" t="n">
-        <v>0.2038627722417737</v>
+        <v>0.00142573327914158</v>
       </c>
       <c r="G73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H73" t="n">
-        <v>0.1646868436884959</v>
-      </c>
-      <c r="I73" t="n">
-        <v>10</v>
-      </c>
-      <c r="J73" t="n">
-        <v>0.6770319946579617</v>
-      </c>
-      <c r="K73" t="n">
-        <v>0.1646868436884959</v>
-      </c>
-      <c r="L73" t="n">
-        <v>3.130875468549615</v>
-      </c>
-      <c r="M73" t="n">
-        <v>0.9642724865832553</v>
-      </c>
-      <c r="N73" t="n">
-        <v>-3.130875468549615</v>
+        <v>15</v>
       </c>
     </row>
     <row r="74">
@@ -3822,40 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>463</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
-        <v>6682061397.388458</v>
+        <v>520</v>
       </c>
       <c r="E74" t="n">
-        <v>0.00120225037511986</v>
+        <v>5591551868.636619</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1814975196836695</v>
+        <v>0.004623856413899345</v>
       </c>
       <c r="G74" t="b">
         <v>0</v>
       </c>
       <c r="H74" t="n">
-        <v>0.1194611387701586</v>
-      </c>
-      <c r="I74" t="n">
-        <v>11</v>
-      </c>
-      <c r="J74" t="n">
-        <v>0.6770319946579617</v>
-      </c>
-      <c r="K74" t="n">
-        <v>0.1194611387701587</v>
-      </c>
-      <c r="L74" t="n">
-        <v>2.947611025221064</v>
-      </c>
-      <c r="M74" t="n">
-        <v>0.8891659032432399</v>
-      </c>
-      <c r="N74" t="n">
-        <v>-2.947611025221064</v>
+        <v>15</v>
       </c>
     </row>
     <row r="75">
@@ -3868,40 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>465</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
-        <v>4792120646.976908</v>
+        <v>441</v>
       </c>
       <c r="E75" t="n">
-        <v>0.003854487465476196</v>
+        <v>6812374682.725287</v>
       </c>
       <c r="F75" t="n">
-        <v>0.2541706354510046</v>
+        <v>0.003415817054326082</v>
       </c>
       <c r="G75" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H75" t="n">
-        <v>0.2664164606763587</v>
-      </c>
-      <c r="I75" t="n">
-        <v>15</v>
-      </c>
-      <c r="J75" t="n">
-        <v>0.9306762236851437</v>
-      </c>
-      <c r="K75" t="n">
-        <v>0.2664164606763587</v>
-      </c>
-      <c r="L75" t="n">
-        <v>2.688299331262175</v>
-      </c>
-      <c r="M75" t="n">
-        <v>1.046103247698973</v>
-      </c>
-      <c r="N75" t="n">
-        <v>-2.688299331262175</v>
+        <v>12</v>
       </c>
     </row>
     <row r="76">
@@ -3914,40 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>520</v>
+        <v>1</v>
       </c>
       <c r="D76" t="n">
-        <v>5295899379.971079</v>
+        <v>459</v>
       </c>
       <c r="E76" t="n">
-        <v>0.001266857043339143</v>
+        <v>4948262884.276042</v>
       </c>
       <c r="F76" t="n">
-        <v>0.2571957475535418</v>
+        <v>0.002495929001125019</v>
       </c>
       <c r="G76" t="b">
         <v>0</v>
       </c>
       <c r="H76" t="n">
-        <v>0.2725336653418907</v>
-      </c>
-      <c r="I76" t="n">
-        <v>15</v>
-      </c>
-      <c r="J76" t="n">
-        <v>0.6770319946579617</v>
-      </c>
-      <c r="K76" t="n">
-        <v>0.2725336653418907</v>
-      </c>
-      <c r="L76" t="n">
-        <v>2.694416535927707</v>
-      </c>
-      <c r="M76" t="n">
-        <v>0.9207937647143901</v>
-      </c>
-      <c r="N76" t="n">
-        <v>-2.694416535927707</v>
+        <v>13</v>
       </c>
     </row>
     <row r="77">
@@ -3960,40 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>541</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
-        <v>6090836533.11596</v>
+        <v>576</v>
       </c>
       <c r="E77" t="n">
-        <v>0.001538019686585953</v>
+        <v>5661802473.199352</v>
       </c>
       <c r="F77" t="n">
-        <v>0.2326593370705752</v>
+        <v>0.004775718345063132</v>
       </c>
       <c r="G77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H77" t="n">
-        <v>0.2229175719230956</v>
-      </c>
-      <c r="I77" t="n">
-        <v>9</v>
-      </c>
-      <c r="J77" t="n">
-        <v>0.6770319946579617</v>
-      </c>
-      <c r="K77" t="n">
-        <v>0.2229175719230956</v>
-      </c>
-      <c r="L77" t="n">
-        <v>3.349554913337722</v>
-      </c>
-      <c r="M77" t="n">
-        <v>0.9910545476687148</v>
-      </c>
-      <c r="N77" t="n">
-        <v>-3.349554913337722</v>
+        <v>21</v>
       </c>
     </row>
     <row r="78">
@@ -4006,40 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>508</v>
+        <v>6</v>
       </c>
       <c r="D78" t="n">
-        <v>5755377573.569175</v>
+        <v>454</v>
       </c>
       <c r="E78" t="n">
-        <v>0.003950433851355712</v>
+        <v>7828540896.791235</v>
       </c>
       <c r="F78" t="n">
-        <v>0.2312011858458841</v>
+        <v>0.00355331307186919</v>
       </c>
       <c r="G78" t="b">
         <v>0</v>
       </c>
       <c r="H78" t="n">
-        <v>0.2199689838468881</v>
-      </c>
-      <c r="I78" t="n">
         <v>15</v>
-      </c>
-      <c r="J78" t="n">
-        <v>0.6770319946579617</v>
-      </c>
-      <c r="K78" t="n">
-        <v>0.2199689838468881</v>
-      </c>
-      <c r="L78" t="n">
-        <v>2.641851854432705</v>
-      </c>
-      <c r="M78" t="n">
-        <v>0.9072212382814817</v>
-      </c>
-      <c r="N78" t="n">
-        <v>-2.641851854432705</v>
       </c>
     </row>
     <row r="79">
@@ -4052,40 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>517</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
-        <v>7735365364.397675</v>
+        <v>461</v>
       </c>
       <c r="E79" t="n">
-        <v>0.003364631192832288</v>
+        <v>8182547956.708337</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1750692522208288</v>
+        <v>0.00204322240138936</v>
       </c>
       <c r="G79" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H79" t="n">
-        <v>0.1064622724861632</v>
-      </c>
-      <c r="I79" t="n">
-        <v>6</v>
-      </c>
-      <c r="J79" t="n">
-        <v>0.6770319946579617</v>
-      </c>
-      <c r="K79" t="n">
-        <v>0.1064622724861632</v>
-      </c>
-      <c r="L79" t="n">
-        <v>3.93579532108516</v>
-      </c>
-      <c r="M79" t="n">
-        <v>0.9889499977317141</v>
-      </c>
-      <c r="N79" t="n">
-        <v>-3.93579532108516</v>
+        <v>13</v>
       </c>
     </row>
     <row r="80">
@@ -4098,40 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>562</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
-        <v>4088529327.703747</v>
+        <v>573</v>
       </c>
       <c r="E80" t="n">
-        <v>0.003528505863791298</v>
+        <v>7747245291.437684</v>
       </c>
       <c r="F80" t="n">
-        <v>0.360055428739404</v>
+        <v>0.003466880978800677</v>
       </c>
       <c r="G80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H80" t="n">
-        <v>0.4805304933330156</v>
-      </c>
-      <c r="I80" t="n">
-        <v>16</v>
-      </c>
-      <c r="J80" t="n">
-        <v>0.6770319946579617</v>
-      </c>
-      <c r="K80" t="n">
-        <v>0.4805304933330155</v>
-      </c>
-      <c r="L80" t="n">
-        <v>2.825508499393986</v>
-      </c>
-      <c r="M80" t="n">
-        <v>0.958930330526199</v>
-      </c>
-      <c r="N80" t="n">
-        <v>-2.825508499393986</v>
+        <v>21</v>
       </c>
     </row>
     <row r="81">
@@ -4144,40 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>525</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
-        <v>7788620010.622391</v>
+        <v>427</v>
       </c>
       <c r="E81" t="n">
-        <v>0.001341926276424057</v>
+        <v>7710518533.746884</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1765626963601359</v>
+        <v>0.004401234641117704</v>
       </c>
       <c r="G81" t="b">
         <v>0</v>
       </c>
       <c r="H81" t="n">
-        <v>0.1094822278289814</v>
-      </c>
-      <c r="I81" t="n">
-        <v>8</v>
-      </c>
-      <c r="J81" t="n">
-        <v>0.6770319946579617</v>
-      </c>
-      <c r="K81" t="n">
-        <v>0.1094822278289813</v>
-      </c>
-      <c r="L81" t="n">
-        <v>3.425781927467023</v>
-      </c>
-      <c r="M81" t="n">
-        <v>0.9819672036321462</v>
-      </c>
-      <c r="N81" t="n">
-        <v>-3.425781927467023</v>
+        <v>13</v>
       </c>
     </row>
     <row r="82">
@@ -4190,40 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>492</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
-        <v>5110137236.720218</v>
+        <v>423</v>
       </c>
       <c r="E82" t="n">
-        <v>0.003894114140797396</v>
+        <v>7530924152.614215</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2521928121106856</v>
+        <v>0.004623207268561138</v>
       </c>
       <c r="G82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H82" t="n">
-        <v>0.2624170220589103</v>
-      </c>
-      <c r="I82" t="n">
-        <v>16</v>
-      </c>
-      <c r="J82" t="n">
-        <v>0.6770319946579617</v>
-      </c>
-      <c r="K82" t="n">
-        <v>0.2624170220589103</v>
-      </c>
-      <c r="L82" t="n">
-        <v>2.607395028119881</v>
-      </c>
-      <c r="M82" t="n">
-        <v>0.8802373642604878</v>
-      </c>
-      <c r="N82" t="n">
-        <v>-2.607395028119881</v>
+        <v>12</v>
       </c>
     </row>
     <row r="83">
@@ -4236,40 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>459</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
-        <v>6735153055.929583</v>
+        <v>504</v>
       </c>
       <c r="E83" t="n">
-        <v>0.0037012104166638</v>
+        <v>8682703901.368296</v>
       </c>
       <c r="F83" t="n">
-        <v>0.17851116374282</v>
+        <v>0.00296669151443731</v>
       </c>
       <c r="G83" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H83" t="n">
-        <v>0.1134223045467979</v>
-      </c>
-      <c r="I83" t="n">
-        <v>21</v>
-      </c>
-      <c r="J83" t="n">
-        <v>0.6770319946579617</v>
-      </c>
-      <c r="K83" t="n">
-        <v>0.1134223045467979</v>
-      </c>
-      <c r="L83" t="n">
-        <v>2.160286917076514</v>
-      </c>
-      <c r="M83" t="n">
-        <v>0.7942484443333271</v>
-      </c>
-      <c r="N83" t="n">
-        <v>-2.160286917076514</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84">
@@ -4282,40 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>549</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
-        <v>7195812894.707349</v>
+        <v>524</v>
       </c>
       <c r="E84" t="n">
-        <v>0.004963485888600078</v>
+        <v>5692059829.228588</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1998447056701138</v>
+        <v>0.005580283101411828</v>
       </c>
       <c r="G84" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H84" t="n">
-        <v>0.1565617446027592</v>
-      </c>
-      <c r="I84" t="n">
-        <v>15</v>
-      </c>
-      <c r="J84" t="n">
-        <v>0.6770319946579617</v>
-      </c>
-      <c r="K84" t="n">
-        <v>0.1565617446027591</v>
-      </c>
-      <c r="L84" t="n">
-        <v>2.578444615188575</v>
-      </c>
-      <c r="M84" t="n">
-        <v>0.9527961727695802</v>
-      </c>
-      <c r="N84" t="n">
-        <v>-2.578444615188575</v>
+        <v>18</v>
       </c>
     </row>
     <row r="85">
@@ -4328,40 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>515</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
-        <v>7343572059.348492</v>
+        <v>512</v>
       </c>
       <c r="E85" t="n">
-        <v>0.001686637261955489</v>
+        <v>5532263726.906982</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1836961412100148</v>
+        <v>0.003768789920124418</v>
       </c>
       <c r="G85" t="b">
         <v>0</v>
       </c>
       <c r="H85" t="n">
-        <v>0.1239070625583775</v>
-      </c>
-      <c r="I85" t="n">
-        <v>18</v>
-      </c>
-      <c r="J85" t="n">
-        <v>0.6770319946579617</v>
-      </c>
-      <c r="K85" t="n">
-        <v>0.1239070625583775</v>
-      </c>
-      <c r="L85" t="n">
-        <v>2.334773528983739</v>
-      </c>
-      <c r="M85" t="n">
-        <v>0.8899824637995533</v>
-      </c>
-      <c r="N85" t="n">
-        <v>-2.334773528983739</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
@@ -4374,40 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>574</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
-        <v>4377831733.119165</v>
+        <v>517</v>
       </c>
       <c r="E86" t="n">
-        <v>0.004067952650289239</v>
+        <v>6865371526.203814</v>
       </c>
       <c r="F86" t="n">
-        <v>0.3434416742483495</v>
+        <v>0.002503627302557534</v>
       </c>
       <c r="G86" t="b">
         <v>0</v>
       </c>
       <c r="H86" t="n">
-        <v>0.4469351312307499</v>
-      </c>
-      <c r="I86" t="n">
-        <v>15</v>
-      </c>
-      <c r="J86" t="n">
-        <v>0.6770319946579617</v>
-      </c>
-      <c r="K86" t="n">
-        <v>0.4469351312307497</v>
-      </c>
-      <c r="L86" t="n">
-        <v>2.868818001816566</v>
-      </c>
-      <c r="M86" t="n">
-        <v>0.9795456476869849</v>
-      </c>
-      <c r="N86" t="n">
-        <v>-2.868818001816566</v>
+        <v>18</v>
       </c>
     </row>
     <row r="87">
@@ -4420,40 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>585</v>
+        <v>1</v>
       </c>
       <c r="D87" t="n">
-        <v>7449649415.639398</v>
+        <v>500</v>
       </c>
       <c r="E87" t="n">
-        <v>0.001649241042602768</v>
+        <v>4565920342.353648</v>
       </c>
       <c r="F87" t="n">
-        <v>0.2056933238741518</v>
+        <v>0.001303460269421564</v>
       </c>
       <c r="G87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H87" t="n">
-        <v>0.1683884780764212</v>
-      </c>
-      <c r="I87" t="n">
-        <v>20</v>
-      </c>
-      <c r="J87" t="n">
-        <v>0.6770319946579617</v>
-      </c>
-      <c r="K87" t="n">
-        <v>0.1683884780764212</v>
-      </c>
-      <c r="L87" t="n">
-        <v>2.265800568994119</v>
-      </c>
-      <c r="M87" t="n">
-        <v>0.95210047627891</v>
-      </c>
-      <c r="N87" t="n">
-        <v>-2.265800568994119</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -4466,40 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>440</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
-        <v>6398240578.25938</v>
+        <v>477</v>
       </c>
       <c r="E88" t="n">
-        <v>0.004918757018959292</v>
+        <v>5952549621.752205</v>
       </c>
       <c r="F88" t="n">
-        <v>0.180132582684714</v>
+        <v>0.005646558242883247</v>
       </c>
       <c r="G88" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H88" t="n">
-        <v>0.1167010430463785</v>
-      </c>
-      <c r="I88" t="n">
-        <v>13</v>
-      </c>
-      <c r="J88" t="n">
-        <v>0.6770319946579617</v>
-      </c>
-      <c r="K88" t="n">
-        <v>0.1167010430463786</v>
-      </c>
-      <c r="L88" t="n">
-        <v>2.718220563258112</v>
-      </c>
-      <c r="M88" t="n">
-        <v>0.8442505400968563</v>
-      </c>
-      <c r="N88" t="n">
-        <v>-2.718220563258112</v>
+        <v>15</v>
       </c>
     </row>
     <row r="89">
@@ -4512,40 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>524</v>
+        <v>1</v>
       </c>
       <c r="D89" t="n">
-        <v>5174470637.695141</v>
+        <v>473</v>
       </c>
       <c r="E89" t="n">
-        <v>0.003816160062299888</v>
+        <v>5621837715.010199</v>
       </c>
       <c r="F89" t="n">
-        <v>0.2652561887202781</v>
+        <v>0.00502243006350665</v>
       </c>
       <c r="G89" t="b">
         <v>0</v>
       </c>
       <c r="H89" t="n">
-        <v>0.2888330177758225</v>
-      </c>
-      <c r="I89" t="n">
-        <v>12</v>
-      </c>
-      <c r="J89" t="n">
-        <v>0.6770319946579617</v>
-      </c>
-      <c r="K89" t="n">
-        <v>0.2888330177758225</v>
-      </c>
-      <c r="L89" t="n">
-        <v>2.996580383861928</v>
-      </c>
-      <c r="M89" t="n">
-        <v>0.949518806154333</v>
-      </c>
-      <c r="N89" t="n">
-        <v>-2.996580383861928</v>
+        <v>14</v>
       </c>
     </row>
     <row r="90">
@@ -4558,40 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>522</v>
+        <v>6</v>
       </c>
       <c r="D90" t="n">
-        <v>7673803833.100504</v>
+        <v>433</v>
       </c>
       <c r="E90" t="n">
-        <v>0.004942449594295887</v>
+        <v>6658541664.86369</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1781804186995422</v>
+        <v>0.003384023178286512</v>
       </c>
       <c r="G90" t="b">
         <v>0</v>
       </c>
       <c r="H90" t="n">
-        <v>0.1127534912753349</v>
-      </c>
-      <c r="I90" t="n">
         <v>12</v>
-      </c>
-      <c r="J90" t="n">
-        <v>0.6770319946579617</v>
-      </c>
-      <c r="K90" t="n">
-        <v>0.1127534912753349</v>
-      </c>
-      <c r="L90" t="n">
-        <v>2.820500857361441</v>
-      </c>
-      <c r="M90" t="n">
-        <v>0.9473388163250239</v>
-      </c>
-      <c r="N90" t="n">
-        <v>-2.820500857361441</v>
       </c>
     </row>
     <row r="91">
@@ -4604,40 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>394</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
-        <v>6999966105.848434</v>
+        <v>556</v>
       </c>
       <c r="E91" t="n">
-        <v>0.003350828696333004</v>
+        <v>6831358946.045245</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1474349510260823</v>
+        <v>0.003334593934023473</v>
       </c>
       <c r="G91" t="b">
         <v>0</v>
       </c>
       <c r="H91" t="n">
-        <v>0.0505818057571972</v>
-      </c>
-      <c r="I91" t="n">
-        <v>10</v>
-      </c>
-      <c r="J91" t="n">
-        <v>0.6770319946579617</v>
-      </c>
-      <c r="K91" t="n">
-        <v>0.05058180575719719</v>
-      </c>
-      <c r="L91" t="n">
-        <v>3.016770430618316</v>
-      </c>
-      <c r="M91" t="n">
-        <v>0.8143129143280079</v>
-      </c>
-      <c r="N91" t="n">
-        <v>-3.016770430618316</v>
+        <v>20</v>
       </c>
     </row>
     <row r="92">
@@ -4650,40 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>613</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
-        <v>6436374362.913134</v>
+        <v>534</v>
       </c>
       <c r="E92" t="n">
-        <v>0.002467237847201718</v>
+        <v>4781882404.794358</v>
       </c>
       <c r="F92" t="n">
-        <v>0.2494705838199969</v>
+        <v>0.002701681490391756</v>
       </c>
       <c r="G92" t="b">
         <v>0</v>
       </c>
       <c r="H92" t="n">
-        <v>0.256912291313072</v>
-      </c>
-      <c r="I92" t="n">
-        <v>12</v>
-      </c>
-      <c r="J92" t="n">
-        <v>0.6770319946579617</v>
-      </c>
-      <c r="K92" t="n">
-        <v>0.256912291313072</v>
-      </c>
-      <c r="L92" t="n">
-        <v>2.964659657399178</v>
-      </c>
-      <c r="M92" t="n">
-        <v>1.041920948387056</v>
-      </c>
-      <c r="N92" t="n">
-        <v>-2.964659657399178</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -4696,40 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>514</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
-        <v>6075216945.814507</v>
+        <v>588</v>
       </c>
       <c r="E93" t="n">
-        <v>0.001278181697244812</v>
+        <v>6483844291.373075</v>
       </c>
       <c r="F93" t="n">
-        <v>0.221616194451718</v>
+        <v>0.001615292279646364</v>
       </c>
       <c r="G93" t="b">
         <v>1</v>
       </c>
       <c r="H93" t="n">
-        <v>0.200586775159051</v>
-      </c>
-      <c r="I93" t="n">
-        <v>15</v>
-      </c>
-      <c r="J93" t="n">
-        <v>0.6770319946579617</v>
-      </c>
-      <c r="K93" t="n">
-        <v>0.2005867751590511</v>
-      </c>
-      <c r="L93" t="n">
-        <v>2.622469645744868</v>
-      </c>
-      <c r="M93" t="n">
-        <v>0.9140326942527507</v>
-      </c>
-      <c r="N93" t="n">
-        <v>-2.622469645744868</v>
+        <v>23</v>
       </c>
     </row>
     <row r="94">
@@ -4742,40 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>571</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
-        <v>6253933650.121945</v>
+        <v>588</v>
       </c>
       <c r="E94" t="n">
-        <v>0.004966283386816425</v>
+        <v>7582434564.87936</v>
       </c>
       <c r="F94" t="n">
-        <v>0.2391569488382461</v>
+        <v>0.001275932245039183</v>
       </c>
       <c r="G94" t="b">
         <v>0</v>
       </c>
       <c r="H94" t="n">
-        <v>0.2360566622023207</v>
-      </c>
-      <c r="I94" t="n">
-        <v>9</v>
-      </c>
-      <c r="J94" t="n">
-        <v>0.6770319946579617</v>
-      </c>
-      <c r="K94" t="n">
-        <v>0.2360566622023206</v>
-      </c>
-      <c r="L94" t="n">
-        <v>3.362694003616947</v>
-      </c>
-      <c r="M94" t="n">
-        <v>1.021868911027548</v>
-      </c>
-      <c r="N94" t="n">
-        <v>-3.362694003616947</v>
+        <v>21</v>
       </c>
     </row>
     <row r="95">
@@ -4788,40 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>492</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
-        <v>7142389052.36998</v>
+        <v>511</v>
       </c>
       <c r="E95" t="n">
-        <v>0.002735000566987866</v>
+        <v>5574194079.742484</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1804354076136992</v>
+        <v>0.002610767536231034</v>
       </c>
       <c r="G95" t="b">
         <v>0</v>
       </c>
       <c r="H95" t="n">
-        <v>0.1173133978965919</v>
-      </c>
-      <c r="I95" t="n">
-        <v>10</v>
-      </c>
-      <c r="J95" t="n">
-        <v>0.6770319946579617</v>
-      </c>
-      <c r="K95" t="n">
-        <v>0.1173133978965919</v>
-      </c>
-      <c r="L95" t="n">
-        <v>3.083502022757711</v>
-      </c>
-      <c r="M95" t="n">
-        <v>0.9304444681706381</v>
-      </c>
-      <c r="N95" t="n">
-        <v>-3.083502022757711</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96">
@@ -4834,40 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>533</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
-        <v>5860872598.109471</v>
+        <v>520</v>
       </c>
       <c r="E96" t="n">
-        <v>0.001051412104368176</v>
+        <v>9093922246.383091</v>
       </c>
       <c r="F96" t="n">
-        <v>0.2382127996521112</v>
+        <v>0.002087015950683592</v>
       </c>
       <c r="G96" t="b">
         <v>0</v>
       </c>
       <c r="H96" t="n">
-        <v>0.2341474589693102</v>
-      </c>
-      <c r="I96" t="n">
         <v>18</v>
-      </c>
-      <c r="J96" t="n">
-        <v>0.6770319946579617</v>
-      </c>
-      <c r="K96" t="n">
-        <v>0.2341474589693103</v>
-      </c>
-      <c r="L96" t="n">
-        <v>2.445013925394671</v>
-      </c>
-      <c r="M96" t="n">
-        <v>0.9106508435139096</v>
-      </c>
-      <c r="N96" t="n">
-        <v>-2.445013925394671</v>
       </c>
     </row>
     <row r="97">
@@ -4880,40 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>476</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
-        <v>4407918607.277596</v>
+        <v>514</v>
       </c>
       <c r="E97" t="n">
-        <v>0.004684108216307766</v>
+        <v>7535930799.863211</v>
       </c>
       <c r="F97" t="n">
-        <v>0.2828613118993281</v>
+        <v>0.004112274585487019</v>
       </c>
       <c r="G97" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H97" t="n">
-        <v>0.3244330676244966</v>
-      </c>
-      <c r="I97" t="n">
-        <v>12</v>
-      </c>
-      <c r="J97" t="n">
-        <v>0.6770319946579617</v>
-      </c>
-      <c r="K97" t="n">
-        <v>0.3244330676244966</v>
-      </c>
-      <c r="L97" t="n">
-        <v>3.032180433710602</v>
-      </c>
-      <c r="M97" t="n">
-        <v>0.8957359183649455</v>
-      </c>
-      <c r="N97" t="n">
-        <v>-3.032180433710602</v>
+        <v>17</v>
       </c>
     </row>
     <row r="98">
@@ -4926,40 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>451</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
-        <v>9649857179.860353</v>
+        <v>616</v>
       </c>
       <c r="E98" t="n">
-        <v>0.004780297636508175</v>
+        <v>8957122536.726925</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1224209714176408</v>
+        <v>0.003636526128494814</v>
       </c>
       <c r="G98" t="b">
         <v>0</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>12</v>
-      </c>
-      <c r="J98" t="n">
-        <v>0.6770319946579617</v>
-      </c>
-      <c r="K98" t="n">
-        <v>0</v>
-      </c>
-      <c r="L98" t="n">
-        <v>2.707747366086106</v>
-      </c>
-      <c r="M98" t="n">
-        <v>0.8664027391409477</v>
-      </c>
-      <c r="N98" t="n">
-        <v>-2.707747366086106</v>
+        <v>25</v>
       </c>
     </row>
     <row r="99">
@@ -4972,40 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>501</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
-        <v>5534389195.83054</v>
+        <v>567</v>
       </c>
       <c r="E99" t="n">
-        <v>0.004884433672264467</v>
+        <v>3144836886.125844</v>
       </c>
       <c r="F99" t="n">
-        <v>0.2371200043156818</v>
+        <v>0.005410746539970604</v>
       </c>
       <c r="G99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H99" t="n">
-        <v>0.2319376721898811</v>
-      </c>
-      <c r="I99" t="n">
-        <v>15</v>
-      </c>
-      <c r="J99" t="n">
-        <v>0.6770319946579617</v>
-      </c>
-      <c r="K99" t="n">
-        <v>0.231937672189881</v>
-      </c>
-      <c r="L99" t="n">
-        <v>2.653820542775697</v>
-      </c>
-      <c r="M99" t="n">
-        <v>0.8992093299408663</v>
-      </c>
-      <c r="N99" t="n">
-        <v>-2.653820542775697</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -5018,40 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>418</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
-        <v>6104910509.812019</v>
+        <v>422</v>
       </c>
       <c r="E100" t="n">
-        <v>0.002440107138719167</v>
+        <v>6160939408.510081</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1793482505992891</v>
+        <v>0.00366614932623279</v>
       </c>
       <c r="G100" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H100" t="n">
-        <v>0.1151150126019982</v>
-      </c>
-      <c r="I100" t="n">
-        <v>12</v>
-      </c>
-      <c r="J100" t="n">
-        <v>0.6770319946579617</v>
-      </c>
-      <c r="K100" t="n">
-        <v>0.1151150126019982</v>
-      </c>
-      <c r="L100" t="n">
-        <v>2.822862378688104</v>
-      </c>
-      <c r="M100" t="n">
-        <v>0.8260896174351618</v>
-      </c>
-      <c r="N100" t="n">
-        <v>-2.822862378688104</v>
+        <v>6</v>
       </c>
     </row>
     <row r="101">
@@ -5064,40 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>486</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
-        <v>3597566932.069057</v>
+        <v>573</v>
       </c>
       <c r="E101" t="n">
-        <v>0.003962580192655031</v>
+        <v>7827528169.967456</v>
       </c>
       <c r="F101" t="n">
-        <v>0.353856804901153</v>
+        <v>0.001124315286276295</v>
       </c>
       <c r="G101" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H101" t="n">
-        <v>0.4679959989480223</v>
-      </c>
-      <c r="I101" t="n">
-        <v>15</v>
-      </c>
-      <c r="J101" t="n">
-        <v>0.6770319946579617</v>
-      </c>
-      <c r="K101" t="n">
-        <v>0.4679959989480223</v>
-      </c>
-      <c r="L101" t="n">
-        <v>2.889878869533839</v>
-      </c>
-      <c r="M101" t="n">
-        <v>0.881795861647019</v>
-      </c>
-      <c r="N101" t="n">
-        <v>-2.889878869533839</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_66.xlsx
+++ b/output/fit_clients/fit_round_66.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:J101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,12 +461,22 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>channelGain</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>isSelected</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>reward</t>
         </is>
       </c>
     </row>
@@ -480,22 +490,28 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>502</v>
+        <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>6878048375.215151</v>
+        <v>2267637623.743408</v>
       </c>
       <c r="F2" t="n">
-        <v>0.003792169979698134</v>
-      </c>
-      <c r="G2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>17</v>
+        <v>0.07561899415924925</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.04341891474880821</v>
+      </c>
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1133818843.376966</v>
       </c>
     </row>
     <row r="3">
@@ -511,19 +527,25 @@
         <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>4599977697.486697</v>
+        <v>1775640898.927438</v>
       </c>
       <c r="F3" t="n">
-        <v>0.003799954528570878</v>
-      </c>
-      <c r="G3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>16</v>
+        <v>0.1488960847349475</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.03102420585106627</v>
+      </c>
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>887820454.66857</v>
       </c>
     </row>
     <row r="4">
@@ -536,22 +558,28 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>5285390037.9075</v>
+        <v>3229983665.938</v>
       </c>
       <c r="F4" t="n">
-        <v>0.003120888533882643</v>
-      </c>
-      <c r="G4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>14</v>
+        <v>0.1468729730557511</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.0376848681825613</v>
+      </c>
+      <c r="H4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>24</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1614991792.495519</v>
       </c>
     </row>
     <row r="5">
@@ -564,22 +592,28 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>494</v>
+        <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>4421366125.481043</v>
+        <v>2714717849.643024</v>
       </c>
       <c r="F5" t="n">
-        <v>0.00322704209899057</v>
-      </c>
-      <c r="G5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
+        <v>0.1076575613539933</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.05056575704102163</v>
+      </c>
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>26</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1357359013.389379</v>
       </c>
     </row>
     <row r="6">
@@ -592,22 +626,28 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>469</v>
+        <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>6589761242.297634</v>
+        <v>2614657940.022328</v>
       </c>
       <c r="F6" t="n">
-        <v>0.002787129946005989</v>
-      </c>
-      <c r="G6" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>14</v>
+        <v>0.1369977756955923</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.04043131242722366</v>
+      </c>
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>11</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1307328932.990415</v>
       </c>
     </row>
     <row r="7">
@@ -620,22 +660,28 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
-        <v>539</v>
+        <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>8048076952.271662</v>
+        <v>2211546081.154843</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0009250121561559149</v>
-      </c>
-      <c r="G7" t="b">
-        <v>1</v>
-      </c>
-      <c r="H7" t="n">
-        <v>22</v>
+        <v>0.08330770200785814</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.03810646169910736</v>
+      </c>
+      <c r="H7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>21</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1105773081.269036</v>
       </c>
     </row>
     <row r="8">
@@ -648,22 +694,28 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
-        <v>513</v>
+        <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>7184890849.514049</v>
+        <v>2868265636.431949</v>
       </c>
       <c r="F8" t="n">
-        <v>0.003042034434680603</v>
-      </c>
-      <c r="G8" t="b">
-        <v>1</v>
-      </c>
-      <c r="H8" t="n">
-        <v>19</v>
+        <v>0.1843126476775772</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.02121832546577029</v>
+      </c>
+      <c r="H8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>21</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1434132862.142056</v>
       </c>
     </row>
     <row r="9">
@@ -679,19 +731,25 @@
         <v>5</v>
       </c>
       <c r="D9" t="n">
-        <v>569</v>
+        <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>4803419068.456602</v>
+        <v>1622862911.638913</v>
       </c>
       <c r="F9" t="n">
-        <v>0.003849415368279216</v>
-      </c>
-      <c r="G9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>21</v>
+        <v>0.1239484751399644</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.02341418169951943</v>
+      </c>
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>811431534.6707242</v>
       </c>
     </row>
     <row r="10">
@@ -704,22 +762,28 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
-        <v>529</v>
+        <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3459347887.486702</v>
+        <v>4058719609.613223</v>
       </c>
       <c r="F10" t="n">
-        <v>0.004171333520414418</v>
-      </c>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
+        <v>0.1312169187153119</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.05465138465695794</v>
+      </c>
+      <c r="H10" t="b">
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>28</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2029359831.136853</v>
       </c>
     </row>
     <row r="11">
@@ -732,22 +796,28 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
-        <v>582</v>
+        <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3250679954.338488</v>
+        <v>2730565607.840407</v>
       </c>
       <c r="F11" t="n">
-        <v>0.001068284512565826</v>
-      </c>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
+        <v>0.1382222405504612</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.03941152232943412</v>
+      </c>
+      <c r="H11" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>28</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1365282727.914303</v>
       </c>
     </row>
     <row r="12">
@@ -760,22 +830,28 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
-        <v>537</v>
+        <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>7821856910.132966</v>
+        <v>3131056176.61052</v>
       </c>
       <c r="F12" t="n">
-        <v>0.002184515920302629</v>
-      </c>
-      <c r="G12" t="b">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>19</v>
+        <v>0.1710783326472677</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.03663631179115985</v>
+      </c>
+      <c r="H12" t="b">
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>22</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1565528118.206916</v>
       </c>
     </row>
     <row r="13">
@@ -788,22 +864,28 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
-        <v>480</v>
+        <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5580499199.12114</v>
+        <v>4327877193.324251</v>
       </c>
       <c r="F13" t="n">
-        <v>0.004517743622980494</v>
-      </c>
-      <c r="G13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>14</v>
+        <v>0.09625953372340854</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.0291962554908047</v>
+      </c>
+      <c r="H13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>22</v>
+      </c>
+      <c r="J13" t="n">
+        <v>2163938634.838214</v>
       </c>
     </row>
     <row r="14">
@@ -816,22 +898,28 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
-        <v>486</v>
+        <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>5837338215.014142</v>
+        <v>3333327286.546056</v>
       </c>
       <c r="F14" t="n">
-        <v>0.002785544065822891</v>
-      </c>
-      <c r="G14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>15</v>
+        <v>0.1689015239476866</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.03975760050238919</v>
+      </c>
+      <c r="H14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>21</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1666663653.470114</v>
       </c>
     </row>
     <row r="15">
@@ -844,22 +932,28 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
-        <v>538</v>
+        <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>6325841084.658133</v>
+        <v>1628069561.472075</v>
       </c>
       <c r="F15" t="n">
-        <v>0.003932132749025888</v>
-      </c>
-      <c r="G15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>19</v>
+        <v>0.1015368434021558</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.04317023472385107</v>
+      </c>
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>814034895.1575601</v>
       </c>
     </row>
     <row r="16">
@@ -872,22 +966,28 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
-        <v>569</v>
+        <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>5667330975.309068</v>
+        <v>2042860748.361217</v>
       </c>
       <c r="F16" t="n">
-        <v>0.004885144591484433</v>
-      </c>
-      <c r="G16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>21</v>
+        <v>0.1147823334629388</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.03842097163132881</v>
+      </c>
+      <c r="H16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>11</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1021430445.739074</v>
       </c>
     </row>
     <row r="17">
@@ -903,19 +1003,25 @@
         <v>3</v>
       </c>
       <c r="D17" t="n">
-        <v>462</v>
+        <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4887548633.330561</v>
+        <v>3515739210.567111</v>
       </c>
       <c r="F17" t="n">
-        <v>0.002968077818911633</v>
-      </c>
-      <c r="G17" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>14</v>
+        <v>0.1548742155705109</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.05245727557722067</v>
+      </c>
+      <c r="H17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>19</v>
+      </c>
+      <c r="J17" t="n">
+        <v>1757869663.697089</v>
       </c>
     </row>
     <row r="18">
@@ -928,22 +1034,28 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
-        <v>536</v>
+        <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>5187175222.192178</v>
+        <v>3325748755.540063</v>
       </c>
       <c r="F18" t="n">
-        <v>0.001304507650652482</v>
-      </c>
-      <c r="G18" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18" t="n">
-        <v>17</v>
+        <v>0.1624128191768633</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.02912350572630205</v>
+      </c>
+      <c r="H18" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>22</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1662874384.383103</v>
       </c>
     </row>
     <row r="19">
@@ -956,22 +1068,28 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
-        <v>512</v>
+        <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>4275327541.515474</v>
+        <v>960467195.48277</v>
       </c>
       <c r="F19" t="n">
-        <v>0.00159158954828375</v>
-      </c>
-      <c r="G19" t="b">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
+        <v>0.1695002595416847</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.02603399225419432</v>
+      </c>
+      <c r="H19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>480233617.251842</v>
       </c>
     </row>
     <row r="20">
@@ -984,22 +1102,28 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
-        <v>508</v>
+        <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>6162160671.460048</v>
+        <v>2689313354.130387</v>
       </c>
       <c r="F20" t="n">
-        <v>0.001262175366537388</v>
-      </c>
-      <c r="G20" t="b">
-        <v>1</v>
-      </c>
-      <c r="H20" t="n">
-        <v>7</v>
+        <v>0.13058794901802</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.02501846723759898</v>
+      </c>
+      <c r="H20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>8</v>
+      </c>
+      <c r="J20" t="n">
+        <v>1344656629.882911</v>
       </c>
     </row>
     <row r="21">
@@ -1012,22 +1136,28 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
-        <v>440</v>
+        <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>5379892935.873698</v>
+        <v>2434900635.8982</v>
       </c>
       <c r="F21" t="n">
-        <v>0.005075881899202822</v>
-      </c>
-      <c r="G21" t="b">
-        <v>0</v>
-      </c>
-      <c r="H21" t="n">
-        <v>12</v>
+        <v>0.08554859209450758</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.03115988447081646</v>
+      </c>
+      <c r="H21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>7</v>
+      </c>
+      <c r="J21" t="n">
+        <v>1217450312.174312</v>
       </c>
     </row>
     <row r="22">
@@ -1040,22 +1170,28 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
-        <v>441</v>
+        <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>4525578982.200827</v>
+        <v>2451507625.778275</v>
       </c>
       <c r="F22" t="n">
-        <v>0.00360011602372855</v>
-      </c>
-      <c r="G22" t="b">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>5</v>
+        <v>0.1401392590905178</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.03541571490049995</v>
+      </c>
+      <c r="H22" t="b">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>18</v>
+      </c>
+      <c r="J22" t="n">
+        <v>1225753907.173295</v>
       </c>
     </row>
     <row r="23">
@@ -1071,19 +1207,25 @@
         <v>5</v>
       </c>
       <c r="D23" t="n">
-        <v>439</v>
+        <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>6686455660.73892</v>
+        <v>1465873764.048683</v>
       </c>
       <c r="F23" t="n">
-        <v>0.001854261430067747</v>
-      </c>
-      <c r="G23" t="b">
-        <v>1</v>
-      </c>
-      <c r="H23" t="n">
-        <v>12</v>
+        <v>0.1275377926569863</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.05360127829920259</v>
+      </c>
+      <c r="H23" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>732936873.6073494</v>
       </c>
     </row>
     <row r="24">
@@ -1099,19 +1241,25 @@
         <v>3</v>
       </c>
       <c r="D24" t="n">
-        <v>513</v>
+        <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>7955566169.334362</v>
+        <v>3992189025.451701</v>
       </c>
       <c r="F24" t="n">
-        <v>0.003790043892230851</v>
-      </c>
-      <c r="G24" t="b">
-        <v>0</v>
-      </c>
-      <c r="H24" t="n">
-        <v>17</v>
+        <v>0.1488761590140224</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.03600958378944259</v>
+      </c>
+      <c r="H24" t="b">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>20</v>
+      </c>
+      <c r="J24" t="n">
+        <v>1996094481.117697</v>
       </c>
     </row>
     <row r="25">
@@ -1127,19 +1275,25 @@
         <v>2</v>
       </c>
       <c r="D25" t="n">
-        <v>473</v>
+        <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>6997540913.437617</v>
+        <v>1079141537.769896</v>
       </c>
       <c r="F25" t="n">
-        <v>0.004049338032997267</v>
-      </c>
-      <c r="G25" t="b">
-        <v>1</v>
-      </c>
-      <c r="H25" t="n">
-        <v>13</v>
+        <v>0.1117428374819792</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.02517851104068611</v>
+      </c>
+      <c r="H25" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>539570814.550621</v>
       </c>
     </row>
     <row r="26">
@@ -1152,22 +1306,28 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
-        <v>462</v>
+        <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>4706121011.87369</v>
+        <v>1062459721.168549</v>
       </c>
       <c r="F26" t="n">
-        <v>0.001122206000737593</v>
-      </c>
-      <c r="G26" t="b">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
+        <v>0.07913746545640304</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.0313041953122104</v>
+      </c>
+      <c r="H26" t="b">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>531229847.828204</v>
       </c>
     </row>
     <row r="27">
@@ -1180,22 +1340,28 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
-        <v>517</v>
+        <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>7412662627.577437</v>
+        <v>4584369088.822775</v>
       </c>
       <c r="F27" t="n">
-        <v>0.003822556224521908</v>
-      </c>
-      <c r="G27" t="b">
-        <v>0</v>
-      </c>
-      <c r="H27" t="n">
-        <v>18</v>
+        <v>0.1010165847784724</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.01936595767717141</v>
+      </c>
+      <c r="H27" t="b">
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>15</v>
+      </c>
+      <c r="J27" t="n">
+        <v>2292184525.425636</v>
       </c>
     </row>
     <row r="28">
@@ -1208,22 +1374,28 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>5717650081.603906</v>
+        <v>3286874955.223872</v>
       </c>
       <c r="F28" t="n">
-        <v>0.00394587626071923</v>
-      </c>
-      <c r="G28" t="b">
-        <v>0</v>
-      </c>
-      <c r="H28" t="n">
-        <v>16</v>
+        <v>0.1329507843284689</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.04429044837843739</v>
+      </c>
+      <c r="H28" t="b">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>21</v>
+      </c>
+      <c r="J28" t="n">
+        <v>1643437513.627177</v>
       </c>
     </row>
     <row r="29">
@@ -1236,22 +1408,28 @@
         </is>
       </c>
       <c r="C29" t="n">
+        <v>3</v>
+      </c>
+      <c r="D29" t="n">
+        <v>585</v>
+      </c>
+      <c r="E29" t="n">
+        <v>5186325620.464236</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.1493447165261917</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.04045807938642403</v>
+      </c>
+      <c r="H29" t="b">
         <v>1</v>
       </c>
-      <c r="D29" t="n">
-        <v>504</v>
-      </c>
-      <c r="E29" t="n">
-        <v>8120631930.723306</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0.001108858012505366</v>
-      </c>
-      <c r="G29" t="b">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>17</v>
+      <c r="I29" t="n">
+        <v>30</v>
+      </c>
+      <c r="J29" t="n">
+        <v>2593162744.734185</v>
       </c>
     </row>
     <row r="30">
@@ -1264,22 +1442,28 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
-        <v>564</v>
+        <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>6260033547.8021</v>
+        <v>1892714444.563984</v>
       </c>
       <c r="F30" t="n">
-        <v>0.002951756404416743</v>
-      </c>
-      <c r="G30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H30" t="n">
-        <v>22</v>
+        <v>0.1025861664899295</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.03832115576103462</v>
+      </c>
+      <c r="H30" t="b">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>946357247.4220368</v>
       </c>
     </row>
     <row r="31">
@@ -1292,22 +1476,28 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
-        <v>457</v>
+        <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>4866776066.379777</v>
+        <v>1230121145.24992</v>
       </c>
       <c r="F31" t="n">
-        <v>0.002773148019521081</v>
-      </c>
-      <c r="G31" t="b">
-        <v>0</v>
-      </c>
-      <c r="H31" t="n">
-        <v>13</v>
+        <v>0.08156333921777928</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.03321210898236451</v>
+      </c>
+      <c r="H31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>615060516.8966901</v>
       </c>
     </row>
     <row r="32">
@@ -1323,19 +1513,25 @@
         <v>3</v>
       </c>
       <c r="D32" t="n">
-        <v>574</v>
+        <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>4164302100.803566</v>
+        <v>1463480133.901769</v>
       </c>
       <c r="F32" t="n">
-        <v>0.001353082786343679</v>
-      </c>
-      <c r="G32" t="b">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
+        <v>0.07378396733156506</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.03742313953061291</v>
+      </c>
+      <c r="H32" t="b">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>731740127.6308223</v>
       </c>
     </row>
     <row r="33">
@@ -1348,22 +1544,28 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
-        <v>470</v>
+        <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>5441842387.656273</v>
+        <v>3029074929.83757</v>
       </c>
       <c r="F33" t="n">
-        <v>0.002863779354213577</v>
-      </c>
-      <c r="G33" t="b">
-        <v>0</v>
-      </c>
-      <c r="H33" t="n">
-        <v>14</v>
+        <v>0.2076369994864295</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.03886394723153658</v>
+      </c>
+      <c r="H33" t="b">
+        <v>1</v>
+      </c>
+      <c r="I33" t="n">
+        <v>19</v>
+      </c>
+      <c r="J33" t="n">
+        <v>1514537457.960799</v>
       </c>
     </row>
     <row r="34">
@@ -1379,19 +1581,25 @@
         <v>3</v>
       </c>
       <c r="D34" t="n">
-        <v>560</v>
+        <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>7570956203.167001</v>
+        <v>958451842.5543571</v>
       </c>
       <c r="F34" t="n">
-        <v>0.004111084250206929</v>
-      </c>
-      <c r="G34" t="b">
-        <v>1</v>
-      </c>
-      <c r="H34" t="n">
-        <v>20</v>
+        <v>0.1156852291283838</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.01762782786712136</v>
+      </c>
+      <c r="H34" t="b">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>479225965.8685512</v>
       </c>
     </row>
     <row r="35">
@@ -1404,22 +1612,28 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
-        <v>514</v>
+        <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>6720227322.004133</v>
+        <v>1317643049.337769</v>
       </c>
       <c r="F35" t="n">
-        <v>0.002414212358960208</v>
-      </c>
-      <c r="G35" t="b">
-        <v>0</v>
-      </c>
-      <c r="H35" t="n">
-        <v>17</v>
+        <v>0.09311342297767163</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.04350444710329038</v>
+      </c>
+      <c r="H35" t="b">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>658821473.4642464</v>
       </c>
     </row>
     <row r="36">
@@ -1432,22 +1646,28 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
-        <v>538</v>
+        <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>5422593947.542667</v>
+        <v>3236508246.342502</v>
       </c>
       <c r="F36" t="n">
-        <v>0.003509336715746276</v>
-      </c>
-      <c r="G36" t="b">
-        <v>0</v>
-      </c>
-      <c r="H36" t="n">
-        <v>19</v>
+        <v>0.1146082932599154</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.01782345418537227</v>
+      </c>
+      <c r="H36" t="b">
+        <v>1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>16</v>
+      </c>
+      <c r="J36" t="n">
+        <v>1618254086.015097</v>
       </c>
     </row>
     <row r="37">
@@ -1460,22 +1680,28 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
-        <v>573</v>
+        <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>5403810008.0713</v>
+        <v>2783960747.350442</v>
       </c>
       <c r="F37" t="n">
-        <v>0.005468781320517973</v>
-      </c>
-      <c r="G37" t="b">
-        <v>0</v>
-      </c>
-      <c r="H37" t="n">
-        <v>16</v>
+        <v>0.1074631940984047</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.0401886869353409</v>
+      </c>
+      <c r="H37" t="b">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>19</v>
+      </c>
+      <c r="J37" t="n">
+        <v>1391980508.698269</v>
       </c>
     </row>
     <row r="38">
@@ -1488,22 +1714,28 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
-        <v>461</v>
+        <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>3103459449.681622</v>
+        <v>1619857825.743921</v>
       </c>
       <c r="F38" t="n">
-        <v>0.003282957589184296</v>
-      </c>
-      <c r="G38" t="b">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
+        <v>0.0931381299378421</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.0350497881310174</v>
+      </c>
+      <c r="H38" t="b">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>809928945.0913466</v>
       </c>
     </row>
     <row r="39">
@@ -1516,22 +1748,28 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
-        <v>470</v>
+        <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>6447876526.924397</v>
+        <v>1505683728.933648</v>
       </c>
       <c r="F39" t="n">
-        <v>0.002613177575312697</v>
-      </c>
-      <c r="G39" t="b">
-        <v>1</v>
-      </c>
-      <c r="H39" t="n">
-        <v>9</v>
+        <v>0.1183964976054015</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.02428935767590712</v>
+      </c>
+      <c r="H39" t="b">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>752841933.9582615</v>
       </c>
     </row>
     <row r="40">
@@ -1544,22 +1782,28 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
-        <v>523</v>
+        <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>5512782186.634</v>
+        <v>1503299519.61982</v>
       </c>
       <c r="F40" t="n">
-        <v>0.004014882443388411</v>
-      </c>
-      <c r="G40" t="b">
-        <v>0</v>
-      </c>
-      <c r="H40" t="n">
-        <v>19</v>
+        <v>0.1292389389920848</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.05148121790710526</v>
+      </c>
+      <c r="H40" t="b">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>751649725.0884404</v>
       </c>
     </row>
     <row r="41">
@@ -1572,22 +1816,28 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
-        <v>540</v>
+        <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>4713095429.660407</v>
+        <v>1965009184.686182</v>
       </c>
       <c r="F41" t="n">
-        <v>0.001190427442258709</v>
-      </c>
-      <c r="G41" t="b">
-        <v>0</v>
-      </c>
-      <c r="H41" t="n">
-        <v>19</v>
+        <v>0.1392616225728052</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.03012320664207997</v>
+      </c>
+      <c r="H41" t="b">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>16</v>
+      </c>
+      <c r="J41" t="n">
+        <v>982504669.8655874</v>
       </c>
     </row>
     <row r="42">
@@ -1603,19 +1853,25 @@
         <v>4</v>
       </c>
       <c r="D42" t="n">
-        <v>514</v>
+        <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>6005223301.861489</v>
+        <v>3362888966.156544</v>
       </c>
       <c r="F42" t="n">
-        <v>0.005362588995453497</v>
-      </c>
-      <c r="G42" t="b">
-        <v>0</v>
-      </c>
-      <c r="H42" t="n">
-        <v>17</v>
+        <v>0.1109131438623051</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.03671814985351037</v>
+      </c>
+      <c r="H42" t="b">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>23</v>
+      </c>
+      <c r="J42" t="n">
+        <v>1681444468.384382</v>
       </c>
     </row>
     <row r="43">
@@ -1631,19 +1887,25 @@
         <v>4</v>
       </c>
       <c r="D43" t="n">
-        <v>493</v>
+        <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>4301279801.805043</v>
+        <v>2107934392.706557</v>
       </c>
       <c r="F43" t="n">
-        <v>0.003203475549690936</v>
-      </c>
-      <c r="G43" t="b">
-        <v>0</v>
-      </c>
-      <c r="H43" t="n">
-        <v>16</v>
+        <v>0.2004909963885164</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.0162848398204957</v>
+      </c>
+      <c r="H43" t="b">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>22</v>
+      </c>
+      <c r="J43" t="n">
+        <v>1053967284.3295</v>
       </c>
     </row>
     <row r="44">
@@ -1656,22 +1918,28 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
-        <v>523</v>
+        <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>7335023000.997422</v>
+        <v>1531235012.996338</v>
       </c>
       <c r="F44" t="n">
-        <v>0.002333345064655996</v>
-      </c>
-      <c r="G44" t="b">
-        <v>1</v>
-      </c>
-      <c r="H44" t="n">
-        <v>17</v>
+        <v>0.0752651904664224</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.0237637738278125</v>
+      </c>
+      <c r="H44" t="b">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>765617519.2120178</v>
       </c>
     </row>
     <row r="45">
@@ -1684,22 +1952,28 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
-        <v>520</v>
+        <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>4182487425.50067</v>
+        <v>2237806289.10576</v>
       </c>
       <c r="F45" t="n">
-        <v>0.001187876084511585</v>
-      </c>
-      <c r="G45" t="b">
-        <v>0</v>
-      </c>
-      <c r="H45" t="n">
-        <v>3</v>
+        <v>0.1177177378655218</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.03596137843268239</v>
+      </c>
+      <c r="H45" t="b">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>1118903159.297416</v>
       </c>
     </row>
     <row r="46">
@@ -1712,22 +1986,28 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
-        <v>406</v>
+        <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>7810337482.140786</v>
+        <v>5398216898.948011</v>
       </c>
       <c r="F46" t="n">
-        <v>0.004812858606053268</v>
-      </c>
-      <c r="G46" t="b">
+        <v>0.1224530888380317</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.03796009429571369</v>
+      </c>
+      <c r="H46" t="b">
         <v>1</v>
       </c>
-      <c r="H46" t="n">
-        <v>10</v>
+      <c r="I46" t="n">
+        <v>23</v>
+      </c>
+      <c r="J46" t="n">
+        <v>2699108498.957759</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +2020,28 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
-        <v>368</v>
+        <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>8625500357.058739</v>
+        <v>4875123858.367302</v>
       </c>
       <c r="F47" t="n">
-        <v>0.002251222846839538</v>
-      </c>
-      <c r="G47" t="b">
-        <v>0</v>
-      </c>
-      <c r="H47" t="n">
-        <v>9</v>
+        <v>0.188308630814126</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.04167998416717539</v>
+      </c>
+      <c r="H47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>18</v>
+      </c>
+      <c r="J47" t="n">
+        <v>2437561977.810995</v>
       </c>
     </row>
     <row r="48">
@@ -1771,19 +2057,25 @@
         <v>2</v>
       </c>
       <c r="D48" t="n">
-        <v>431</v>
+        <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>7018601337.185944</v>
+        <v>4449357604.318696</v>
       </c>
       <c r="F48" t="n">
-        <v>0.002425942698640841</v>
-      </c>
-      <c r="G48" t="b">
-        <v>0</v>
-      </c>
-      <c r="H48" t="n">
-        <v>12</v>
+        <v>0.1102464434892932</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.02697347270953654</v>
+      </c>
+      <c r="H48" t="b">
+        <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>22</v>
+      </c>
+      <c r="J48" t="n">
+        <v>2224678810.334381</v>
       </c>
     </row>
     <row r="49">
@@ -1799,19 +2091,25 @@
         <v>2</v>
       </c>
       <c r="D49" t="n">
-        <v>581</v>
+        <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>5863193508.772984</v>
+        <v>1801124948.68822</v>
       </c>
       <c r="F49" t="n">
-        <v>0.004250228424313488</v>
-      </c>
-      <c r="G49" t="b">
-        <v>1</v>
-      </c>
-      <c r="H49" t="n">
-        <v>1</v>
+        <v>0.1858980209442253</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.03833602771570517</v>
+      </c>
+      <c r="H49" t="b">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>900562459.4261543</v>
       </c>
     </row>
     <row r="50">
@@ -1824,22 +2122,28 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
-        <v>528</v>
+        <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>7766095225.45991</v>
+        <v>3523478680.59934</v>
       </c>
       <c r="F50" t="n">
-        <v>0.003523828923669924</v>
-      </c>
-      <c r="G50" t="b">
-        <v>0</v>
-      </c>
-      <c r="H50" t="n">
-        <v>18</v>
+        <v>0.1533419201446095</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.0411403180048058</v>
+      </c>
+      <c r="H50" t="b">
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>22</v>
+      </c>
+      <c r="J50" t="n">
+        <v>1761739362.774768</v>
       </c>
     </row>
     <row r="51">
@@ -1852,22 +2156,28 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
-        <v>394</v>
+        <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>5087266503.687217</v>
+        <v>1393980629.207654</v>
       </c>
       <c r="F51" t="n">
-        <v>0.004012348607187951</v>
-      </c>
-      <c r="G51" t="b">
-        <v>0</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
+        <v>0.1817123902331159</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.05329491883616093</v>
+      </c>
+      <c r="H51" t="b">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>696990334.6131434</v>
       </c>
     </row>
     <row r="52">
@@ -1880,22 +2190,28 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
-        <v>497</v>
+        <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>8362953396.235264</v>
+        <v>3967954555.238505</v>
       </c>
       <c r="F52" t="n">
-        <v>0.001644043710366667</v>
-      </c>
-      <c r="G52" t="b">
-        <v>0</v>
-      </c>
-      <c r="H52" t="n">
-        <v>16</v>
+        <v>0.1179917917188327</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.05443467596712566</v>
+      </c>
+      <c r="H52" t="b">
+        <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>27</v>
+      </c>
+      <c r="J52" t="n">
+        <v>1983977335.884417</v>
       </c>
     </row>
     <row r="53">
@@ -1908,22 +2224,28 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
-        <v>443</v>
+        <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>5224595845.967029</v>
+        <v>3481991765.95384</v>
       </c>
       <c r="F53" t="n">
-        <v>0.002602262084077705</v>
-      </c>
-      <c r="G53" t="b">
-        <v>0</v>
-      </c>
-      <c r="H53" t="n">
-        <v>12</v>
+        <v>0.1452830018601411</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.0323077517210005</v>
+      </c>
+      <c r="H53" t="b">
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>18</v>
+      </c>
+      <c r="J53" t="n">
+        <v>1740995881.99179</v>
       </c>
     </row>
     <row r="54">
@@ -1936,22 +2258,28 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
-        <v>591</v>
+        <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>5189245716.154469</v>
+        <v>3741887024.597874</v>
       </c>
       <c r="F54" t="n">
-        <v>0.00556625046385197</v>
-      </c>
-      <c r="G54" t="b">
-        <v>0</v>
-      </c>
-      <c r="H54" t="n">
-        <v>18</v>
+        <v>0.1206741184084537</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.03251404284658954</v>
+      </c>
+      <c r="H54" t="b">
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>22</v>
+      </c>
+      <c r="J54" t="n">
+        <v>1870943556.01239</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +2292,28 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
-        <v>568</v>
+        <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>5930548315.766026</v>
+        <v>4191804709.920673</v>
       </c>
       <c r="F55" t="n">
-        <v>0.003800146913001487</v>
-      </c>
-      <c r="G55" t="b">
-        <v>0</v>
-      </c>
-      <c r="H55" t="n">
-        <v>21</v>
+        <v>0.1456218886346178</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.02806380079003797</v>
+      </c>
+      <c r="H55" t="b">
+        <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>17</v>
+      </c>
+      <c r="J55" t="n">
+        <v>2095902338.257183</v>
       </c>
     </row>
     <row r="56">
@@ -1992,22 +2326,28 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
-        <v>467</v>
+        <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>4042687212.279992</v>
+        <v>1854714026.616966</v>
       </c>
       <c r="F56" t="n">
-        <v>0.002380435384233069</v>
-      </c>
-      <c r="G56" t="b">
-        <v>0</v>
-      </c>
-      <c r="H56" t="n">
-        <v>11</v>
+        <v>0.1254321870944093</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.04821267395448479</v>
+      </c>
+      <c r="H56" t="b">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>927357002.9451022</v>
       </c>
     </row>
     <row r="57">
@@ -2020,22 +2360,28 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
-        <v>475</v>
+        <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>7349028968.080123</v>
+        <v>3048118807.697771</v>
       </c>
       <c r="F57" t="n">
-        <v>0.003049529044479901</v>
-      </c>
-      <c r="G57" t="b">
-        <v>1</v>
-      </c>
-      <c r="H57" t="n">
-        <v>15</v>
+        <v>0.1287898276089775</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0.0271210494548206</v>
+      </c>
+      <c r="H57" t="b">
+        <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>21</v>
+      </c>
+      <c r="J57" t="n">
+        <v>1524059412.20586</v>
       </c>
     </row>
     <row r="58">
@@ -2048,22 +2394,28 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
-        <v>484</v>
+        <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>5651198557.158518</v>
+        <v>1540713874.938397</v>
       </c>
       <c r="F58" t="n">
-        <v>0.001992780521304891</v>
-      </c>
-      <c r="G58" t="b">
-        <v>0</v>
-      </c>
-      <c r="H58" t="n">
-        <v>15</v>
+        <v>0.1295588466553584</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0.03590796249470126</v>
+      </c>
+      <c r="H58" t="b">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>770356964.7967544</v>
       </c>
     </row>
     <row r="59">
@@ -2076,22 +2428,28 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
-        <v>352</v>
+        <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5930350677.598604</v>
+        <v>5159556814.005631</v>
       </c>
       <c r="F59" t="n">
-        <v>0.004104434338868782</v>
-      </c>
-      <c r="G59" t="b">
-        <v>0</v>
-      </c>
-      <c r="H59" t="n">
-        <v>8</v>
+        <v>0.1074672233267409</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0.03629818403982306</v>
+      </c>
+      <c r="H59" t="b">
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>18</v>
+      </c>
+      <c r="J59" t="n">
+        <v>2579778326.92594</v>
       </c>
     </row>
     <row r="60">
@@ -2107,19 +2465,25 @@
         <v>2</v>
       </c>
       <c r="D60" t="n">
-        <v>424</v>
+        <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>4288993731.720654</v>
+        <v>2889042644.620141</v>
       </c>
       <c r="F60" t="n">
-        <v>0.002942262871476173</v>
-      </c>
-      <c r="G60" t="b">
-        <v>0</v>
-      </c>
-      <c r="H60" t="n">
+        <v>0.1415412910317687</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0.02240555257180048</v>
+      </c>
+      <c r="H60" t="b">
         <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>20</v>
+      </c>
+      <c r="J60" t="n">
+        <v>1444521380.913764</v>
       </c>
     </row>
     <row r="61">
@@ -2132,22 +2496,28 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
-        <v>488</v>
+        <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>7166940084.557271</v>
+        <v>3071298381.055529</v>
       </c>
       <c r="F61" t="n">
-        <v>0.004132964077322352</v>
-      </c>
-      <c r="G61" t="b">
+        <v>0.1630117745275547</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0.0301428437011785</v>
+      </c>
+      <c r="H61" t="b">
         <v>1</v>
       </c>
-      <c r="H61" t="n">
-        <v>14</v>
+      <c r="I61" t="n">
+        <v>22</v>
+      </c>
+      <c r="J61" t="n">
+        <v>1535649164.162093</v>
       </c>
     </row>
     <row r="62">
@@ -2160,22 +2530,28 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
-        <v>441</v>
+        <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>5613065852.552058</v>
+        <v>1678405784.274761</v>
       </c>
       <c r="F62" t="n">
-        <v>0.003356442821498268</v>
-      </c>
-      <c r="G62" t="b">
-        <v>0</v>
-      </c>
-      <c r="H62" t="n">
-        <v>11</v>
+        <v>0.1444666656033158</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0.03867428737527546</v>
+      </c>
+      <c r="H62" t="b">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>839202901.877514</v>
       </c>
     </row>
     <row r="63">
@@ -2188,22 +2564,28 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
-        <v>490</v>
+        <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>7261360167.306829</v>
+        <v>4625841031.622424</v>
       </c>
       <c r="F63" t="n">
-        <v>0.00461223401292433</v>
-      </c>
-      <c r="G63" t="b">
-        <v>0</v>
-      </c>
-      <c r="H63" t="n">
-        <v>16</v>
+        <v>0.07207177471693391</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0.04019818067225436</v>
+      </c>
+      <c r="H63" t="b">
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>19</v>
+      </c>
+      <c r="J63" t="n">
+        <v>2312920550.167971</v>
       </c>
     </row>
     <row r="64">
@@ -2219,19 +2601,25 @@
         <v>3</v>
       </c>
       <c r="D64" t="n">
-        <v>545</v>
+        <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3665284376.626983</v>
+        <v>4615150570.625012</v>
       </c>
       <c r="F64" t="n">
-        <v>0.004273493049223256</v>
-      </c>
-      <c r="G64" t="b">
-        <v>0</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
+        <v>0.1337607247781874</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0.03406049196209648</v>
+      </c>
+      <c r="H64" t="b">
+        <v>1</v>
+      </c>
+      <c r="I64" t="n">
+        <v>20</v>
+      </c>
+      <c r="J64" t="n">
+        <v>2307575364.333825</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2632,28 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
-        <v>507</v>
+        <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4796335118.69971</v>
+        <v>5795290647.997235</v>
       </c>
       <c r="F65" t="n">
-        <v>0.005348708430336111</v>
-      </c>
-      <c r="G65" t="b">
-        <v>0</v>
-      </c>
-      <c r="H65" t="n">
-        <v>17</v>
+        <v>0.1526705413026327</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0.01980308469657765</v>
+      </c>
+      <c r="H65" t="b">
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>24</v>
+      </c>
+      <c r="J65" t="n">
+        <v>2897645235.363374</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2666,28 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4218959808.10945</v>
+        <v>3574800981.269339</v>
       </c>
       <c r="F66" t="n">
-        <v>0.003178427354517727</v>
-      </c>
-      <c r="G66" t="b">
-        <v>0</v>
-      </c>
-      <c r="H66" t="n">
-        <v>13</v>
+        <v>0.1119352831180296</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0.0313512373945011</v>
+      </c>
+      <c r="H66" t="b">
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>20</v>
+      </c>
+      <c r="J66" t="n">
+        <v>1787400441.327109</v>
       </c>
     </row>
     <row r="67">
@@ -2300,22 +2700,28 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
-        <v>411</v>
+        <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>5246588294.351128</v>
+        <v>2840648658.073291</v>
       </c>
       <c r="F67" t="n">
-        <v>0.004777347154875352</v>
-      </c>
-      <c r="G67" t="b">
-        <v>0</v>
-      </c>
-      <c r="H67" t="n">
-        <v>11</v>
+        <v>0.06944722270339657</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0.03184305999244769</v>
+      </c>
+      <c r="H67" t="b">
+        <v>0</v>
+      </c>
+      <c r="I67" t="n">
+        <v>22</v>
+      </c>
+      <c r="J67" t="n">
+        <v>1420324360.691131</v>
       </c>
     </row>
     <row r="68">
@@ -2328,22 +2734,28 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
-        <v>462</v>
+        <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>8876307229.877253</v>
+        <v>4971208220.722791</v>
       </c>
       <c r="F68" t="n">
-        <v>0.002300077281962704</v>
-      </c>
-      <c r="G68" t="b">
-        <v>0</v>
-      </c>
-      <c r="H68" t="n">
-        <v>14</v>
+        <v>0.1558888874307389</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0.04092860523054481</v>
+      </c>
+      <c r="H68" t="b">
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>21</v>
+      </c>
+      <c r="J68" t="n">
+        <v>2485604164.895251</v>
       </c>
     </row>
     <row r="69">
@@ -2356,22 +2768,28 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>5603168362.034526</v>
+        <v>1712272335.609348</v>
       </c>
       <c r="F69" t="n">
-        <v>0.0009387401460904796</v>
-      </c>
-      <c r="G69" t="b">
-        <v>0</v>
-      </c>
-      <c r="H69" t="n">
-        <v>15</v>
+        <v>0.1181759225174889</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0.04811960026697317</v>
+      </c>
+      <c r="H69" t="b">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>856136135.4510273</v>
       </c>
     </row>
     <row r="70">
@@ -2384,22 +2802,28 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
-        <v>490</v>
+        <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>6233131135.409759</v>
+        <v>3266325016.944167</v>
       </c>
       <c r="F70" t="n">
-        <v>0.002920111025483316</v>
-      </c>
-      <c r="G70" t="b">
-        <v>0</v>
-      </c>
-      <c r="H70" t="n">
-        <v>17</v>
+        <v>0.08249410742149087</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0.04135055074061939</v>
+      </c>
+      <c r="H70" t="b">
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>18</v>
+      </c>
+      <c r="J70" t="n">
+        <v>1633162502.727901</v>
       </c>
     </row>
     <row r="71">
@@ -2412,22 +2836,28 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
-        <v>474</v>
+        <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4879753428.096587</v>
+        <v>5057881689.16574</v>
       </c>
       <c r="F71" t="n">
-        <v>0.002706633017385645</v>
-      </c>
-      <c r="G71" t="b">
-        <v>0</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
+        <v>0.157618851693338</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0.02887830487293351</v>
+      </c>
+      <c r="H71" t="b">
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>24</v>
+      </c>
+      <c r="J71" t="n">
+        <v>2528940954.476481</v>
       </c>
     </row>
     <row r="72">
@@ -2443,19 +2873,25 @@
         <v>3</v>
       </c>
       <c r="D72" t="n">
-        <v>460</v>
+        <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>5368488597.461104</v>
+        <v>1421497929.882093</v>
       </c>
       <c r="F72" t="n">
-        <v>0.001589177904020709</v>
-      </c>
-      <c r="G72" t="b">
-        <v>0</v>
-      </c>
-      <c r="H72" t="n">
-        <v>14</v>
+        <v>0.06803089040134125</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0.04471464143971089</v>
+      </c>
+      <c r="H72" t="b">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>710749004.4832268</v>
       </c>
     </row>
     <row r="73">
@@ -2468,22 +2904,28 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
-        <v>480</v>
+        <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>5208705321.6623</v>
+        <v>2569182011.706006</v>
       </c>
       <c r="F73" t="n">
-        <v>0.00142573327914158</v>
-      </c>
-      <c r="G73" t="b">
-        <v>0</v>
-      </c>
-      <c r="H73" t="n">
-        <v>15</v>
+        <v>0.09094441152033159</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0.04759801370992974</v>
+      </c>
+      <c r="H73" t="b">
+        <v>0</v>
+      </c>
+      <c r="I73" t="n">
+        <v>25</v>
+      </c>
+      <c r="J73" t="n">
+        <v>1284591041.154047</v>
       </c>
     </row>
     <row r="74">
@@ -2496,22 +2938,28 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>5591551868.636619</v>
+        <v>2835402124.864347</v>
       </c>
       <c r="F74" t="n">
-        <v>0.004623856413899345</v>
-      </c>
-      <c r="G74" t="b">
-        <v>0</v>
-      </c>
-      <c r="H74" t="n">
-        <v>15</v>
+        <v>0.1710444515441631</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0.0330312374558694</v>
+      </c>
+      <c r="H74" t="b">
+        <v>0</v>
+      </c>
+      <c r="I74" t="n">
+        <v>23</v>
+      </c>
+      <c r="J74" t="n">
+        <v>1417701141.965328</v>
       </c>
     </row>
     <row r="75">
@@ -2524,22 +2972,28 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
-        <v>441</v>
+        <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>6812374682.725287</v>
+        <v>1611362157.23611</v>
       </c>
       <c r="F75" t="n">
-        <v>0.003415817054326082</v>
-      </c>
-      <c r="G75" t="b">
-        <v>1</v>
-      </c>
-      <c r="H75" t="n">
-        <v>12</v>
+        <v>0.1448424150872145</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0.03494426064512012</v>
+      </c>
+      <c r="H75" t="b">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>805681079.1789526</v>
       </c>
     </row>
     <row r="76">
@@ -2552,22 +3006,28 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
-        <v>459</v>
+        <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4948262884.276042</v>
+        <v>3889150558.025696</v>
       </c>
       <c r="F76" t="n">
-        <v>0.002495929001125019</v>
-      </c>
-      <c r="G76" t="b">
-        <v>0</v>
-      </c>
-      <c r="H76" t="n">
-        <v>13</v>
+        <v>0.09762784980518185</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0.02074138502147089</v>
+      </c>
+      <c r="H76" t="b">
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>14</v>
+      </c>
+      <c r="J76" t="n">
+        <v>1944575258.982489</v>
       </c>
     </row>
     <row r="77">
@@ -2583,19 +3043,25 @@
         <v>5</v>
       </c>
       <c r="D77" t="n">
-        <v>576</v>
+        <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>5661802473.199352</v>
+        <v>1965366170.800539</v>
       </c>
       <c r="F77" t="n">
-        <v>0.004775718345063132</v>
-      </c>
-      <c r="G77" t="b">
-        <v>0</v>
-      </c>
-      <c r="H77" t="n">
-        <v>21</v>
+        <v>0.1532848026372992</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0.02562753512247736</v>
+      </c>
+      <c r="H77" t="b">
+        <v>0</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>982683141.6798475</v>
       </c>
     </row>
     <row r="78">
@@ -2608,22 +3074,28 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
-        <v>454</v>
+        <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>7828540896.791235</v>
+        <v>4311305490.790908</v>
       </c>
       <c r="F78" t="n">
-        <v>0.00355331307186919</v>
-      </c>
-      <c r="G78" t="b">
-        <v>0</v>
-      </c>
-      <c r="H78" t="n">
-        <v>15</v>
+        <v>0.09982086316032689</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0.05080633038713481</v>
+      </c>
+      <c r="H78" t="b">
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>23</v>
+      </c>
+      <c r="J78" t="n">
+        <v>2155652688.721463</v>
       </c>
     </row>
     <row r="79">
@@ -2636,22 +3108,28 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>8182547956.708337</v>
+        <v>1585171064.1397</v>
       </c>
       <c r="F79" t="n">
-        <v>0.00204322240138936</v>
-      </c>
-      <c r="G79" t="b">
-        <v>1</v>
-      </c>
-      <c r="H79" t="n">
-        <v>13</v>
+        <v>0.1167173797878256</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0.02692908528898705</v>
+      </c>
+      <c r="H79" t="b">
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>792585581.0875497</v>
       </c>
     </row>
     <row r="80">
@@ -2667,19 +3145,25 @@
         <v>3</v>
       </c>
       <c r="D80" t="n">
-        <v>573</v>
+        <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>7747245291.437684</v>
+        <v>4302474240.487767</v>
       </c>
       <c r="F80" t="n">
-        <v>0.003466880978800677</v>
-      </c>
-      <c r="G80" t="b">
-        <v>1</v>
-      </c>
-      <c r="H80" t="n">
-        <v>21</v>
+        <v>0.08170488211597657</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0.03047211763860721</v>
+      </c>
+      <c r="H80" t="b">
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>14</v>
+      </c>
+      <c r="J80" t="n">
+        <v>2151237134.654911</v>
       </c>
     </row>
     <row r="81">
@@ -2692,22 +3176,28 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
-        <v>427</v>
+        <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>7710518533.746884</v>
+        <v>4426959582.952264</v>
       </c>
       <c r="F81" t="n">
-        <v>0.004401234641117704</v>
-      </c>
-      <c r="G81" t="b">
-        <v>0</v>
-      </c>
-      <c r="H81" t="n">
-        <v>13</v>
+        <v>0.1172740132556148</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0.02177244819744921</v>
+      </c>
+      <c r="H81" t="b">
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>14</v>
+      </c>
+      <c r="J81" t="n">
+        <v>2213479770.433471</v>
       </c>
     </row>
     <row r="82">
@@ -2720,22 +3210,28 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
-        <v>423</v>
+        <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>7530924152.614215</v>
+        <v>4732597786.927687</v>
       </c>
       <c r="F82" t="n">
-        <v>0.004623207268561138</v>
-      </c>
-      <c r="G82" t="b">
-        <v>0</v>
-      </c>
-      <c r="H82" t="n">
-        <v>12</v>
+        <v>0.1648924659987249</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0.02762088268070599</v>
+      </c>
+      <c r="H82" t="b">
+        <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>24</v>
+      </c>
+      <c r="J82" t="n">
+        <v>2366298892.255353</v>
       </c>
     </row>
     <row r="83">
@@ -2748,22 +3244,28 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
-        <v>504</v>
+        <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>8682703901.368296</v>
+        <v>1551022833.461859</v>
       </c>
       <c r="F83" t="n">
-        <v>0.00296669151443731</v>
-      </c>
-      <c r="G83" t="b">
-        <v>1</v>
-      </c>
-      <c r="H83" t="n">
-        <v>16</v>
+        <v>0.1424179342698416</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0.03636004680380597</v>
+      </c>
+      <c r="H83" t="b">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>775511346.0917258</v>
       </c>
     </row>
     <row r="84">
@@ -2776,22 +3278,28 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
-        <v>524</v>
+        <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>5692059829.228588</v>
+        <v>2295988668.578724</v>
       </c>
       <c r="F84" t="n">
-        <v>0.005580283101411828</v>
-      </c>
-      <c r="G84" t="b">
-        <v>0</v>
-      </c>
-      <c r="H84" t="n">
-        <v>18</v>
+        <v>0.1071925174787729</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0.03210672560108205</v>
+      </c>
+      <c r="H84" t="b">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>1147994295.846394</v>
       </c>
     </row>
     <row r="85">
@@ -2804,22 +3312,28 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
-        <v>512</v>
+        <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>5532263726.906982</v>
+        <v>2754643354.19336</v>
       </c>
       <c r="F85" t="n">
-        <v>0.003768789920124418</v>
-      </c>
-      <c r="G85" t="b">
-        <v>0</v>
-      </c>
-      <c r="H85" t="n">
+        <v>0.1372518888442248</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0.04052150275766532</v>
+      </c>
+      <c r="H85" t="b">
         <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>24</v>
+      </c>
+      <c r="J85" t="n">
+        <v>1377321710.056199</v>
       </c>
     </row>
     <row r="86">
@@ -2832,22 +3346,28 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
-        <v>517</v>
+        <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>6865371526.203814</v>
+        <v>2473810149.794569</v>
       </c>
       <c r="F86" t="n">
-        <v>0.002503627302557534</v>
-      </c>
-      <c r="G86" t="b">
-        <v>0</v>
-      </c>
-      <c r="H86" t="n">
-        <v>18</v>
+        <v>0.1254346210169664</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0.02678490261439963</v>
+      </c>
+      <c r="H86" t="b">
+        <v>0</v>
+      </c>
+      <c r="I86" t="n">
+        <v>6</v>
+      </c>
+      <c r="J86" t="n">
+        <v>1236905168.324869</v>
       </c>
     </row>
     <row r="87">
@@ -2860,22 +3380,28 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>4565920342.353648</v>
+        <v>1428412763.073233</v>
       </c>
       <c r="F87" t="n">
-        <v>0.001303460269421564</v>
-      </c>
-      <c r="G87" t="b">
-        <v>0</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
+        <v>0.1325609593048958</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0.03025097712312904</v>
+      </c>
+      <c r="H87" t="b">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>714206495.581943</v>
       </c>
     </row>
     <row r="88">
@@ -2891,19 +3417,25 @@
         <v>4</v>
       </c>
       <c r="D88" t="n">
-        <v>477</v>
+        <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>5952549621.752205</v>
+        <v>3174011034.437314</v>
       </c>
       <c r="F88" t="n">
-        <v>0.005646558242883247</v>
-      </c>
-      <c r="G88" t="b">
+        <v>0.130987690425143</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0.0397149190198855</v>
+      </c>
+      <c r="H88" t="b">
         <v>1</v>
       </c>
-      <c r="H88" t="n">
-        <v>15</v>
+      <c r="I88" t="n">
+        <v>26</v>
+      </c>
+      <c r="J88" t="n">
+        <v>1587005564.744511</v>
       </c>
     </row>
     <row r="89">
@@ -2916,22 +3448,28 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
-        <v>473</v>
+        <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>5621837715.010199</v>
+        <v>2677411524.377983</v>
       </c>
       <c r="F89" t="n">
-        <v>0.00502243006350665</v>
-      </c>
-      <c r="G89" t="b">
-        <v>0</v>
-      </c>
-      <c r="H89" t="n">
-        <v>14</v>
+        <v>0.1239250352543162</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0.02854961375803627</v>
+      </c>
+      <c r="H89" t="b">
+        <v>0</v>
+      </c>
+      <c r="I89" t="n">
+        <v>22</v>
+      </c>
+      <c r="J89" t="n">
+        <v>1338705823.840107</v>
       </c>
     </row>
     <row r="90">
@@ -2944,22 +3482,28 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
-        <v>433</v>
+        <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>6658541664.86369</v>
+        <v>1682471276.937132</v>
       </c>
       <c r="F90" t="n">
-        <v>0.003384023178286512</v>
-      </c>
-      <c r="G90" t="b">
-        <v>0</v>
-      </c>
-      <c r="H90" t="n">
-        <v>12</v>
+        <v>0.09709282494506193</v>
+      </c>
+      <c r="G90" t="n">
+        <v>0.03900477698456206</v>
+      </c>
+      <c r="H90" t="b">
+        <v>0</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>841235650.4696566</v>
       </c>
     </row>
     <row r="91">
@@ -2972,22 +3516,28 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
-        <v>556</v>
+        <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>6831358946.045245</v>
+        <v>1875545359.387702</v>
       </c>
       <c r="F91" t="n">
-        <v>0.003334593934023473</v>
-      </c>
-      <c r="G91" t="b">
-        <v>0</v>
-      </c>
-      <c r="H91" t="n">
-        <v>20</v>
+        <v>0.1943612488767002</v>
+      </c>
+      <c r="G91" t="n">
+        <v>0.03891775000797713</v>
+      </c>
+      <c r="H91" t="b">
+        <v>0</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>937772668.4427176</v>
       </c>
     </row>
     <row r="92">
@@ -3000,22 +3550,28 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
-        <v>534</v>
+        <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>4781882404.794358</v>
+        <v>2804713743.88144</v>
       </c>
       <c r="F92" t="n">
-        <v>0.002701681490391756</v>
-      </c>
-      <c r="G92" t="b">
-        <v>0</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
+        <v>0.07137080111922295</v>
+      </c>
+      <c r="G92" t="n">
+        <v>0.0391174335685906</v>
+      </c>
+      <c r="H92" t="b">
+        <v>1</v>
+      </c>
+      <c r="I92" t="n">
+        <v>14</v>
+      </c>
+      <c r="J92" t="n">
+        <v>1402356878.802378</v>
       </c>
     </row>
     <row r="93">
@@ -3028,22 +3584,28 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
-        <v>588</v>
+        <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>6483844291.373075</v>
+        <v>4987912870.559905</v>
       </c>
       <c r="F93" t="n">
-        <v>0.001615292279646364</v>
-      </c>
-      <c r="G93" t="b">
+        <v>0.09144894444965619</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0.03372880935942779</v>
+      </c>
+      <c r="H93" t="b">
         <v>1</v>
       </c>
-      <c r="H93" t="n">
-        <v>23</v>
+      <c r="I93" t="n">
+        <v>19</v>
+      </c>
+      <c r="J93" t="n">
+        <v>2493956371.929774</v>
       </c>
     </row>
     <row r="94">
@@ -3056,22 +3618,28 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
-        <v>588</v>
+        <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>7582434564.87936</v>
+        <v>2228671725.031264</v>
       </c>
       <c r="F94" t="n">
-        <v>0.001275932245039183</v>
-      </c>
-      <c r="G94" t="b">
-        <v>0</v>
-      </c>
-      <c r="H94" t="n">
-        <v>21</v>
+        <v>0.1030812577834462</v>
+      </c>
+      <c r="G94" t="n">
+        <v>0.02705949170193199</v>
+      </c>
+      <c r="H94" t="b">
+        <v>0</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>1114335890.51491</v>
       </c>
     </row>
     <row r="95">
@@ -3087,19 +3655,25 @@
         <v>3</v>
       </c>
       <c r="D95" t="n">
-        <v>511</v>
+        <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>5574194079.742484</v>
+        <v>2514326510.5518</v>
       </c>
       <c r="F95" t="n">
-        <v>0.002610767536231034</v>
-      </c>
-      <c r="G95" t="b">
-        <v>0</v>
-      </c>
-      <c r="H95" t="n">
+        <v>0.09977734559133226</v>
+      </c>
+      <c r="G95" t="n">
+        <v>0.05017001054486211</v>
+      </c>
+      <c r="H95" t="b">
+        <v>0</v>
+      </c>
+      <c r="I95" t="n">
         <v>16</v>
+      </c>
+      <c r="J95" t="n">
+        <v>1257163290.225205</v>
       </c>
     </row>
     <row r="96">
@@ -3112,22 +3686,28 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
-        <v>520</v>
+        <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>9093922246.383091</v>
+        <v>1579291647.45065</v>
       </c>
       <c r="F96" t="n">
-        <v>0.002087015950683592</v>
-      </c>
-      <c r="G96" t="b">
-        <v>0</v>
-      </c>
-      <c r="H96" t="n">
-        <v>18</v>
+        <v>0.1260566481007734</v>
+      </c>
+      <c r="G96" t="n">
+        <v>0.03301515823031977</v>
+      </c>
+      <c r="H96" t="b">
+        <v>0</v>
+      </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>789645855.504938</v>
       </c>
     </row>
     <row r="97">
@@ -3140,22 +3720,28 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
-        <v>514</v>
+        <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>7535930799.863211</v>
+        <v>3286153852.539916</v>
       </c>
       <c r="F97" t="n">
-        <v>0.004112274585487019</v>
-      </c>
-      <c r="G97" t="b">
-        <v>0</v>
-      </c>
-      <c r="H97" t="n">
-        <v>17</v>
+        <v>0.1226298993860078</v>
+      </c>
+      <c r="G97" t="n">
+        <v>0.02152401826143003</v>
+      </c>
+      <c r="H97" t="b">
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>21</v>
+      </c>
+      <c r="J97" t="n">
+        <v>1643076925.149864</v>
       </c>
     </row>
     <row r="98">
@@ -3168,22 +3754,28 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
-        <v>616</v>
+        <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>8957122536.726925</v>
+        <v>2807041827.273378</v>
       </c>
       <c r="F98" t="n">
-        <v>0.003636526128494814</v>
-      </c>
-      <c r="G98" t="b">
-        <v>0</v>
-      </c>
-      <c r="H98" t="n">
-        <v>25</v>
+        <v>0.08584324212705445</v>
+      </c>
+      <c r="G98" t="n">
+        <v>0.02938474588718321</v>
+      </c>
+      <c r="H98" t="b">
+        <v>0</v>
+      </c>
+      <c r="I98" t="n">
+        <v>17</v>
+      </c>
+      <c r="J98" t="n">
+        <v>1403520885.135242</v>
       </c>
     </row>
     <row r="99">
@@ -3196,22 +3788,28 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
-        <v>567</v>
+        <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3144836886.125844</v>
+        <v>3295363308.310753</v>
       </c>
       <c r="F99" t="n">
-        <v>0.005410746539970604</v>
-      </c>
-      <c r="G99" t="b">
-        <v>0</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
+        <v>0.1264553411473495</v>
+      </c>
+      <c r="G99" t="n">
+        <v>0.03178950239081436</v>
+      </c>
+      <c r="H99" t="b">
+        <v>0</v>
+      </c>
+      <c r="I99" t="n">
+        <v>21</v>
+      </c>
+      <c r="J99" t="n">
+        <v>1647681661.422979</v>
       </c>
     </row>
     <row r="100">
@@ -3224,22 +3822,28 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
-        <v>422</v>
+        <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>6160939408.510081</v>
+        <v>4764942952.023307</v>
       </c>
       <c r="F100" t="n">
-        <v>0.00366614932623279</v>
-      </c>
-      <c r="G100" t="b">
-        <v>1</v>
-      </c>
-      <c r="H100" t="n">
-        <v>6</v>
+        <v>0.1723636477385561</v>
+      </c>
+      <c r="G100" t="n">
+        <v>0.01996833876136523</v>
+      </c>
+      <c r="H100" t="b">
+        <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>20</v>
+      </c>
+      <c r="J100" t="n">
+        <v>2382471607.596555</v>
       </c>
     </row>
     <row r="101">
@@ -3252,22 +3856,28 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
-        <v>573</v>
+        <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>7827528169.967456</v>
+        <v>2318880887.82466</v>
       </c>
       <c r="F101" t="n">
-        <v>0.001124315286276295</v>
-      </c>
-      <c r="G101" t="b">
-        <v>1</v>
-      </c>
-      <c r="H101" t="n">
-        <v>21</v>
+        <v>0.2063247511679731</v>
+      </c>
+      <c r="G101" t="n">
+        <v>0.03600306957548329</v>
+      </c>
+      <c r="H101" t="b">
+        <v>0</v>
+      </c>
+      <c r="I101" t="n">
+        <v>28</v>
+      </c>
+      <c r="J101" t="n">
+        <v>1159440442.837547</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_66.xlsx
+++ b/output/fit_clients/fit_round_66.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2267637623.743408</v>
+        <v>1586065770.327864</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07561899415924925</v>
+        <v>0.09445449604174359</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04341891474880821</v>
+        <v>0.03636687518555721</v>
       </c>
       <c r="H2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1133818843.376966</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1775640898.927438</v>
+        <v>1638944466.785606</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1488960847349475</v>
+        <v>0.1414039252015241</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03102420585106627</v>
+        <v>0.03722900603684604</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" t="n">
-        <v>887820454.66857</v>
       </c>
     </row>
     <row r="4">
@@ -564,22 +542,16 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3229983665.938</v>
+        <v>5115781169.27325</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1468729730557511</v>
+        <v>0.1211407620315088</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0376848681825613</v>
+        <v>0.03566858971675469</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>24</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1614991792.495519</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2714717849.643024</v>
+        <v>3932097980.764271</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1076575613539933</v>
+        <v>0.09166088836529533</v>
       </c>
       <c r="G5" t="n">
-        <v>0.05056575704102163</v>
+        <v>0.04368126440557542</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>26</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1357359013.389379</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2614657940.022328</v>
+        <v>2545149315.499763</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1369977756955923</v>
+        <v>0.1027729820133758</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04043131242722366</v>
+        <v>0.05236990146446801</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>11</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1307328932.990415</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2211546081.154843</v>
+        <v>2320648561.860461</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08330770200785814</v>
+        <v>0.09871323053785722</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03810646169910736</v>
+        <v>0.03806622538624418</v>
       </c>
       <c r="H7" t="b">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>21</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1105773081.269036</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2868265636.431949</v>
+        <v>3573840283.355461</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1843126476775772</v>
+        <v>0.1362883787794226</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02121832546577029</v>
+        <v>0.03243502443070759</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>21</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1434132862.142056</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1622862911.638913</v>
+        <v>1406124215.309963</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1239484751399644</v>
+        <v>0.1563922733006544</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02341418169951943</v>
+        <v>0.02885904453309681</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>811431534.6707242</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4058719609.613223</v>
+        <v>4335090145.325541</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1312169187153119</v>
+        <v>0.1346163605788653</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05465138465695794</v>
+        <v>0.035454421007668</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>28</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2029359831.136853</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2730565607.840407</v>
+        <v>3564800876.615198</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1382222405504612</v>
+        <v>0.1478265430197902</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03941152232943412</v>
+        <v>0.03901748002354791</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>28</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1365282727.914303</v>
       </c>
     </row>
     <row r="12">
@@ -836,22 +766,16 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3131056176.61052</v>
+        <v>2586591539.308684</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1710783326472677</v>
+        <v>0.1794682474811733</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03663631179115985</v>
+        <v>0.03263686614220149</v>
       </c>
       <c r="H12" t="b">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>22</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1565528118.206916</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4327877193.324251</v>
+        <v>3332585653.069872</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09625953372340854</v>
+        <v>0.09597049661403299</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0291962554908047</v>
+        <v>0.03038714441477021</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>22</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2163938634.838214</v>
       </c>
     </row>
     <row r="14">
@@ -904,22 +822,16 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3333327286.546056</v>
+        <v>3144143400.318554</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1689015239476866</v>
+        <v>0.1256006998386111</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03975760050238919</v>
+        <v>0.03762672135392586</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>21</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1666663653.470114</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1628069561.472075</v>
+        <v>1109899100.941731</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1015368434021558</v>
+        <v>0.10051096555291</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04317023472385107</v>
+        <v>0.04384471505572151</v>
       </c>
       <c r="H15" t="b">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>814034895.1575601</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2042860748.361217</v>
+        <v>1869361370.756917</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1147823334629388</v>
+        <v>0.09962157100090015</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03842097163132881</v>
+        <v>0.04631464989654428</v>
       </c>
       <c r="H16" t="b">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>11</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1021430445.739074</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3515739210.567111</v>
+        <v>5117904194.008196</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1548742155705109</v>
+        <v>0.1085368714946621</v>
       </c>
       <c r="G17" t="n">
-        <v>0.05245727557722067</v>
+        <v>0.03533674835185424</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>19</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1757869663.697089</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3325748755.540063</v>
+        <v>3457234796.217441</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1624128191768633</v>
+        <v>0.1286946391910102</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02912350572630205</v>
+        <v>0.02934548284130462</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>22</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1662874384.383103</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>960467195.48277</v>
+        <v>1353161697.279701</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1695002595416847</v>
+        <v>0.1492938720807395</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02603399225419432</v>
+        <v>0.02665943858723568</v>
       </c>
       <c r="H19" t="b">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>480233617.251842</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2689313354.130387</v>
+        <v>1887587530.988046</v>
       </c>
       <c r="F20" t="n">
-        <v>0.13058794901802</v>
+        <v>0.0981056353629462</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02501846723759898</v>
+        <v>0.02179474650168555</v>
       </c>
       <c r="H20" t="b">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>8</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1344656629.882911</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2434900635.8982</v>
+        <v>2650353835.902519</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08554859209450758</v>
+        <v>0.06726340263821659</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03115988447081646</v>
+        <v>0.03781987154923656</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>7</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1217450312.174312</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2451507625.778275</v>
+        <v>3196244025.645717</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1401392590905178</v>
+        <v>0.09719649459002293</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03541571490049995</v>
+        <v>0.04948765398376967</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>18</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1225753907.173295</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1465873764.048683</v>
+        <v>1443506799.180752</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1275377926569863</v>
+        <v>0.1449153471353378</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05360127829920259</v>
+        <v>0.05405346162118729</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>732936873.6073494</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3992189025.451701</v>
+        <v>4040929754.318365</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1488761590140224</v>
+        <v>0.1030364760967145</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03600958378944259</v>
+        <v>0.03370687333047668</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>20</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1996094481.117697</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1079141537.769896</v>
+        <v>1194095906.128473</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1117428374819792</v>
+        <v>0.09801920935270254</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02517851104068611</v>
+        <v>0.02862023229094047</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>539570814.550621</v>
       </c>
     </row>
     <row r="26">
@@ -1312,22 +1158,16 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1062459721.168549</v>
+        <v>953420828.5249611</v>
       </c>
       <c r="F26" t="n">
-        <v>0.07913746545640304</v>
+        <v>0.08353951426367599</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0313041953122104</v>
+        <v>0.02860124774252782</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>531229847.828204</v>
       </c>
     </row>
     <row r="27">
@@ -1346,22 +1186,16 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4584369088.822775</v>
+        <v>3766370655.523032</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1010165847784724</v>
+        <v>0.1398543496210847</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01936595767717141</v>
+        <v>0.0248904823142679</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>15</v>
-      </c>
-      <c r="J27" t="n">
-        <v>2292184525.425636</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3286874955.223872</v>
+        <v>3718222341.828238</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1329507843284689</v>
+        <v>0.09205108749444699</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04429044837843739</v>
+        <v>0.04401353629488434</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>21</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1643437513.627177</v>
       </c>
     </row>
     <row r="29">
@@ -1414,22 +1242,16 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5186325620.464236</v>
+        <v>5250339486.290588</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1493447165261917</v>
+        <v>0.1114391081537641</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04045807938642403</v>
+        <v>0.03265739923757958</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>30</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2593162744.734185</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1892714444.563984</v>
+        <v>1879994131.620772</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1025861664899295</v>
+        <v>0.09733777783735102</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03832115576103462</v>
+        <v>0.03825850379413222</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>946357247.4220368</v>
       </c>
     </row>
     <row r="31">
@@ -1482,22 +1298,16 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1230121145.24992</v>
+        <v>1118553638.434616</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08156333921777928</v>
+        <v>0.07821731137419943</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03321210898236451</v>
+        <v>0.05023523776169753</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>615060516.8966901</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1463480133.901769</v>
+        <v>1837621852.550112</v>
       </c>
       <c r="F32" t="n">
-        <v>0.07378396733156506</v>
+        <v>0.08829351443017736</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03742313953061291</v>
+        <v>0.03003326550927552</v>
       </c>
       <c r="H32" t="b">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>731740127.6308223</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>3029074929.83757</v>
+        <v>2433184996.307105</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2076369994864295</v>
+        <v>0.1751893112871556</v>
       </c>
       <c r="G33" t="n">
-        <v>0.03886394723153658</v>
+        <v>0.05438765142202129</v>
       </c>
       <c r="H33" t="b">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>19</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1514537457.960799</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>958451842.5543571</v>
+        <v>1010402098.218537</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1156852291283838</v>
+        <v>0.1203996770624669</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01762782786712136</v>
+        <v>0.02253157496556777</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>479225965.8685512</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1317643049.337769</v>
+        <v>845424782.885385</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09311342297767163</v>
+        <v>0.09035391288242633</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04350444710329038</v>
+        <v>0.03706755111749004</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>658821473.4642464</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3236508246.342502</v>
+        <v>2553573994.194613</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1146082932599154</v>
+        <v>0.1129649656289927</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01782345418537227</v>
+        <v>0.02524605463990931</v>
       </c>
       <c r="H36" t="b">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>16</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1618254086.015097</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1686,22 +1466,16 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2783960747.350442</v>
+        <v>1968308887.044273</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1074631940984047</v>
+        <v>0.09663778726290234</v>
       </c>
       <c r="G37" t="n">
-        <v>0.0401886869353409</v>
+        <v>0.03717886451616043</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>19</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1391980508.698269</v>
       </c>
     </row>
     <row r="38">
@@ -1720,22 +1494,16 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1619857825.743921</v>
+        <v>1323552595.291038</v>
       </c>
       <c r="F38" t="n">
-        <v>0.0931381299378421</v>
+        <v>0.1057561803813039</v>
       </c>
       <c r="G38" t="n">
-        <v>0.0350497881310174</v>
+        <v>0.02519978503786412</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>809928945.0913466</v>
       </c>
     </row>
     <row r="39">
@@ -1754,22 +1522,16 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1505683728.933648</v>
+        <v>1611481312.532221</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1183964976054015</v>
+        <v>0.1593550377049867</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02428935767590712</v>
+        <v>0.02150346988795146</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>752841933.9582615</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1503299519.61982</v>
+        <v>1747153217.39443</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1292389389920848</v>
+        <v>0.1339162127444319</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05148121790710526</v>
+        <v>0.05592038838278398</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>751649725.0884404</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1965009184.686182</v>
+        <v>2641855466.814846</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1392616225728052</v>
+        <v>0.1075106385397407</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03012320664207997</v>
+        <v>0.02914260809737795</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>16</v>
-      </c>
-      <c r="J41" t="n">
-        <v>982504669.8655874</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3362888966.156544</v>
+        <v>3699609706.984411</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1109131438623051</v>
+        <v>0.08597149736864401</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03671814985351037</v>
+        <v>0.03717886449309024</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>23</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1681444468.384382</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2107934392.706557</v>
+        <v>2387740798.207931</v>
       </c>
       <c r="F43" t="n">
-        <v>0.2004909963885164</v>
+        <v>0.1881007864908176</v>
       </c>
       <c r="G43" t="n">
-        <v>0.0162848398204957</v>
+        <v>0.02119688823441075</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>22</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1053967284.3295</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1531235012.996338</v>
+        <v>1686791015.244591</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0752651904664224</v>
+        <v>0.07846512553631123</v>
       </c>
       <c r="G44" t="n">
-        <v>0.0237637738278125</v>
+        <v>0.03075102131024123</v>
       </c>
       <c r="H44" t="b">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>765617519.2120178</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2237806289.10576</v>
+        <v>2272285985.507666</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1177177378655218</v>
+        <v>0.1850442736154141</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03596137843268239</v>
+        <v>0.0520555611464668</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1118903159.297416</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5398216898.948011</v>
+        <v>4691776375.823185</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1224530888380317</v>
+        <v>0.1322223591028638</v>
       </c>
       <c r="G46" t="n">
-        <v>0.03796009429571369</v>
+        <v>0.05121026127983253</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>23</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2699108498.957759</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4875123858.367302</v>
+        <v>4306777508.428876</v>
       </c>
       <c r="F47" t="n">
-        <v>0.188308630814126</v>
+        <v>0.1973615219775053</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04167998416717539</v>
+        <v>0.05627753626792731</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>18</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2437561977.810995</v>
       </c>
     </row>
     <row r="48">
@@ -2060,22 +1774,16 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4449357604.318696</v>
+        <v>4601235999.326102</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1102464434892932</v>
+        <v>0.06735186212089016</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02697347270953654</v>
+        <v>0.03028499968868862</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>22</v>
-      </c>
-      <c r="J48" t="n">
-        <v>2224678810.334381</v>
       </c>
     </row>
     <row r="49">
@@ -2094,22 +1802,16 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1801124948.68822</v>
+        <v>1919777545.153234</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1858980209442253</v>
+        <v>0.144370836610624</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03833602771570517</v>
+        <v>0.03650424221809798</v>
       </c>
       <c r="H49" t="b">
-        <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>900562459.4261543</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3523478680.59934</v>
+        <v>3853875474.470385</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1533419201446095</v>
+        <v>0.1347134733634203</v>
       </c>
       <c r="G50" t="n">
-        <v>0.0411403180048058</v>
+        <v>0.03315807055131214</v>
       </c>
       <c r="H50" t="b">
         <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>22</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1761739362.774768</v>
       </c>
     </row>
     <row r="51">
@@ -2162,22 +1858,16 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1393980629.207654</v>
+        <v>1299497593.551859</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1817123902331159</v>
+        <v>0.1269089058929154</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05329491883616093</v>
+        <v>0.04075262421607601</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>696990334.6131434</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3967954555.238505</v>
+        <v>3835428573.960617</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1179917917188327</v>
+        <v>0.1277962226048412</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05443467596712566</v>
+        <v>0.05152307598283327</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>27</v>
-      </c>
-      <c r="J52" t="n">
-        <v>1983977335.884417</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3481991765.95384</v>
+        <v>2562076306.593425</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1452830018601411</v>
+        <v>0.201513721030081</v>
       </c>
       <c r="G53" t="n">
-        <v>0.0323077517210005</v>
+        <v>0.03307958593712935</v>
       </c>
       <c r="H53" t="b">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>18</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1740995881.99179</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3741887024.597874</v>
+        <v>4367751602.948111</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1206741184084537</v>
+        <v>0.1674260691188898</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03251404284658954</v>
+        <v>0.04628263395902751</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>22</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1870943556.01239</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4191804709.920673</v>
+        <v>4891036757.548161</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1456218886346178</v>
+        <v>0.1517841570211649</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02806380079003797</v>
+        <v>0.03002910385756991</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>17</v>
-      </c>
-      <c r="J55" t="n">
-        <v>2095902338.257183</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -2332,22 +1998,16 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1854714026.616966</v>
+        <v>1739783524.032354</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1254321870944093</v>
+        <v>0.09997872480047973</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04821267395448479</v>
+        <v>0.04610971470972906</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>927357002.9451022</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3048118807.697771</v>
+        <v>3626591258.043137</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1287898276089775</v>
+        <v>0.168631469669581</v>
       </c>
       <c r="G57" t="n">
-        <v>0.0271210494548206</v>
+        <v>0.0173931081366643</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>21</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1524059412.20586</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1540713874.938397</v>
+        <v>1848679427.106319</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1295588466553584</v>
+        <v>0.1535256364211064</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03590796249470126</v>
+        <v>0.03584845117924017</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>770356964.7967544</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5159556814.005631</v>
+        <v>4838780263.158835</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1074672233267409</v>
+        <v>0.09416114717259048</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03629818403982306</v>
+        <v>0.03342613652211934</v>
       </c>
       <c r="H59" t="b">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>18</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2579778326.92594</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2889042644.620141</v>
+        <v>3155410669.244261</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1415412910317687</v>
+        <v>0.1580052971469008</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02240555257180048</v>
+        <v>0.03119535489465683</v>
       </c>
       <c r="H60" t="b">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>20</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1444521380.913764</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -2502,22 +2138,16 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3071298381.055529</v>
+        <v>3204174315.90201</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1630117745275547</v>
+        <v>0.1559856250472095</v>
       </c>
       <c r="G61" t="n">
-        <v>0.0301428437011785</v>
+        <v>0.02831972337426362</v>
       </c>
       <c r="H61" t="b">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>22</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1535649164.162093</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1678405784.274761</v>
+        <v>1911188357.202121</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1444666656033158</v>
+        <v>0.1286446979779764</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03867428737527546</v>
+        <v>0.03128896506941315</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>839202901.877514</v>
       </c>
     </row>
     <row r="63">
@@ -2570,22 +2194,16 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4625841031.622424</v>
+        <v>5354217413.217048</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07207177471693391</v>
+        <v>0.08846699971260655</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04019818067225436</v>
+        <v>0.04343240080622756</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>19</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2312920550.167971</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4615150570.625012</v>
+        <v>3982443114.48086</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1337607247781874</v>
+        <v>0.1349867009514355</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03406049196209648</v>
+        <v>0.02316311520857435</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>20</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2307575364.333825</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5795290647.997235</v>
+        <v>5799288486.735538</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1526705413026327</v>
+        <v>0.170752601255846</v>
       </c>
       <c r="G65" t="n">
-        <v>0.01980308469657765</v>
+        <v>0.02804831877883744</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>24</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2897645235.363374</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3574800981.269339</v>
+        <v>4183382714.297672</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1119352831180296</v>
+        <v>0.1435768722182811</v>
       </c>
       <c r="G66" t="n">
-        <v>0.0313512373945011</v>
+        <v>0.03336940695381665</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>20</v>
-      </c>
-      <c r="J66" t="n">
-        <v>1787400441.327109</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2840648658.073291</v>
+        <v>2204744898.396942</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06944722270339657</v>
+        <v>0.08815084485619379</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03184305999244769</v>
+        <v>0.04275960968015581</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>22</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1420324360.691131</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4971208220.722791</v>
+        <v>5275376398.876063</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1558888874307389</v>
+        <v>0.1539594955331148</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04092860523054481</v>
+        <v>0.04250223883909473</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>21</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2485604164.895251</v>
       </c>
     </row>
     <row r="69">
@@ -2774,22 +2362,16 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1712272335.609348</v>
+        <v>1724134397.078257</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1181759225174889</v>
+        <v>0.155361230873659</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04811960026697317</v>
+        <v>0.05352998014455926</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>856136135.4510273</v>
       </c>
     </row>
     <row r="70">
@@ -2808,22 +2390,16 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3266325016.944167</v>
+        <v>2351117483.170928</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08249410742149087</v>
+        <v>0.09399872974150013</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04135055074061939</v>
+        <v>0.03930846003611172</v>
       </c>
       <c r="H70" t="b">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>18</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1633162502.727901</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5057881689.16574</v>
+        <v>4073826198.10919</v>
       </c>
       <c r="F71" t="n">
-        <v>0.157618851693338</v>
+        <v>0.1449695019715991</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02887830487293351</v>
+        <v>0.02068460856708864</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>24</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2528940954.476481</v>
       </c>
     </row>
     <row r="72">
@@ -2876,22 +2446,16 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1421497929.882093</v>
+        <v>1911935848.5412</v>
       </c>
       <c r="F72" t="n">
-        <v>0.06803089040134125</v>
+        <v>0.09236742415744148</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04471464143971089</v>
+        <v>0.05165215131678119</v>
       </c>
       <c r="H72" t="b">
-        <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>710749004.4832268</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2569182011.706006</v>
+        <v>2251595309.721478</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09094441152033159</v>
+        <v>0.09860100144177864</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04759801370992974</v>
+        <v>0.04515530488427346</v>
       </c>
       <c r="H73" t="b">
-        <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>25</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1284591041.154047</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2835402124.864347</v>
+        <v>3952234186.203928</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1710444515441631</v>
+        <v>0.1762689687821399</v>
       </c>
       <c r="G74" t="n">
-        <v>0.0330312374558694</v>
+        <v>0.03151529019268179</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>23</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1417701141.965328</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1611362157.23611</v>
+        <v>2244345870.124096</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1448424150872145</v>
+        <v>0.1129907011625145</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03494426064512012</v>
+        <v>0.02757366890639676</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>805681079.1789526</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3889150558.025696</v>
+        <v>3544525186.761992</v>
       </c>
       <c r="F76" t="n">
-        <v>0.09762784980518185</v>
+        <v>0.0862298508294993</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02074138502147089</v>
+        <v>0.02461531071839022</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>14</v>
-      </c>
-      <c r="J76" t="n">
-        <v>1944575258.982489</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1965366170.800539</v>
+        <v>1566256839.830001</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1532848026372992</v>
+        <v>0.1191090258136022</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02562753512247736</v>
+        <v>0.02610706649999325</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>982683141.6798475</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4311305490.790908</v>
+        <v>3330300968.958605</v>
       </c>
       <c r="F78" t="n">
-        <v>0.09982086316032689</v>
+        <v>0.1278330967778679</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05080633038713481</v>
+        <v>0.05448539739439578</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>23</v>
-      </c>
-      <c r="J78" t="n">
-        <v>2155652688.721463</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1585171064.1397</v>
+        <v>1404068602.42404</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1167173797878256</v>
+        <v>0.1774223952243513</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02692908528898705</v>
+        <v>0.02822402806773538</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>792585581.0875497</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4302474240.487767</v>
+        <v>4839195430.667015</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08170488211597657</v>
+        <v>0.09583314839772374</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03047211763860721</v>
+        <v>0.02690184291561259</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>14</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2151237134.654911</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4426959582.952264</v>
+        <v>3767965541.20588</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1172740132556148</v>
+        <v>0.1017071863682178</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02177244819744921</v>
+        <v>0.03213201623035698</v>
       </c>
       <c r="H81" t="b">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>14</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2213479770.433471</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4732597786.927687</v>
+        <v>4075588951.786217</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1648924659987249</v>
+        <v>0.2088170644188736</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02762088268070599</v>
+        <v>0.02472834962195097</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>24</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2366298892.255353</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1551022833.461859</v>
+        <v>1596209996.576692</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1424179342698416</v>
+        <v>0.1368045698390048</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03636004680380597</v>
+        <v>0.03624653403365394</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="n">
-        <v>775511346.0917258</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2295988668.578724</v>
+        <v>1801958580.730017</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1071925174787729</v>
+        <v>0.08243861955663383</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03210672560108205</v>
+        <v>0.0491656927134607</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1147994295.846394</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2754643354.19336</v>
+        <v>3131419441.299994</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1372518888442248</v>
+        <v>0.1357868801338929</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04052150275766532</v>
+        <v>0.03817064866264269</v>
       </c>
       <c r="H85" t="b">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>24</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1377321710.056199</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2473810149.794569</v>
+        <v>2480001857.760307</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1254346210169664</v>
+        <v>0.1509026866445077</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02678490261439963</v>
+        <v>0.02145359461014944</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>6</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1236905168.324869</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1428412763.073233</v>
+        <v>1407448448.164016</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1325609593048958</v>
+        <v>0.1670502453368997</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03025097712312904</v>
+        <v>0.03193889613556691</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>714206495.581943</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3174011034.437314</v>
+        <v>3572930090.996807</v>
       </c>
       <c r="F88" t="n">
-        <v>0.130987690425143</v>
+        <v>0.1292584985060354</v>
       </c>
       <c r="G88" t="n">
-        <v>0.0397149190198855</v>
+        <v>0.02719649694341631</v>
       </c>
       <c r="H88" t="b">
         <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>26</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1587005564.744511</v>
       </c>
     </row>
     <row r="89">
@@ -3454,22 +2922,16 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2677411524.377983</v>
+        <v>2861110600.549868</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1239250352543162</v>
+        <v>0.1236522184307929</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02854961375803627</v>
+        <v>0.02644172036050061</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>22</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1338705823.840107</v>
       </c>
     </row>
     <row r="90">
@@ -3488,22 +2950,16 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1682471276.937132</v>
+        <v>1554698992.343106</v>
       </c>
       <c r="F90" t="n">
-        <v>0.09709282494506193</v>
+        <v>0.1117099461834095</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03900477698456206</v>
+        <v>0.04169206108070081</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>841235650.4696566</v>
       </c>
     </row>
     <row r="91">
@@ -3522,22 +2978,16 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1875545359.387702</v>
+        <v>1343445183.897571</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1943612488767002</v>
+        <v>0.1265016898508256</v>
       </c>
       <c r="G91" t="n">
-        <v>0.03891775000797713</v>
+        <v>0.05129002887448683</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>937772668.4427176</v>
       </c>
     </row>
     <row r="92">
@@ -3556,22 +3006,16 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2804713743.88144</v>
+        <v>2693631570.644404</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07137080111922295</v>
+        <v>0.08336282274237856</v>
       </c>
       <c r="G92" t="n">
-        <v>0.0391174335685906</v>
+        <v>0.04572065950217195</v>
       </c>
       <c r="H92" t="b">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>14</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1402356878.802378</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -3590,22 +3034,16 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4987912870.559905</v>
+        <v>4198483218.701646</v>
       </c>
       <c r="F93" t="n">
-        <v>0.09144894444965619</v>
+        <v>0.1301598133767209</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03372880935942779</v>
+        <v>0.04048701210062305</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>19</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2493956371.929774</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -3624,22 +3062,16 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2228671725.031264</v>
+        <v>2164093585.486526</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1030812577834462</v>
+        <v>0.1219527293558273</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02705949170193199</v>
+        <v>0.03263360388201376</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1114335890.51491</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2514326510.5518</v>
+        <v>2535533006.279563</v>
       </c>
       <c r="F95" t="n">
-        <v>0.09977734559133226</v>
+        <v>0.118835968147532</v>
       </c>
       <c r="G95" t="n">
-        <v>0.05017001054486211</v>
+        <v>0.03824829357700504</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>16</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1257163290.225205</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1579291647.45065</v>
+        <v>1719355886.071941</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1260566481007734</v>
+        <v>0.1196371369356705</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03301515823031977</v>
+        <v>0.03963176714127929</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>789645855.504938</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3286153852.539916</v>
+        <v>5353615633.603376</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1226298993860078</v>
+        <v>0.1268714664125869</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02152401826143003</v>
+        <v>0.02514789091807984</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>21</v>
-      </c>
-      <c r="J97" t="n">
-        <v>1643076925.149864</v>
       </c>
     </row>
     <row r="98">
@@ -3760,22 +3174,16 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2807041827.273378</v>
+        <v>3024197737.882539</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08584324212705445</v>
+        <v>0.1085229383992524</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02938474588718321</v>
+        <v>0.02269150281806351</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>17</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1403520885.135242</v>
       </c>
     </row>
     <row r="99">
@@ -3794,22 +3202,16 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3295363308.310753</v>
+        <v>2955007721.326706</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1264553411473495</v>
+        <v>0.09068378240299615</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03178950239081436</v>
+        <v>0.03423225087808152</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>21</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1647681661.422979</v>
       </c>
     </row>
     <row r="100">
@@ -3828,22 +3230,16 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4764942952.023307</v>
+        <v>3530862657.456285</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1723636477385561</v>
+        <v>0.1481961855183878</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01996833876136523</v>
+        <v>0.01903445496271107</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>20</v>
-      </c>
-      <c r="J100" t="n">
-        <v>2382471607.596555</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2318880887.82466</v>
+        <v>2940660035.570021</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2063247511679731</v>
+        <v>0.2007061735570644</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03600306957548329</v>
+        <v>0.04729316695845732</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>28</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1159440442.837547</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_66.xlsx
+++ b/output/fit_clients/fit_round_66.xlsx
@@ -480,22 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1586065770.327864</v>
+        <v>1622438374.744815</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09445449604174359</v>
+        <v>0.08434151907280622</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03636687518555721</v>
+        <v>0.03561706454063136</v>
       </c>
       <c r="H2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1638944466.785606</v>
+        <v>2196603756.652846</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1414039252015241</v>
+        <v>0.1128636085570445</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03722900603684604</v>
+        <v>0.04964008959577795</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>5115781169.27325</v>
+        <v>3353095144.578458</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1211407620315088</v>
+        <v>0.1577479025426387</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03566858971675469</v>
+        <v>0.02514207139887801</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3932097980.764271</v>
+        <v>3644499676.158392</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09166088836529533</v>
+        <v>0.07689829518563024</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04368126440557542</v>
+        <v>0.03651040172409529</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2545149315.499763</v>
+        <v>2741561568.163374</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1027729820133758</v>
+        <v>0.1198224344434386</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05236990146446801</v>
+        <v>0.04341016930641909</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -626,16 +626,16 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2320648561.860461</v>
+        <v>2741926197.207598</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09871323053785722</v>
+        <v>0.08973606129754073</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03806622538624418</v>
+        <v>0.03652613759805882</v>
       </c>
       <c r="H7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3573840283.355461</v>
+        <v>3074950841.473706</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1362883787794226</v>
+        <v>0.1807736378071325</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03243502443070759</v>
+        <v>0.02624407842703784</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -682,13 +682,13 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1406124215.309963</v>
+        <v>2062550091.614933</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1563922733006544</v>
+        <v>0.1371191499660205</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02885904453309681</v>
+        <v>0.0317689948942905</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4335090145.325541</v>
+        <v>5015184158.080166</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1346163605788653</v>
+        <v>0.1504910213261332</v>
       </c>
       <c r="G10" t="n">
-        <v>0.035454421007668</v>
+        <v>0.03655359141331348</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3564800876.615198</v>
+        <v>3080619306.081639</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1478265430197902</v>
+        <v>0.1171162320463512</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03901748002354791</v>
+        <v>0.03477210924886084</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2586591539.308684</v>
+        <v>3134409822.48005</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1794682474811733</v>
+        <v>0.1709544769505937</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03263686614220149</v>
+        <v>0.05085645614866505</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -794,16 +794,16 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3332585653.069872</v>
+        <v>5019653428.972469</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09597049661403299</v>
+        <v>0.07038895639839128</v>
       </c>
       <c r="G13" t="n">
-        <v>0.03038714441477021</v>
+        <v>0.02841325115469899</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3144143400.318554</v>
+        <v>3788715628.215112</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1256006998386111</v>
+        <v>0.1669466314256509</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03762672135392586</v>
+        <v>0.03203354477271298</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -850,16 +850,16 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1109899100.941731</v>
+        <v>1488727429.287491</v>
       </c>
       <c r="F15" t="n">
-        <v>0.10051096555291</v>
+        <v>0.09133640041138626</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04384471505572151</v>
+        <v>0.04246998072682845</v>
       </c>
       <c r="H15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -872,22 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1869361370.756917</v>
+        <v>2838724885.332993</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09962157100090015</v>
+        <v>0.08701739427591842</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04631464989654428</v>
+        <v>0.04400971050447302</v>
       </c>
       <c r="H16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>5117904194.008196</v>
+        <v>3493625822.224594</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1085368714946621</v>
+        <v>0.1336688609032512</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03533674835185424</v>
+        <v>0.03516040602003181</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3457234796.217441</v>
+        <v>3329623068.438981</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1286946391910102</v>
+        <v>0.1305999069271901</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02934548284130462</v>
+        <v>0.02862115833071722</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,22 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1353161697.279701</v>
+        <v>1178579002.76054</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1492938720807395</v>
+        <v>0.1483449227812555</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02665943858723568</v>
+        <v>0.02147620824618844</v>
       </c>
       <c r="H19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -990,16 +990,16 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1887587530.988046</v>
+        <v>1858893650.833196</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0981056353629462</v>
+        <v>0.1207160626157927</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02179474650168555</v>
+        <v>0.03035763611131666</v>
       </c>
       <c r="H20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1018,13 +1018,13 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2650353835.902519</v>
+        <v>1839287212.123311</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06726340263821659</v>
+        <v>0.09628172579996999</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03781987154923656</v>
+        <v>0.03173345342307467</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3196244025.645717</v>
+        <v>2515701404.820271</v>
       </c>
       <c r="F22" t="n">
-        <v>0.09719649459002293</v>
+        <v>0.1402709376448367</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04948765398376967</v>
+        <v>0.04661717473674211</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1074,13 +1074,13 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1443506799.180752</v>
+        <v>1433973315.237077</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1449153471353378</v>
+        <v>0.1540735144408833</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05405346162118729</v>
+        <v>0.04188698289775088</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,19 +1096,19 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>4040929754.318365</v>
+        <v>2814398182.596169</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1030364760967145</v>
+        <v>0.1209979050262336</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03370687333047668</v>
+        <v>0.03576881265339148</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
@@ -1130,13 +1130,13 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1194095906.128473</v>
+        <v>1141666107.383928</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09801920935270254</v>
+        <v>0.1083472816281458</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02862023229094047</v>
+        <v>0.02878771328915529</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1158,13 +1158,13 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>953420828.5249611</v>
+        <v>1195351023.530471</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08353951426367599</v>
+        <v>0.102116721237064</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02860124774252782</v>
+        <v>0.02938912517258373</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1186,16 +1186,16 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3766370655.523032</v>
+        <v>4183967970.557117</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1398543496210847</v>
+        <v>0.09611807394036168</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0248904823142679</v>
+        <v>0.02305155818561749</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3718222341.828238</v>
+        <v>3248755115.903946</v>
       </c>
       <c r="F28" t="n">
-        <v>0.09205108749444699</v>
+        <v>0.1001075748821212</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04401353629488434</v>
+        <v>0.04971734457454487</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,19 +1236,19 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5250339486.290588</v>
+        <v>5208517142.823761</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1114391081537641</v>
+        <v>0.1011719772852535</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03265739923757958</v>
+        <v>0.03983195288746415</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1879994131.620772</v>
+        <v>2286432712.015754</v>
       </c>
       <c r="F30" t="n">
-        <v>0.09733777783735102</v>
+        <v>0.08660808785977632</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03825850379413222</v>
+        <v>0.02782594719263532</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1298,13 +1298,13 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1118553638.434616</v>
+        <v>1291642561.598546</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07821731137419943</v>
+        <v>0.09265320964445631</v>
       </c>
       <c r="G31" t="n">
-        <v>0.05023523776169753</v>
+        <v>0.04354854042421621</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,22 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1837621852.550112</v>
+        <v>1466002240.157351</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08829351443017736</v>
+        <v>0.1087567499596673</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03003326550927552</v>
+        <v>0.0383820392735678</v>
       </c>
       <c r="H32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2433184996.307105</v>
+        <v>1974291649.844015</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1751893112871556</v>
+        <v>0.1367229871981117</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05438765142202129</v>
+        <v>0.06052635164753335</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1010402098.218537</v>
+        <v>1026904386.00138</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1203996770624669</v>
+        <v>0.09370349686411623</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02253157496556777</v>
+        <v>0.02137560855010014</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>845424782.885385</v>
+        <v>831923221.547459</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09035391288242633</v>
+        <v>0.09802176352608837</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03706755111749004</v>
+        <v>0.04218055849278758</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2553573994.194613</v>
+        <v>2016519324.493258</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1129649656289927</v>
+        <v>0.1552129066457657</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02524605463990931</v>
+        <v>0.01893583198275941</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1968308887.044273</v>
+        <v>2725606405.39688</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09663778726290234</v>
+        <v>0.1100925945208375</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03717886451616043</v>
+        <v>0.04117785071216699</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1323552595.291038</v>
+        <v>1559533850.022609</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1057561803813039</v>
+        <v>0.08720749775111548</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02519978503786412</v>
+        <v>0.02498830286403596</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1611481312.532221</v>
+        <v>1893102699.430571</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1593550377049867</v>
+        <v>0.1773324589781113</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02150346988795146</v>
+        <v>0.02290758048176498</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1747153217.39443</v>
+        <v>1390773556.712553</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1339162127444319</v>
+        <v>0.1191951588858742</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05592038838278398</v>
+        <v>0.03971068479004639</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2641855466.814846</v>
+        <v>2878051190.549147</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1075106385397407</v>
+        <v>0.1464355093421221</v>
       </c>
       <c r="G41" t="n">
-        <v>0.02914260809737795</v>
+        <v>0.04154581004852299</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3699609706.984411</v>
+        <v>3232593088.468573</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08597149736864401</v>
+        <v>0.1157291664032878</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03717886449309024</v>
+        <v>0.0293945456916366</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1634,13 +1634,13 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2387740798.207931</v>
+        <v>2652101739.714458</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1881007864908176</v>
+        <v>0.2007043073868711</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02119688823441075</v>
+        <v>0.0195347607315478</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,22 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1686791015.244591</v>
+        <v>1836398262.628654</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07846512553631123</v>
+        <v>0.1019888838424644</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03075102131024123</v>
+        <v>0.02954474882642201</v>
       </c>
       <c r="H44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1690,13 +1690,13 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2272285985.507666</v>
+        <v>2073897036.14402</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1850442736154141</v>
+        <v>0.126377940124186</v>
       </c>
       <c r="G45" t="n">
-        <v>0.0520555611464668</v>
+        <v>0.04427781639649694</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1718,16 +1718,16 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4691776375.823185</v>
+        <v>5691558791.530903</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1322223591028638</v>
+        <v>0.161188102285612</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05121026127983253</v>
+        <v>0.06111870768326858</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4306777508.428876</v>
+        <v>3582552173.605019</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1973615219775053</v>
+        <v>0.1430962107458986</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05627753626792731</v>
+        <v>0.04220139592293771</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4601235999.326102</v>
+        <v>3384069966.292426</v>
       </c>
       <c r="F48" t="n">
-        <v>0.06735186212089016</v>
+        <v>0.08503484410773976</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03028499968868862</v>
+        <v>0.02992462636396551</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,22 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1919777545.153234</v>
+        <v>1827124536.081743</v>
       </c>
       <c r="F49" t="n">
-        <v>0.144370836610624</v>
+        <v>0.1222165763274987</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03650424221809798</v>
+        <v>0.03008924277763448</v>
       </c>
       <c r="H49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -1824,22 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3853875474.470385</v>
+        <v>3176522450.553637</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1347134733634203</v>
+        <v>0.1614155062006653</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03315807055131214</v>
+        <v>0.03747528428230793</v>
       </c>
       <c r="H50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1299497593.551859</v>
+        <v>1160647112.455017</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1269089058929154</v>
+        <v>0.1610500115357807</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04075262421607601</v>
+        <v>0.05080114295884966</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3835428573.960617</v>
+        <v>4996561966.226254</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1277962226048412</v>
+        <v>0.1115760907891771</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05152307598283327</v>
+        <v>0.05606962093193288</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2562076306.593425</v>
+        <v>3387327828.916766</v>
       </c>
       <c r="F53" t="n">
-        <v>0.201513721030081</v>
+        <v>0.1559558529762418</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03307958593712935</v>
+        <v>0.02287479443804561</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,19 +1936,19 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4367751602.948111</v>
+        <v>4318740397.026703</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1674260691188898</v>
+        <v>0.1221636770472155</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04628263395902751</v>
+        <v>0.04824720105377321</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
@@ -1970,16 +1970,16 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4891036757.548161</v>
+        <v>3775381082.038667</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1517841570211649</v>
+        <v>0.153205063456266</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03002910385756991</v>
+        <v>0.02870900425831633</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1739783524.032354</v>
+        <v>1547107194.053334</v>
       </c>
       <c r="F56" t="n">
-        <v>0.09997872480047973</v>
+        <v>0.1227328031387725</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04610971470972906</v>
+        <v>0.04520916514162319</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3626591258.043137</v>
+        <v>2799811222.302204</v>
       </c>
       <c r="F57" t="n">
-        <v>0.168631469669581</v>
+        <v>0.1698733895295241</v>
       </c>
       <c r="G57" t="n">
-        <v>0.0173931081366643</v>
+        <v>0.02150176883298091</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1848679427.106319</v>
+        <v>1204201054.694354</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1535256364211064</v>
+        <v>0.1899854221660539</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03584845117924017</v>
+        <v>0.02574020478991608</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4838780263.158835</v>
+        <v>5261843704.87332</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09416114717259048</v>
+        <v>0.1086438318739534</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03342613652211934</v>
+        <v>0.04230273925580905</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3155410669.244261</v>
+        <v>3402938530.183962</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1580052971469008</v>
+        <v>0.1541003115463696</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03119535489465683</v>
+        <v>0.03129601866390513</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3204174315.90201</v>
+        <v>2735781080.349699</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1559856250472095</v>
+        <v>0.134640605402886</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02831972337426362</v>
+        <v>0.02597683435642208</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2166,13 +2166,13 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1911188357.202121</v>
+        <v>1324221205.393061</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1286446979779764</v>
+        <v>0.1838965094223995</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03128896506941315</v>
+        <v>0.0430457989758453</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5354217413.217048</v>
+        <v>3717946007.34923</v>
       </c>
       <c r="F63" t="n">
-        <v>0.08846699971260655</v>
+        <v>0.1024365054325612</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04343240080622756</v>
+        <v>0.04335765612738439</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,19 +2216,19 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3982443114.48086</v>
+        <v>4010621047.434085</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1349867009514355</v>
+        <v>0.1204737667998681</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02316311520857435</v>
+        <v>0.03045178839856097</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
@@ -2244,19 +2244,19 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5799288486.735538</v>
+        <v>3685873071.06856</v>
       </c>
       <c r="F65" t="n">
-        <v>0.170752601255846</v>
+        <v>0.1698864768257377</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02804831877883744</v>
+        <v>0.03017273942350972</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4183382714.297672</v>
+        <v>3754568978.958122</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1435768722182811</v>
+        <v>0.1338854223430254</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03336940695381665</v>
+        <v>0.04018100086637617</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2204744898.396942</v>
+        <v>3325689236.469753</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08815084485619379</v>
+        <v>0.09981414782460596</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04275960968015581</v>
+        <v>0.05061650846967905</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5275376398.876063</v>
+        <v>4183460370.008986</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1539594955331148</v>
+        <v>0.1489397154727073</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04250223883909473</v>
+        <v>0.04777559632672333</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1724134397.078257</v>
+        <v>2229861454.556052</v>
       </c>
       <c r="F69" t="n">
-        <v>0.155361230873659</v>
+        <v>0.1582956460751172</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05352998014455926</v>
+        <v>0.04355512770355479</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2351117483.170928</v>
+        <v>3187882552.842529</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09399872974150013</v>
+        <v>0.06407543318114252</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03930846003611172</v>
+        <v>0.03499582439009219</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4073826198.10919</v>
+        <v>3463485294.833444</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1449695019715991</v>
+        <v>0.1297441225897212</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02068460856708864</v>
+        <v>0.03059907610183558</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2446,16 +2446,16 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1911935848.5412</v>
+        <v>1477530072.438902</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09236742415744148</v>
+        <v>0.09791506525508632</v>
       </c>
       <c r="G72" t="n">
-        <v>0.05165215131678119</v>
+        <v>0.03270783555064931</v>
       </c>
       <c r="H72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -2468,22 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2251595309.721478</v>
+        <v>3303967512.987867</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09860100144177864</v>
+        <v>0.07018779180620272</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04515530488427346</v>
+        <v>0.03591682192964059</v>
       </c>
       <c r="H73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3952234186.203928</v>
+        <v>3163636412.962263</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1762689687821399</v>
+        <v>0.1192858098986493</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03151529019268179</v>
+        <v>0.0324376833437311</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2530,13 +2530,13 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2244345870.124096</v>
+        <v>2285936287.782609</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1129907011625145</v>
+        <v>0.1282101538772414</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02757366890639676</v>
+        <v>0.03360739349302783</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2558,13 +2558,13 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3544525186.761992</v>
+        <v>3514529167.417436</v>
       </c>
       <c r="F76" t="n">
-        <v>0.0862298508294993</v>
+        <v>0.1196207140280363</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02461531071839022</v>
+        <v>0.02574647708257969</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1566256839.830001</v>
+        <v>1675566549.596809</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1191090258136022</v>
+        <v>0.1698227513675485</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02610706649999325</v>
+        <v>0.02492464482160943</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2614,13 +2614,13 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3330300968.958605</v>
+        <v>4168342792.573934</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1278330967778679</v>
+        <v>0.08556226971189768</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05448539739439578</v>
+        <v>0.0398574632725126</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1404068602.42404</v>
+        <v>1310744991.076209</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1774223952243513</v>
+        <v>0.1361902876012437</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02822402806773538</v>
+        <v>0.02540243635526165</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4839195430.667015</v>
+        <v>5379551040.647736</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09583314839772374</v>
+        <v>0.09832365425223417</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02690184291561259</v>
+        <v>0.02582832387416274</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3767965541.20588</v>
+        <v>3582392906.390259</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1017071863682178</v>
+        <v>0.08524678301497259</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03213201623035698</v>
+        <v>0.02145480996546482</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4075588951.786217</v>
+        <v>3828391609.794834</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2088170644188736</v>
+        <v>0.1965315843186162</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02472834962195097</v>
+        <v>0.02665794287269307</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1596209996.576692</v>
+        <v>2051070623.460783</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1368045698390048</v>
+        <v>0.1498188717529511</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03624653403365394</v>
+        <v>0.03465361259809036</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1801958580.730017</v>
+        <v>1999457855.114889</v>
       </c>
       <c r="F84" t="n">
-        <v>0.08243861955663383</v>
+        <v>0.1176316444402084</v>
       </c>
       <c r="G84" t="n">
-        <v>0.0491656927134607</v>
+        <v>0.03546284427208111</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3131419441.299994</v>
+        <v>3335225262.045747</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1357868801338929</v>
+        <v>0.1197528620829987</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03817064866264269</v>
+        <v>0.04123047328352132</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2480001857.760307</v>
+        <v>2247281271.831528</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1509026866445077</v>
+        <v>0.1141577434459846</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02145359461014944</v>
+        <v>0.01807763054965936</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2866,13 +2866,13 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1407448448.164016</v>
+        <v>1048326064.781084</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1670502453368997</v>
+        <v>0.176518615166462</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03193889613556691</v>
+        <v>0.04059562602161219</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,22 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3572930090.996807</v>
+        <v>3347260197.260405</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1292584985060354</v>
+        <v>0.1482926176257034</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02719649694341631</v>
+        <v>0.02624592397717214</v>
       </c>
       <c r="H88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2861110600.549868</v>
+        <v>3374493501.301062</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1236522184307929</v>
+        <v>0.1517174926723986</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02644172036050061</v>
+        <v>0.03266085501222018</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1554698992.343106</v>
+        <v>2100238423.584572</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1117099461834095</v>
+        <v>0.08775368897884932</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04169206108070081</v>
+        <v>0.05147331827125538</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1343445183.897571</v>
+        <v>1287881263.793332</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1265016898508256</v>
+        <v>0.178106758922526</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05129002887448683</v>
+        <v>0.03958146739610639</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2693631570.644404</v>
+        <v>2765898385.751976</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08336282274237856</v>
+        <v>0.06901353039128122</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04572065950217195</v>
+        <v>0.02920368507574783</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4198483218.701646</v>
+        <v>3647274242.862683</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1301598133767209</v>
+        <v>0.1216121390679131</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04048701210062305</v>
+        <v>0.05191822427151789</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2164093585.486526</v>
+        <v>2327128907.497884</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1219527293558273</v>
+        <v>0.1344610083201263</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03263360388201376</v>
+        <v>0.02697654628333389</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3090,13 +3090,13 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2535533006.279563</v>
+        <v>3089442777.212878</v>
       </c>
       <c r="F95" t="n">
-        <v>0.118835968147532</v>
+        <v>0.1143260432341893</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03824829357700504</v>
+        <v>0.03718360764305127</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1719355886.071941</v>
+        <v>1977952040.617545</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1196371369356705</v>
+        <v>0.1306531144167521</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03963176714127929</v>
+        <v>0.03745898214272009</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5353615633.603376</v>
+        <v>4859584221.110439</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1268714664125869</v>
+        <v>0.1412283107336229</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02514789091807984</v>
+        <v>0.02178466513907001</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3174,13 +3174,13 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3024197737.882539</v>
+        <v>3252978746.472757</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1085229383992524</v>
+        <v>0.1062763290846866</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02269150281806351</v>
+        <v>0.02338852616899552</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2955007721.326706</v>
+        <v>2753368540.299295</v>
       </c>
       <c r="F99" t="n">
-        <v>0.09068378240299615</v>
+        <v>0.1418843114791323</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03423225087808152</v>
+        <v>0.02744593119847566</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3530862657.456285</v>
+        <v>4124073282.17786</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1481961855183878</v>
+        <v>0.1280734365838827</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01903445496271107</v>
+        <v>0.02551298093840228</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2940660035.570021</v>
+        <v>3502570565.346482</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2007061735570644</v>
+        <v>0.1578541624776104</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04729316695845732</v>
+        <v>0.03520903501515161</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_66.xlsx
+++ b/output/fit_clients/fit_round_66.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1622438374.744815</v>
+        <v>2097734500.036029</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08434151907280622</v>
+        <v>0.07103692880824625</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03561706454063136</v>
+        <v>0.04356363969182341</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2196603756.652846</v>
+        <v>2019145548.052493</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1128636085570445</v>
+        <v>0.1624990406820832</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04964008959577795</v>
+        <v>0.03183658801110605</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,22 +565,31 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3353095144.578458</v>
+        <v>3293728137.079819</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1577479025426387</v>
+        <v>0.1272972206489016</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02514207139887801</v>
+        <v>0.03614153258352588</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>46</v>
+      </c>
+      <c r="J4" t="n">
+        <v>65</v>
+      </c>
+      <c r="K4" t="n">
+        <v>138.1315036492692</v>
       </c>
     </row>
     <row r="5">
@@ -570,17 +608,24 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3644499676.158392</v>
+        <v>4041086989.973062</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07689829518563024</v>
+        <v>0.07850550908224108</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03651040172409529</v>
+        <v>0.04394263921762352</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>31</v>
+      </c>
+      <c r="J5" t="n">
+        <v>66</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -598,17 +643,24 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2741561568.163374</v>
+        <v>2386869279.428414</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1198224344434386</v>
+        <v>0.1214666999532571</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04341016930641909</v>
+        <v>0.04781996115859246</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +672,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2741926197.207598</v>
+        <v>3098591032.712691</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08973606129754073</v>
+        <v>0.07078732579588135</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03652613759805882</v>
+        <v>0.03359468151089307</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -654,17 +713,24 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3074950841.473706</v>
+        <v>3741077908.427278</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1807736378071325</v>
+        <v>0.1849138886868193</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02624407842703784</v>
+        <v>0.02043671608810623</v>
       </c>
       <c r="H8" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>16</v>
+      </c>
+      <c r="J8" t="n">
+        <v>66</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -676,23 +742,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2062550091.614933</v>
+        <v>1806218915.832483</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1371191499660205</v>
+        <v>0.1573195668435439</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0317689948942905</v>
+        <v>0.03700773915545543</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +777,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5015184158.080166</v>
+        <v>5507068928.801813</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1504910213261332</v>
+        <v>0.1651478402835494</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03655359141331348</v>
+        <v>0.03914950961868824</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>61</v>
+      </c>
+      <c r="J10" t="n">
+        <v>66</v>
+      </c>
+      <c r="K10" t="n">
+        <v>209.3224477762028</v>
       </c>
     </row>
     <row r="11">
@@ -732,23 +814,30 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3080619306.081639</v>
+        <v>3027406332.469913</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1171162320463512</v>
+        <v>0.151267101358889</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03477210924886084</v>
+        <v>0.04971628379846686</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
       </c>
+      <c r="I11" t="n">
+        <v>29</v>
+      </c>
+      <c r="J11" t="n">
+        <v>64</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -760,23 +849,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3134409822.48005</v>
+        <v>2649155189.537098</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1709544769505937</v>
+        <v>0.1991122553506703</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05085645614866505</v>
+        <v>0.03780075670918214</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,22 +884,31 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5019653428.972469</v>
+        <v>4673612891.739098</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07038895639839128</v>
+        <v>0.07207382739682336</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02841325115469899</v>
+        <v>0.01983437158920398</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>34</v>
+      </c>
+      <c r="J13" t="n">
+        <v>65</v>
+      </c>
+      <c r="K13" t="n">
+        <v>187.0567793139137</v>
       </c>
     </row>
     <row r="14">
@@ -816,23 +921,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3788715628.215112</v>
+        <v>2740690887.471753</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1669466314256509</v>
+        <v>0.1200505811452989</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03203354477271298</v>
+        <v>0.02880813757526746</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>11</v>
+      </c>
+      <c r="J14" t="n">
+        <v>56</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +956,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1488727429.287491</v>
+        <v>1279323029.229011</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09133640041138626</v>
+        <v>0.07154397099250075</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04246998072682845</v>
+        <v>0.04066318144070283</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +991,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2838724885.332993</v>
+        <v>2501232184.974298</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08701739427591842</v>
+        <v>0.08268056807018238</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04400971050447302</v>
+        <v>0.04091170647500213</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -906,16 +1032,25 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3493625822.224594</v>
+        <v>3218838101.918686</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1336688609032512</v>
+        <v>0.1167194074014079</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03516040602003181</v>
+        <v>0.05307274565955646</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>32</v>
+      </c>
+      <c r="J17" t="n">
+        <v>65</v>
+      </c>
+      <c r="K17" t="n">
+        <v>116.9053162536866</v>
       </c>
     </row>
     <row r="18">
@@ -934,16 +1069,25 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3329623068.438981</v>
+        <v>2720169713.512839</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1305999069271901</v>
+        <v>0.1403910871346529</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02862115833071722</v>
+        <v>0.02818958128959456</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>16</v>
+      </c>
+      <c r="J18" t="n">
+        <v>65</v>
+      </c>
+      <c r="K18" t="n">
+        <v>91.44166213339211</v>
       </c>
     </row>
     <row r="19">
@@ -956,23 +1100,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1178579002.76054</v>
+        <v>1234018001.828438</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1483449227812555</v>
+        <v>0.133752987532455</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02147620824618844</v>
+        <v>0.02550332805536753</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -990,17 +1141,24 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1858893650.833196</v>
+        <v>2775630489.78198</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1207160626157927</v>
+        <v>0.1179308168529436</v>
       </c>
       <c r="G20" t="n">
-        <v>0.03035763611131666</v>
+        <v>0.0269359147584512</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1170,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1839287212.123311</v>
+        <v>2389642609.914083</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09628172579996999</v>
+        <v>0.09052215608358327</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03173345342307467</v>
+        <v>0.03919971411137227</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,23 +1205,30 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2515701404.820271</v>
+        <v>2521630881.929861</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1402709376448367</v>
+        <v>0.1213340849230178</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04661717473674211</v>
+        <v>0.03847399104605778</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
       </c>
+      <c r="I22" t="n">
+        <v>16</v>
+      </c>
+      <c r="J22" t="n">
+        <v>62</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1068,23 +1240,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1433973315.237077</v>
+        <v>1211696429.18415</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1540735144408833</v>
+        <v>0.1567785329861962</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04188698289775088</v>
+        <v>0.0469312470132877</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,23 +1275,30 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2814398182.596169</v>
+        <v>3010162145.128496</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1209979050262336</v>
+        <v>0.1397151620834395</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03576881265339148</v>
+        <v>0.02449431297000908</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>20</v>
+      </c>
+      <c r="J24" t="n">
+        <v>64</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1130,17 +1316,24 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1141666107.383928</v>
+        <v>924463878.8826575</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1083472816281458</v>
+        <v>0.1196512298439578</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02878771328915529</v>
+        <v>0.02549125056137059</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1345,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1195351023.530471</v>
+        <v>1014906058.597709</v>
       </c>
       <c r="F26" t="n">
-        <v>0.102116721237064</v>
+        <v>0.08961117414014308</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02938912517258373</v>
+        <v>0.02432433410085639</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1186,17 +1386,24 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4183967970.557117</v>
+        <v>4630620189.918572</v>
       </c>
       <c r="F27" t="n">
-        <v>0.09611807394036168</v>
+        <v>0.1443779343701653</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02305155818561749</v>
+        <v>0.01796187066275371</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
       </c>
+      <c r="I27" t="n">
+        <v>26</v>
+      </c>
+      <c r="J27" t="n">
+        <v>66</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1208,23 +1415,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3248755115.903946</v>
+        <v>2885472562.416028</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1001075748821212</v>
+        <v>0.1214607880560103</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04971734457454487</v>
+        <v>0.03249116982172171</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>17</v>
+      </c>
+      <c r="J28" t="n">
+        <v>63</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1236,22 +1450,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5208517142.823761</v>
+        <v>4739101164.809725</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1011719772852535</v>
+        <v>0.1121535606430202</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03983195288746415</v>
+        <v>0.03964747183848548</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>60</v>
+      </c>
+      <c r="J29" t="n">
+        <v>66</v>
+      </c>
+      <c r="K29" t="n">
+        <v>217.0981261671147</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1487,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2286432712.015754</v>
+        <v>2394362381.065707</v>
       </c>
       <c r="F30" t="n">
-        <v>0.08660808785977632</v>
+        <v>0.1094008685319091</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02782594719263532</v>
+        <v>0.04008911073381777</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1522,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1291642561.598546</v>
+        <v>1346584405.256921</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09265320964445631</v>
+        <v>0.09325693574086429</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04354854042421621</v>
+        <v>0.04485948939193893</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1557,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1466002240.157351</v>
+        <v>1611603655.59525</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1087567499596673</v>
+        <v>0.08462716413164852</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0383820392735678</v>
+        <v>0.02389097606010376</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1354,17 +1598,24 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>1974291649.844015</v>
+        <v>2812209696.251028</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1367229871981117</v>
+        <v>0.137986758043664</v>
       </c>
       <c r="G33" t="n">
-        <v>0.06052635164753335</v>
+        <v>0.05045767986372016</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1627,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1026904386.00138</v>
+        <v>1192668348.229902</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09370349686411623</v>
+        <v>0.09876805296358764</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02137560855010014</v>
+        <v>0.02601958425154935</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1662,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>831923221.547459</v>
+        <v>1154021992.739861</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09802176352608837</v>
+        <v>0.1174717344300464</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04218055849278758</v>
+        <v>0.04440866584532751</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1697,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2016519324.493258</v>
+        <v>2791802360.581163</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1552129066457657</v>
+        <v>0.128212714965643</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01893583198275941</v>
+        <v>0.02733382522889907</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>1</v>
+      </c>
+      <c r="J36" t="n">
+        <v>2</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1732,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2725606405.39688</v>
+        <v>2396316750.978065</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1100925945208375</v>
+        <v>0.09707572630869517</v>
       </c>
       <c r="G37" t="n">
-        <v>0.04117785071216699</v>
+        <v>0.03922713901841464</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1767,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1559533850.022609</v>
+        <v>2091808383.162509</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08720749775111548</v>
+        <v>0.08157240603857585</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02498830286403596</v>
+        <v>0.03968563459026522</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1802,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1893102699.430571</v>
+        <v>1895662170.627555</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1773324589781113</v>
+        <v>0.1689838472335783</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02290758048176498</v>
+        <v>0.03271674304257833</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1550,17 +1843,24 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1390773556.712553</v>
+        <v>1398128424.535997</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1191951588858742</v>
+        <v>0.1353557832118121</v>
       </c>
       <c r="G40" t="n">
-        <v>0.03971068479004639</v>
+        <v>0.05629217154939021</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1872,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2878051190.549147</v>
+        <v>2808375938.575677</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1464355093421221</v>
+        <v>0.1649317391080133</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04154581004852299</v>
+        <v>0.04228302833260381</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,23 +1907,30 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3232593088.468573</v>
+        <v>3871381975.66495</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1157291664032878</v>
+        <v>0.1072724892733537</v>
       </c>
       <c r="G42" t="n">
-        <v>0.0293945456916366</v>
+        <v>0.04231287534390919</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>24</v>
+      </c>
+      <c r="J42" t="n">
+        <v>66</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1628,23 +1942,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2652101739.714458</v>
+        <v>2631546196.813531</v>
       </c>
       <c r="F43" t="n">
-        <v>0.2007043073868711</v>
+        <v>0.1858507374278196</v>
       </c>
       <c r="G43" t="n">
-        <v>0.0195347607315478</v>
+        <v>0.02276337674057866</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1662,17 +1983,24 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1836398262.628654</v>
+        <v>1454262454.521244</v>
       </c>
       <c r="F44" t="n">
-        <v>0.1019888838424644</v>
+        <v>0.100679237177971</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02954474882642201</v>
+        <v>0.02584614120312656</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1690,17 +2018,24 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2073897036.14402</v>
+        <v>2142125738.436224</v>
       </c>
       <c r="F45" t="n">
-        <v>0.126377940124186</v>
+        <v>0.1546698029490877</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04427781639649694</v>
+        <v>0.03492336015456374</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,23 +2047,30 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5691558791.530903</v>
+        <v>5177051272.833598</v>
       </c>
       <c r="F46" t="n">
-        <v>0.161188102285612</v>
+        <v>0.176350012351511</v>
       </c>
       <c r="G46" t="n">
-        <v>0.06111870768326858</v>
+        <v>0.04221356010323724</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
       </c>
+      <c r="I46" t="n">
+        <v>39</v>
+      </c>
+      <c r="J46" t="n">
+        <v>66</v>
+      </c>
+      <c r="K46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1746,16 +2088,25 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3582552173.605019</v>
+        <v>4433361818.547717</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1430962107458986</v>
+        <v>0.1435976809325069</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04220139592293771</v>
+        <v>0.04201835028529458</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>29</v>
+      </c>
+      <c r="J47" t="n">
+        <v>65</v>
+      </c>
+      <c r="K47" t="n">
+        <v>156.7616395991049</v>
       </c>
     </row>
     <row r="48">
@@ -1768,22 +2119,31 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3384069966.292426</v>
+        <v>3407944951.878837</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08503484410773976</v>
+        <v>0.1062701139995198</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02992462636396551</v>
+        <v>0.0387241810621328</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>24</v>
+      </c>
+      <c r="J48" t="n">
+        <v>65</v>
+      </c>
+      <c r="K48" t="n">
+        <v>146.9093805644544</v>
       </c>
     </row>
     <row r="49">
@@ -1802,17 +2162,24 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1827124536.081743</v>
+        <v>1344799361.456796</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1222165763274987</v>
+        <v>0.1941156430082052</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03008924277763448</v>
+        <v>0.03086744487321594</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,22 +2191,31 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3176522450.553637</v>
+        <v>3013863427.71486</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1614155062006653</v>
+        <v>0.1709585060515609</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03747528428230793</v>
+        <v>0.03407227930703007</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>24</v>
+      </c>
+      <c r="J50" t="n">
+        <v>65</v>
+      </c>
+      <c r="K50" t="n">
+        <v>114.1292567551937</v>
       </c>
     </row>
     <row r="51">
@@ -1858,17 +2234,24 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1160647112.455017</v>
+        <v>1144796659.825622</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1610500115357807</v>
+        <v>0.124874417500716</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05080114295884966</v>
+        <v>0.04274521001393975</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,23 +2263,30 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4996561966.226254</v>
+        <v>4266030153.185627</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1115760907891771</v>
+        <v>0.1010411710209722</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05606962093193288</v>
+        <v>0.06107646025926918</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>52</v>
+      </c>
+      <c r="J52" t="n">
+        <v>66</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1908,23 +2298,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3387327828.916766</v>
+        <v>3403438784.394875</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1559558529762418</v>
+        <v>0.1655421551870364</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02287479443804561</v>
+        <v>0.02674874669931036</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>8</v>
+      </c>
+      <c r="J53" t="n">
+        <v>59</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,22 +2333,31 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4318740397.026703</v>
+        <v>3700211212.307101</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1221636770472155</v>
+        <v>0.1367882072414509</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04824720105377321</v>
+        <v>0.05028080871903131</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>29</v>
+      </c>
+      <c r="J54" t="n">
+        <v>65</v>
+      </c>
+      <c r="K54" t="n">
+        <v>169.7099272217637</v>
       </c>
     </row>
     <row r="55">
@@ -1964,23 +2370,30 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3775381082.038667</v>
+        <v>4977349526.759078</v>
       </c>
       <c r="F55" t="n">
-        <v>0.153205063456266</v>
+        <v>0.2027016543385788</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02870900425831633</v>
+        <v>0.02343022339789389</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
       </c>
+      <c r="I55" t="n">
+        <v>30</v>
+      </c>
+      <c r="J55" t="n">
+        <v>66</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1992,23 +2405,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1547107194.053334</v>
+        <v>1502889754.157846</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1227328031387725</v>
+        <v>0.1376229692449727</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04520916514162319</v>
+        <v>0.04273072004753248</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2026,16 +2446,25 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>2799811222.302204</v>
+        <v>4425436428.522058</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1698733895295241</v>
+        <v>0.1274358779854478</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02150176883298091</v>
+        <v>0.02704442077145362</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>25</v>
+      </c>
+      <c r="J57" t="n">
+        <v>65</v>
+      </c>
+      <c r="K57" t="n">
+        <v>179.3533215946076</v>
       </c>
     </row>
     <row r="58">
@@ -2048,23 +2477,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1204201054.694354</v>
+        <v>1739071624.846268</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1899854221660539</v>
+        <v>0.1963656888777825</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02574020478991608</v>
+        <v>0.02858957562510727</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2082,16 +2518,25 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5261843704.87332</v>
+        <v>4829825663.181451</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1086438318739534</v>
+        <v>0.1233269842250277</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04230273925580905</v>
+        <v>0.03613789891726306</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>32</v>
+      </c>
+      <c r="J59" t="n">
+        <v>65</v>
+      </c>
+      <c r="K59" t="n">
+        <v>165.0517089703303</v>
       </c>
     </row>
     <row r="60">
@@ -2104,23 +2549,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3402938530.183962</v>
+        <v>3313375465.715459</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1541003115463696</v>
+        <v>0.1792670933890864</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03129601866390513</v>
+        <v>0.03331896955054511</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>8</v>
+      </c>
+      <c r="J60" t="n">
+        <v>52</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2138,17 +2590,24 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2735781080.349699</v>
+        <v>2824106112.62893</v>
       </c>
       <c r="F61" t="n">
-        <v>0.134640605402886</v>
+        <v>0.1435085018733436</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02597683435642208</v>
+        <v>0.02775998056152969</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>0</v>
+      </c>
+      <c r="J61" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2619,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1324221205.393061</v>
+        <v>1396875518.749432</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1838965094223995</v>
+        <v>0.1924155751897284</v>
       </c>
       <c r="G62" t="n">
-        <v>0.0430457989758453</v>
+        <v>0.03480631319611084</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,23 +2654,30 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3717946007.34923</v>
+        <v>5368852851.579481</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1024365054325612</v>
+        <v>0.07947345688013323</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04335765612738439</v>
+        <v>0.04098141997379019</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
       </c>
+      <c r="I63" t="n">
+        <v>32</v>
+      </c>
+      <c r="J63" t="n">
+        <v>66</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2216,23 +2689,30 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4010621047.434085</v>
+        <v>4495514471.852334</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1204737667998681</v>
+        <v>0.1855796163523216</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03045178839856097</v>
+        <v>0.02687536873747564</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
       </c>
+      <c r="I64" t="n">
+        <v>32</v>
+      </c>
+      <c r="J64" t="n">
+        <v>66</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2244,22 +2724,31 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>3685873071.06856</v>
+        <v>5781698124.709038</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1698864768257377</v>
+        <v>0.1488154869158119</v>
       </c>
       <c r="G65" t="n">
-        <v>0.03017273942350972</v>
+        <v>0.02071607700142778</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>52</v>
+      </c>
+      <c r="J65" t="n">
+        <v>66</v>
+      </c>
+      <c r="K65" t="n">
+        <v>190.3982227234609</v>
       </c>
     </row>
     <row r="66">
@@ -2272,23 +2761,30 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3754568978.958122</v>
+        <v>5117542917.335811</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1338854223430254</v>
+        <v>0.1320169053243037</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04018100086637617</v>
+        <v>0.04910384893881107</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
       </c>
+      <c r="I66" t="n">
+        <v>32</v>
+      </c>
+      <c r="J66" t="n">
+        <v>66</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2300,23 +2796,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3325689236.469753</v>
+        <v>3386442759.305638</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09981414782460596</v>
+        <v>0.08152518419729966</v>
       </c>
       <c r="G67" t="n">
-        <v>0.05061650846967905</v>
+        <v>0.04098187294102843</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,22 +2831,31 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4183460370.008986</v>
+        <v>3850615560.526227</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1489397154727073</v>
+        <v>0.1237396901846293</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04777559632672333</v>
+        <v>0.04951267498627061</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>33</v>
+      </c>
+      <c r="J68" t="n">
+        <v>65</v>
+      </c>
+      <c r="K68" t="n">
+        <v>176.1746983072023</v>
       </c>
     </row>
     <row r="69">
@@ -2362,17 +2874,24 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2229861454.556052</v>
+        <v>2438850509.416901</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1582956460751172</v>
+        <v>0.1399987042163103</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04355512770355479</v>
+        <v>0.04501650582813359</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,22 +2903,31 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3187882552.842529</v>
+        <v>2559329568.404746</v>
       </c>
       <c r="F70" t="n">
-        <v>0.06407543318114252</v>
+        <v>0.07396842197430509</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03499582439009219</v>
+        <v>0.03280697051332526</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
+      </c>
+      <c r="I70" t="n">
+        <v>8</v>
+      </c>
+      <c r="J70" t="n">
+        <v>65</v>
+      </c>
+      <c r="K70" t="n">
+        <v>76.68459334907506</v>
       </c>
     </row>
     <row r="71">
@@ -2412,22 +2940,31 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3463485294.833444</v>
+        <v>5595358679.193957</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1297441225897212</v>
+        <v>0.1344499920591654</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03059907610183558</v>
+        <v>0.03023048864431433</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>54</v>
+      </c>
+      <c r="J71" t="n">
+        <v>66</v>
+      </c>
+      <c r="K71" t="n">
+        <v>190.4499669369388</v>
       </c>
     </row>
     <row r="72">
@@ -2440,23 +2977,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1477530072.438902</v>
+        <v>2184213130.281933</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09791506525508632</v>
+        <v>0.1067555614418605</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03270783555064931</v>
+        <v>0.0356010580722663</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3012,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3303967512.987867</v>
+        <v>2995997164.745837</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07018779180620272</v>
+        <v>0.1065652974604631</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03591682192964059</v>
+        <v>0.04047696038358903</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>4</v>
+      </c>
+      <c r="J73" t="n">
+        <v>54</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,23 +3047,30 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3163636412.962263</v>
+        <v>3904607628.480337</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1192858098986493</v>
+        <v>0.157068648378708</v>
       </c>
       <c r="G74" t="n">
-        <v>0.0324376833437311</v>
+        <v>0.02846827271206492</v>
       </c>
       <c r="H74" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>19</v>
+      </c>
+      <c r="J74" t="n">
+        <v>66</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2530,17 +3088,24 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2285936287.782609</v>
+        <v>2191164372.507558</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1282101538772414</v>
+        <v>0.1650960418656335</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03360739349302783</v>
+        <v>0.03487919054842355</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,23 +3117,30 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3514529167.417436</v>
+        <v>3502158192.551767</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1196207140280363</v>
+        <v>0.1126596481474587</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02574647708257969</v>
+        <v>0.02786677058530557</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
       </c>
+      <c r="I76" t="n">
+        <v>30</v>
+      </c>
+      <c r="J76" t="n">
+        <v>66</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2580,23 +3152,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1675566549.596809</v>
+        <v>1954386019.636052</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1698227513675485</v>
+        <v>0.127927126587934</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02492464482160943</v>
+        <v>0.03031285036903313</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,23 +3187,30 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4168342792.573934</v>
+        <v>4682178202.463396</v>
       </c>
       <c r="F78" t="n">
-        <v>0.08556226971189768</v>
+        <v>0.096718793582874</v>
       </c>
       <c r="G78" t="n">
-        <v>0.0398574632725126</v>
+        <v>0.05559356995133345</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
       </c>
+      <c r="I78" t="n">
+        <v>27</v>
+      </c>
+      <c r="J78" t="n">
+        <v>66</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2636,23 +3222,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1310744991.076209</v>
+        <v>1909425125.149621</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1361902876012437</v>
+        <v>0.1673459363159439</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02540243635526165</v>
+        <v>0.03866080206109722</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,22 +3257,31 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5379551040.647736</v>
+        <v>3642213318.462187</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09832365425223417</v>
+        <v>0.09613489359113336</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02582832387416274</v>
+        <v>0.03228218492660757</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>32</v>
+      </c>
+      <c r="J80" t="n">
+        <v>65</v>
+      </c>
+      <c r="K80" t="n">
+        <v>130.5743027487669</v>
       </c>
     </row>
     <row r="81">
@@ -2692,22 +3294,31 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3582392906.390259</v>
+        <v>3298360357.633851</v>
       </c>
       <c r="F81" t="n">
-        <v>0.08524678301497259</v>
+        <v>0.09699702820216222</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02145480996546482</v>
+        <v>0.03146156497268979</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>30</v>
+      </c>
+      <c r="J81" t="n">
+        <v>65</v>
+      </c>
+      <c r="K81" t="n">
+        <v>110.0302733173009</v>
       </c>
     </row>
     <row r="82">
@@ -2726,16 +3337,25 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3828391609.794834</v>
+        <v>5214968628.693349</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1965315843186162</v>
+        <v>0.1335538109551182</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02665794287269307</v>
+        <v>0.01965886455885249</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>40</v>
+      </c>
+      <c r="J82" t="n">
+        <v>66</v>
+      </c>
+      <c r="K82" t="n">
+        <v>195.3141694856233</v>
       </c>
     </row>
     <row r="83">
@@ -2748,23 +3368,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2051070623.460783</v>
+        <v>1977818025.122036</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1498188717529511</v>
+        <v>0.144858403338496</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03465361259809036</v>
+        <v>0.04313158284243566</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3403,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1999457855.114889</v>
+        <v>1722857371.143015</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1176316444402084</v>
+        <v>0.08795661747040699</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03546284427208111</v>
+        <v>0.05110960041916732</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3438,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3335225262.045747</v>
+        <v>2976757807.256538</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1197528620829987</v>
+        <v>0.1767854670076312</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04123047328352132</v>
+        <v>0.04828668872600712</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>12</v>
+      </c>
+      <c r="J85" t="n">
+        <v>64</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3473,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2247281271.831528</v>
+        <v>2675682592.418409</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1141577434459846</v>
+        <v>0.1260984775663942</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01807763054965936</v>
+        <v>0.01818308525809898</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3508,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1048326064.781084</v>
+        <v>1047117829.662868</v>
       </c>
       <c r="F87" t="n">
-        <v>0.176518615166462</v>
+        <v>0.1229797935841061</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04059562602161219</v>
+        <v>0.02706434950450489</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3543,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3347260197.260405</v>
+        <v>3376434791.959929</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1482926176257034</v>
+        <v>0.1577792804330949</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02624592397717214</v>
+        <v>0.03714878821093587</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>8</v>
+      </c>
+      <c r="J88" t="n">
+        <v>55</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3578,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3374493501.301062</v>
+        <v>3091300312.438559</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1517174926723986</v>
+        <v>0.1216870231255574</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03266085501222018</v>
+        <v>0.03354329188134569</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>7</v>
+      </c>
+      <c r="J89" t="n">
+        <v>62</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3613,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2100238423.584572</v>
+        <v>1707727174.4462</v>
       </c>
       <c r="F90" t="n">
-        <v>0.08775368897884932</v>
+        <v>0.1339420540916412</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05147331827125538</v>
+        <v>0.03396670910407603</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3648,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1287881263.793332</v>
+        <v>1868022274.716675</v>
       </c>
       <c r="F91" t="n">
-        <v>0.178106758922526</v>
+        <v>0.1704808252363992</v>
       </c>
       <c r="G91" t="n">
-        <v>0.03958146739610639</v>
+        <v>0.05371190634227564</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3683,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2765898385.751976</v>
+        <v>2165300939.168605</v>
       </c>
       <c r="F92" t="n">
-        <v>0.06901353039128122</v>
+        <v>0.09630202424306614</v>
       </c>
       <c r="G92" t="n">
-        <v>0.02920368507574783</v>
+        <v>0.03901017552662931</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,23 +3718,30 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3647274242.862683</v>
+        <v>4874170589.291965</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1216121390679131</v>
+        <v>0.1415688432976064</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05191822427151789</v>
+        <v>0.03538388077537569</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
       </c>
+      <c r="I93" t="n">
+        <v>29</v>
+      </c>
+      <c r="J93" t="n">
+        <v>66</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3056,23 +3753,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2327128907.497884</v>
+        <v>2520826999.171107</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1344610083201263</v>
+        <v>0.124783585573674</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02697654628333389</v>
+        <v>0.03138057793371049</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3090,17 +3794,24 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3089442777.212878</v>
+        <v>2647949737.452667</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1143260432341893</v>
+        <v>0.1277710299711109</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03718360764305127</v>
+        <v>0.05038283558523971</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>1</v>
+      </c>
+      <c r="J95" t="n">
+        <v>14</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3823,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1977952040.617545</v>
+        <v>2244262542.464034</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1306531144167521</v>
+        <v>0.09923322274449456</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03745898214272009</v>
+        <v>0.03819355641757624</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,22 +3858,31 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4859584221.110439</v>
+        <v>4020181004.263964</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1412283107336229</v>
+        <v>0.1697219936869129</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02178466513907001</v>
+        <v>0.0197889838125663</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>32</v>
+      </c>
+      <c r="J97" t="n">
+        <v>65</v>
+      </c>
+      <c r="K97" t="n">
+        <v>181.950427058376</v>
       </c>
     </row>
     <row r="98">
@@ -3168,23 +3895,30 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3252978746.472757</v>
+        <v>3242360810.415354</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1062763290846866</v>
+        <v>0.0885327072484601</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02338852616899552</v>
+        <v>0.03274649183816974</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
       </c>
+      <c r="I98" t="n">
+        <v>15</v>
+      </c>
+      <c r="J98" t="n">
+        <v>62</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3202,17 +3936,24 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2753368540.299295</v>
+        <v>2274547809.909193</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1418843114791323</v>
+        <v>0.1442406761525804</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02744593119847566</v>
+        <v>0.02723041793454491</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>1</v>
+      </c>
+      <c r="J99" t="n">
+        <v>62</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,23 +3965,30 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4124073282.17786</v>
+        <v>4778507745.631704</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1280734365838827</v>
+        <v>0.1525257967019428</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02551298093840228</v>
+        <v>0.02338471504915308</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>27</v>
+      </c>
+      <c r="J100" t="n">
+        <v>66</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3502570565.346482</v>
+        <v>2199439786.455711</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1578541624776104</v>
+        <v>0.1389837144015468</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03520903501515161</v>
+        <v>0.04568761191918077</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>3</v>
+      </c>
+      <c r="J101" t="n">
+        <v>48</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
